--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="培养表" sheetId="26" r:id="rId2"/>
     <sheet name="培养属性" sheetId="27" r:id="rId3"/>
-    <sheet name="随机参数" sheetId="30" r:id="rId4"/>
-    <sheet name="槽随机参数" sheetId="31" r:id="rId5"/>
-    <sheet name="技能库" sheetId="28" r:id="rId6"/>
+    <sheet name="天赋随机组" sheetId="32" r:id="rId4"/>
+    <sheet name="随机参数" sheetId="30" r:id="rId5"/>
+    <sheet name="槽随机参数" sheetId="31" r:id="rId6"/>
+    <sheet name="技能库" sheetId="28" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="312">
   <si>
     <t>sheet名</t>
   </si>
@@ -84,10 +85,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>洗练丹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>金币</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -272,24 +269,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">不同品质的卡走不同配置。
-方法1是只用洗练丹，方法2是用洗练丹+金币，方法3是洗练丹+钻石
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AtkExt.UpProp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AtkExt.Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同洗练方式的属性随机配置不同。
-根据洗练获得的战力百分比，定位所处阶段。
-不同阶段的洗练配置不同
-每次洗练，先判断属性上升还是下降UpProp。如果上升则该条属性在1~Max随机，如果下降则在-1~Min随机</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -431,10 +415,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Prob</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>#note</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -567,36 +547,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>R卡概率2阶段</t>
-  </si>
-  <si>
-    <t>R卡概率1阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR卡概率1阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR卡概率2阶段</t>
-  </si>
-  <si>
-    <t>SR卡概率3阶段</t>
-  </si>
-  <si>
-    <t>SSR卡概率1阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSR卡概率2阶段</t>
-  </si>
-  <si>
-    <t>SSR卡概率3阶段</t>
-  </si>
-  <si>
-    <t>SSR卡概率4阶段</t>
-  </si>
-  <si>
     <t>HelpCol</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -628,10 +578,6 @@
   </si>
   <si>
     <t>int:&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1128,22 +1074,6 @@
   </si>
   <si>
     <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ilian_param.txt</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>xilian</t>
     </r>
     <r>
@@ -1213,6 +1143,439 @@
       <t>,2可能随机出专属技能，其概率在卡牌表中配置
 如果不出现专属技能，则按权重在技能库中随机，随到后再随机出现高级技能还是低级技能</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">不同品质的卡走不同配置。
+方法1是只用培养丹，方法2是用培养丹+金币，方法3是培养丹+钻石
+</t>
+  </si>
+  <si>
+    <t>不同培养方式的属性随机配置不同。
+根据培养获得的战力百分比，定位所处阶段。
+不同阶段的培养配置不同
+每次培养，先判断属性上升还是下降UpProp。如果上升则该条属性在1~Max随机，如果下降则在-1~Min随机</t>
+  </si>
+  <si>
+    <t>R卡概率1阶段-全低</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R卡概率2阶段-攻高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dPhase</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R卡概率7阶段-防血高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R卡概率8阶段-三高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率1阶段-全低</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率2阶段-攻中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率3阶段-防中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率4阶段-血中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率5阶段-攻防中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率7阶段-防血中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率9阶段-攻高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率10阶段-防高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率11阶段-血高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率12阶段-攻防高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率13阶段-攻血高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率15阶段-全高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR卡概率1阶段-全低</t>
+  </si>
+  <si>
+    <t>SSR卡概率2阶段-攻中</t>
+  </si>
+  <si>
+    <t>SSR卡概率3阶段-防中</t>
+  </si>
+  <si>
+    <t>SSR卡概率4阶段-血中</t>
+  </si>
+  <si>
+    <t>SSR卡概率5阶段-攻防中</t>
+  </si>
+  <si>
+    <t>SSR卡概率6阶段-攻血中</t>
+  </si>
+  <si>
+    <t>SSR卡概率7阶段-防血中</t>
+  </si>
+  <si>
+    <t>SSR卡概率8阶段-全中</t>
+  </si>
+  <si>
+    <t>SSR卡概率9阶段-攻高</t>
+  </si>
+  <si>
+    <t>SSR卡概率10阶段-防高</t>
+  </si>
+  <si>
+    <t>SSR卡概率11阶段-血高</t>
+  </si>
+  <si>
+    <t>SSR卡概率12阶段-攻防高</t>
+  </si>
+  <si>
+    <t>SSR卡概率13阶段-攻血高</t>
+  </si>
+  <si>
+    <t>SSR卡概率14阶段-防血高</t>
+  </si>
+  <si>
+    <t>SSR卡概率15阶段-全高</t>
+  </si>
+  <si>
+    <t>SSR卡概率9阶段-攻特</t>
+  </si>
+  <si>
+    <t>SSR卡概率10阶段-防特</t>
+  </si>
+  <si>
+    <t>SSR卡概率11阶段-血特</t>
+  </si>
+  <si>
+    <t>SSR卡概率12阶段-攻防特</t>
+  </si>
+  <si>
+    <t>SSR卡概率13阶段-攻血特</t>
+  </si>
+  <si>
+    <t>SSR卡概率14阶段-防血特</t>
+  </si>
+  <si>
+    <t>SSR卡概率15阶段-全特</t>
+  </si>
+  <si>
+    <t>R卡概率3阶段-防高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R卡概率4阶段-血高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R卡概率5阶段-攻防高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R卡概率6阶段-攻血高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dPhase</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dPhase</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率6阶段-攻血中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率8阶段-全中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR卡概率14阶段-防血高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualityShow[1]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualityShow[2]</t>
+  </si>
+  <si>
+    <t>QualityShow[3]</t>
+  </si>
+  <si>
+    <t>品质显示1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质显示2</t>
+  </si>
+  <si>
+    <t>品质显示3</t>
+  </si>
+  <si>
+    <t>AtkRabackIni</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefRabackIni</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpRabackIni</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始攻击返还</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始防御返还</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始血量返还</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost[1].Num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练消耗道具ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练消耗道具数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>R洗练</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR洗练</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR洗练</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练瓶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋随机组</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置洗练的消耗和初始返还比例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精良</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>极致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ilian_param.txt</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xilian.txt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>培养丹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkRabackMax</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefRabackMax</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpRabackMax</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击返还最大值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御返还最大值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量返还最大值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1422,7 +1785,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1439,7 +1802,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1452,10 +1814,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1750,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1795,18 +2157,18 @@
     </row>
     <row r="2" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -1815,18 +2177,18 @@
     </row>
     <row r="3" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
@@ -1835,14 +2197,14 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1853,14 +2215,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1869,20 +2231,20 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>1</v>
@@ -1891,18 +2253,18 @@
     </row>
     <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G7" s="2" t="b">
         <v>1</v>
@@ -1911,37 +2273,39 @@
     </row>
     <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G8" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>215</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="G9" s="2" t="b">
         <v>1</v>
       </c>
@@ -1949,14 +2313,14 @@
     </row>
     <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1967,14 +2331,14 @@
     </row>
     <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1982,6 +2346,42 @@
         <v>1</v>
       </c>
       <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1995,7 +2395,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2011,16 +2411,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>9</v>
@@ -2043,66 +2443,66 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
       <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -2116,10 +2516,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -2140,16 +2540,16 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>74</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2">
         <v>1000</v>
@@ -2168,16 +2568,16 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2">
         <v>10</v>
@@ -2196,10 +2596,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>76</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F7" s="2">
         <v>7</v>
@@ -2220,16 +2620,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F8" s="2">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2">
         <v>1000</v>
@@ -2248,16 +2648,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>78</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2">
         <v>10</v>
@@ -2276,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
@@ -2300,16 +2700,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>79</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2">
         <v>1000</v>
@@ -2328,16 +2728,16 @@
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2">
         <v>10</v>
@@ -2356,7 +2756,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2376,7 +2776,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -2385,134 +2785,134 @@
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
@@ -2526,15 +2926,15 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>0.5</v>
       </c>
       <c r="H4" s="2">
@@ -2543,7 +2943,7 @@
       <c r="I4" s="2">
         <v>-4</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>0.5</v>
       </c>
       <c r="K4" s="2">
@@ -2552,7 +2952,7 @@
       <c r="L4" s="2">
         <v>-2</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>0.5</v>
       </c>
       <c r="N4" s="2">
@@ -2573,15 +2973,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.7</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.4</v>
       </c>
       <c r="H5" s="2">
@@ -2590,7 +2990,7 @@
       <c r="I5" s="2">
         <v>-4</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>0.4</v>
       </c>
       <c r="K5" s="2">
@@ -2599,7 +2999,7 @@
       <c r="L5" s="2">
         <v>-2</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>0.4</v>
       </c>
       <c r="N5" s="2">
@@ -2620,15 +3020,15 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.35</v>
       </c>
       <c r="H6" s="2">
@@ -2637,7 +3037,7 @@
       <c r="I6" s="2">
         <v>-4</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>0.35</v>
       </c>
       <c r="K6" s="2">
@@ -2646,7 +3046,7 @@
       <c r="L6" s="2">
         <v>-2</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>0.35</v>
       </c>
       <c r="N6" s="2">
@@ -2667,15 +3067,15 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>0.3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.5</v>
       </c>
       <c r="H7" s="2">
@@ -2684,7 +3084,7 @@
       <c r="I7" s="2">
         <v>-4</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>0.5</v>
       </c>
       <c r="K7" s="2">
@@ -2693,7 +3093,7 @@
       <c r="L7" s="2">
         <v>-2</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>0.5</v>
       </c>
       <c r="N7" s="2">
@@ -2714,15 +3114,15 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>0.7</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.4</v>
       </c>
       <c r="H8" s="2">
@@ -2731,7 +3131,7 @@
       <c r="I8" s="2">
         <v>-4</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>0.4</v>
       </c>
       <c r="K8" s="2">
@@ -2740,7 +3140,7 @@
       <c r="L8" s="2">
         <v>-2</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>0.4</v>
       </c>
       <c r="N8" s="2">
@@ -2761,15 +3161,15 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
         <v>0.35</v>
       </c>
       <c r="H9" s="2">
@@ -2778,7 +3178,7 @@
       <c r="I9" s="2">
         <v>-4</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>0.35</v>
       </c>
       <c r="K9" s="2">
@@ -2787,7 +3187,7 @@
       <c r="L9" s="2">
         <v>-2</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>0.35</v>
       </c>
       <c r="N9" s="2">
@@ -2808,15 +3208,15 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>0.3</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.5</v>
       </c>
       <c r="H10" s="2">
@@ -2825,7 +3225,7 @@
       <c r="I10" s="2">
         <v>-4</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>0.5</v>
       </c>
       <c r="K10" s="2">
@@ -2834,7 +3234,7 @@
       <c r="L10" s="2">
         <v>-2</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>0.5</v>
       </c>
       <c r="N10" s="2">
@@ -2855,15 +3255,15 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.7</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.4</v>
       </c>
       <c r="H11" s="2">
@@ -2872,7 +3272,7 @@
       <c r="I11" s="2">
         <v>-4</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>0.4</v>
       </c>
       <c r="K11" s="2">
@@ -2881,7 +3281,7 @@
       <c r="L11" s="2">
         <v>-2</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>0.4</v>
       </c>
       <c r="N11" s="2">
@@ -2902,15 +3302,15 @@
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
         <v>0.35</v>
       </c>
       <c r="H12" s="2">
@@ -2919,7 +3319,7 @@
       <c r="I12" s="2">
         <v>-4</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>0.35</v>
       </c>
       <c r="K12" s="2">
@@ -2928,7 +3328,7 @@
       <c r="L12" s="2">
         <v>-2</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>0.35</v>
       </c>
       <c r="N12" s="2">
@@ -2949,15 +3349,15 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>0.3</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>0.5</v>
       </c>
       <c r="H13" s="2">
@@ -2966,7 +3366,7 @@
       <c r="I13" s="2">
         <v>-4</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>0.5</v>
       </c>
       <c r="K13" s="2">
@@ -2975,7 +3375,7 @@
       <c r="L13" s="2">
         <v>-2</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>0.5</v>
       </c>
       <c r="N13" s="2">
@@ -2996,15 +3396,15 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>0.7</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.4</v>
       </c>
       <c r="H14" s="2">
@@ -3013,7 +3413,7 @@
       <c r="I14" s="2">
         <v>-4</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>0.4</v>
       </c>
       <c r="K14" s="2">
@@ -3022,7 +3422,7 @@
       <c r="L14" s="2">
         <v>-2</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>0.4</v>
       </c>
       <c r="N14" s="2">
@@ -3043,15 +3443,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
         <v>3</v>
       </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
         <v>0.35</v>
       </c>
       <c r="H15" s="2">
@@ -3060,7 +3460,7 @@
       <c r="I15" s="2">
         <v>-4</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>0.35</v>
       </c>
       <c r="K15" s="2">
@@ -3069,7 +3469,7 @@
       <c r="L15" s="2">
         <v>-2</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>0.35</v>
       </c>
       <c r="N15" s="2">
@@ -3090,15 +3490,15 @@
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>0.3</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>0.5</v>
       </c>
       <c r="H16" s="2">
@@ -3107,7 +3507,7 @@
       <c r="I16" s="2">
         <v>-4</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>0.5</v>
       </c>
       <c r="K16" s="2">
@@ -3116,7 +3516,7 @@
       <c r="L16" s="2">
         <v>-2</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>0.5</v>
       </c>
       <c r="N16" s="2">
@@ -3137,15 +3537,15 @@
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>0.7</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0.4</v>
       </c>
       <c r="H17" s="2">
@@ -3154,7 +3554,7 @@
       <c r="I17" s="2">
         <v>-4</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>0.4</v>
       </c>
       <c r="K17" s="2">
@@ -3163,7 +3563,7 @@
       <c r="L17" s="2">
         <v>-2</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>0.4</v>
       </c>
       <c r="N17" s="2">
@@ -3184,15 +3584,15 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2">
         <v>3</v>
       </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
         <v>0.35</v>
       </c>
       <c r="H18" s="2">
@@ -3201,7 +3601,7 @@
       <c r="I18" s="2">
         <v>-4</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>0.35</v>
       </c>
       <c r="K18" s="2">
@@ -3210,7 +3610,7 @@
       <c r="L18" s="2">
         <v>-2</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>0.35</v>
       </c>
       <c r="N18" s="2">
@@ -3231,15 +3631,15 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>0.3</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>0.5</v>
       </c>
       <c r="H19" s="2">
@@ -3248,7 +3648,7 @@
       <c r="I19" s="2">
         <v>-4</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>0.5</v>
       </c>
       <c r="K19" s="2">
@@ -3257,7 +3657,7 @@
       <c r="L19" s="2">
         <v>-2</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>0.5</v>
       </c>
       <c r="N19" s="2">
@@ -3278,15 +3678,15 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>0.7</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>0.4</v>
       </c>
       <c r="H20" s="2">
@@ -3295,7 +3695,7 @@
       <c r="I20" s="2">
         <v>-4</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>0.4</v>
       </c>
       <c r="K20" s="2">
@@ -3304,7 +3704,7 @@
       <c r="L20" s="2">
         <v>-2</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>0.4</v>
       </c>
       <c r="N20" s="2">
@@ -3325,15 +3725,15 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
       </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
         <v>0.35</v>
       </c>
       <c r="H21" s="2">
@@ -3342,7 +3742,7 @@
       <c r="I21" s="2">
         <v>-4</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>0.35</v>
       </c>
       <c r="K21" s="2">
@@ -3351,7 +3751,7 @@
       <c r="L21" s="2">
         <v>-2</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>0.35</v>
       </c>
       <c r="N21" s="2">
@@ -3372,15 +3772,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <v>0.3</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>0.5</v>
       </c>
       <c r="H22" s="2">
@@ -3389,7 +3789,7 @@
       <c r="I22" s="2">
         <v>-4</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>0.5</v>
       </c>
       <c r="K22" s="2">
@@ -3398,7 +3798,7 @@
       <c r="L22" s="2">
         <v>-2</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>0.5</v>
       </c>
       <c r="N22" s="2">
@@ -3419,15 +3819,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>0.7</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <v>0.4</v>
       </c>
       <c r="H23" s="2">
@@ -3436,7 +3836,7 @@
       <c r="I23" s="2">
         <v>-4</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <v>0.4</v>
       </c>
       <c r="K23" s="2">
@@ -3445,7 +3845,7 @@
       <c r="L23" s="2">
         <v>-2</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>0.4</v>
       </c>
       <c r="N23" s="2">
@@ -3466,15 +3866,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2">
         <v>3</v>
       </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
         <v>0.35</v>
       </c>
       <c r="H24" s="2">
@@ -3483,7 +3883,7 @@
       <c r="I24" s="2">
         <v>-4</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <v>0.35</v>
       </c>
       <c r="K24" s="2">
@@ -3492,7 +3892,7 @@
       <c r="L24" s="2">
         <v>-2</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>0.35</v>
       </c>
       <c r="N24" s="2">
@@ -3513,15 +3913,15 @@
         <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>0.3</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <v>0.5</v>
       </c>
       <c r="H25" s="2">
@@ -3530,7 +3930,7 @@
       <c r="I25" s="2">
         <v>-4</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <v>0.5</v>
       </c>
       <c r="K25" s="2">
@@ -3539,7 +3939,7 @@
       <c r="L25" s="2">
         <v>-2</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>0.5</v>
       </c>
       <c r="N25" s="2">
@@ -3560,15 +3960,15 @@
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>0.7</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>0.4</v>
       </c>
       <c r="H26" s="2">
@@ -3577,7 +3977,7 @@
       <c r="I26" s="2">
         <v>-4</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>0.4</v>
       </c>
       <c r="K26" s="2">
@@ -3586,7 +3986,7 @@
       <c r="L26" s="2">
         <v>-2</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>0.4</v>
       </c>
       <c r="N26" s="2">
@@ -3607,15 +4007,15 @@
         <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
         <v>0.35</v>
       </c>
       <c r="H27" s="2">
@@ -3624,7 +4024,7 @@
       <c r="I27" s="2">
         <v>-4</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>0.35</v>
       </c>
       <c r="K27" s="2">
@@ -3633,7 +4033,7 @@
       <c r="L27" s="2">
         <v>-2</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>0.35</v>
       </c>
       <c r="N27" s="2">
@@ -3654,15 +4054,15 @@
         <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>0.3</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>0.5</v>
       </c>
       <c r="H28" s="2">
@@ -3671,7 +4071,7 @@
       <c r="I28" s="2">
         <v>-4</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>0.5</v>
       </c>
       <c r="K28" s="2">
@@ -3680,7 +4080,7 @@
       <c r="L28" s="2">
         <v>-2</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>0.5</v>
       </c>
       <c r="N28" s="2">
@@ -3701,15 +4101,15 @@
         <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>0.7</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <v>0.4</v>
       </c>
       <c r="H29" s="2">
@@ -3718,7 +4118,7 @@
       <c r="I29" s="2">
         <v>-4</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>0.4</v>
       </c>
       <c r="K29" s="2">
@@ -3727,7 +4127,7 @@
       <c r="L29" s="2">
         <v>-2</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>0.4</v>
       </c>
       <c r="N29" s="2">
@@ -3748,15 +4148,15 @@
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2">
         <v>3</v>
       </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
         <v>0.35</v>
       </c>
       <c r="H30" s="2">
@@ -3765,7 +4165,7 @@
       <c r="I30" s="2">
         <v>-4</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <v>0.35</v>
       </c>
       <c r="K30" s="2">
@@ -3774,7 +4174,7 @@
       <c r="L30" s="2">
         <v>-2</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>0.35</v>
       </c>
       <c r="N30" s="2">
@@ -3792,16 +4192,254 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S48"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
@@ -3810,1042 +4448,2290 @@
     <col min="10" max="10" width="15.625" customWidth="1"/>
     <col min="11" max="11" width="14.75" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" t="s">
+        <v>268</v>
+      </c>
+      <c r="L2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N2" t="s">
+        <v>296</v>
+      </c>
+      <c r="O2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K2" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="7">
         <v>0.1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>0.2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>0.05</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>0.1</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>0.05</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>292</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="C5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="7">
         <v>0.3</v>
       </c>
-      <c r="G5" s="8">
+      <c r="I5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>293</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="7">
         <v>0.2</v>
       </c>
-      <c r="H5" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="I6" s="7">
         <v>0.1</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J6" s="7">
         <v>0.15</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K6" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="L6" s="7">
         <v>0.1</v>
       </c>
-      <c r="L5" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>294</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
-        <v>2</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="7">
         <v>0.2</v>
       </c>
-      <c r="H7" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J7" s="7">
         <v>0.1</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="7">
         <v>0.15</v>
       </c>
-      <c r="K7" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>295</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="10">
-        <v>3</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="7">
         <v>0.3</v>
       </c>
-      <c r="G8" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="7">
         <v>0.15</v>
       </c>
-      <c r="J8" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="K8" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="7">
         <v>0.1</v>
       </c>
-      <c r="G9" s="8">
+      <c r="K9" s="7">
         <v>0.1</v>
       </c>
-      <c r="H9" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L9" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="9">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="7">
         <v>0.2</v>
       </c>
-      <c r="H10" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>0.1</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>0.15</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>0.1</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
-        <v>3</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="10">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="9">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="7">
         <v>0.3</v>
       </c>
-      <c r="G11" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="7">
         <v>0.15</v>
       </c>
-      <c r="J11" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="7">
         <v>0.15</v>
       </c>
-      <c r="L11" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="10">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="10">
-        <v>4</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
         <v>0.1</v>
       </c>
-      <c r="G12" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="G12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="7">
         <v>0.2</v>
       </c>
-      <c r="J12" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="I12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="K12" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="L12" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="2">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.12</v>
       </c>
       <c r="G13" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H13" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3</v>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.12</v>
       </c>
       <c r="G14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="9">
         <v>4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.12</v>
       </c>
       <c r="G15" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H15" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="2">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="9">
         <v>5</v>
       </c>
+      <c r="F16" s="7">
+        <v>0.06</v>
+      </c>
       <c r="G16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="K16" s="7">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="2">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="9">
         <v>6</v>
       </c>
+      <c r="F17" s="7">
+        <v>0.06</v>
+      </c>
       <c r="G17" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I17" s="7">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="9">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.09</v>
       </c>
       <c r="G18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E19" s="9">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.03</v>
       </c>
       <c r="G19" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H19" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2</v>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="9">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="G20" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="2">
-        <v>4</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3</v>
+      <c r="B21" s="9">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="9">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="G21" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H21" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4</v>
+      <c r="B22" s="9">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="9">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="G22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J22" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M22" s="3">
+        <v>2</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
+      <c r="O22" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="2">
-        <v>6</v>
-      </c>
-      <c r="F23" s="2">
-        <v>5</v>
+      <c r="B23" s="9">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="9">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="G23" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" s="9">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="9">
+        <v>14</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="3">
+        <v>2</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3</v>
+      </c>
+      <c r="O25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="9">
+        <v>15</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="9">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="9">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="9">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E30" s="9">
+        <v>4</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="9">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="9">
+        <v>5</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>2</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="9">
+        <v>6</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="9">
         <v>7</v>
       </c>
-      <c r="F24" s="2">
-        <v>6</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="F33" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="9">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M34" s="3">
+        <v>2</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="9">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="9">
+        <v>9</v>
+      </c>
+      <c r="F35" s="11">
         <v>0.05</v>
+      </c>
+      <c r="G35" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="9">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="9">
+        <v>10</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M36" s="3">
+        <v>2</v>
+      </c>
+      <c r="N36" s="3">
+        <v>3</v>
+      </c>
+      <c r="O36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="9">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E37" s="9">
+        <v>11</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.05</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M37" s="3">
+        <v>2</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2</v>
+      </c>
+      <c r="O37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="9">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="9">
+        <v>12</v>
+      </c>
+      <c r="F38" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="M38" s="3">
+        <v>3</v>
+      </c>
+      <c r="N38" s="3">
+        <v>3</v>
+      </c>
+      <c r="O38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="9">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="9">
+        <v>13</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M39" s="3">
+        <v>3</v>
+      </c>
+      <c r="N39" s="3">
+        <v>2</v>
+      </c>
+      <c r="O39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="9">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="9">
+        <v>14</v>
+      </c>
+      <c r="F40" s="11">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M40" s="3">
+        <v>2</v>
+      </c>
+      <c r="N40" s="3">
+        <v>3</v>
+      </c>
+      <c r="O40" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="9">
+        <v>15</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="9">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="9">
+        <v>16</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M42" s="3">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="9">
+        <v>3</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="9">
+        <v>17</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M43" s="3">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="9">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" s="9">
+        <v>18</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="9">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" s="9">
+        <v>19</v>
+      </c>
+      <c r="F45" s="11">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M45" s="3">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="9">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="9">
+        <v>20</v>
+      </c>
+      <c r="F46" s="11">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="M46" s="3">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="9">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" s="9">
+        <v>21</v>
+      </c>
+      <c r="F47" s="11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="M47" s="3">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="9">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="9">
+        <v>22</v>
+      </c>
+      <c r="F48" s="11">
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="M48" s="3">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4856,10 +6742,582 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="2">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6</v>
+      </c>
+      <c r="G24" s="9">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4872,98 +7330,98 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="I2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -4974,7 +7432,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -4984,19 +7442,19 @@
         <v>400</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.2</v>
+        <v>166</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5007,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -5017,19 +7475,19 @@
         <v>400</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.2</v>
+        <v>183</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5040,7 +7498,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -5050,19 +7508,19 @@
         <v>400</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0.2</v>
+        <v>167</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5073,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -5083,19 +7541,19 @@
         <v>400</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0.2</v>
+        <v>168</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5106,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -5116,19 +7574,19 @@
         <v>400</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0.2</v>
+      <c r="G8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5139,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -5149,19 +7607,19 @@
         <v>400</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.2</v>
+        <v>170</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J9" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5172,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
@@ -5182,19 +7640,19 @@
         <v>400</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0.2</v>
+        <v>171</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5205,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
@@ -5215,19 +7673,19 @@
         <v>400</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0.2</v>
+        <v>172</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5238,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D12" s="2">
         <v>9</v>
@@ -5248,19 +7706,19 @@
         <v>400</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0.2</v>
+        <v>173</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5271,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -5281,19 +7739,19 @@
         <v>400</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0.2</v>
+        <v>199</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J13" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5304,7 +7762,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D14" s="2">
         <v>11</v>
@@ -5314,19 +7772,19 @@
         <v>400</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.2</v>
+        <v>174</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5337,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D15" s="2">
         <v>12</v>
@@ -5347,19 +7805,19 @@
         <v>400</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0.2</v>
+      <c r="J15" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5370,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D16" s="2">
         <v>13</v>
@@ -5380,19 +7838,19 @@
         <v>400</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.2</v>
+        <v>176</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5403,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D17" s="2">
         <v>14</v>
@@ -5413,19 +7871,19 @@
         <v>400</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.2</v>
+        <v>177</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5436,7 +7894,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
@@ -5446,19 +7904,19 @@
         <v>400</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0.2</v>
+        <v>178</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5469,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2">
         <v>16</v>
@@ -5479,19 +7937,19 @@
         <v>400</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0.2</v>
+        <v>179</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5502,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D20" s="2">
         <v>17</v>
@@ -5512,19 +7970,19 @@
         <v>400</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0.2</v>
+        <v>200</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5535,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D21" s="2">
         <v>18</v>
@@ -5545,19 +8003,19 @@
         <v>400</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0.2</v>
+        <v>180</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5568,7 +8026,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D22" s="2">
         <v>19</v>
@@ -5578,19 +8036,19 @@
         <v>400</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0.2</v>
+        <v>181</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5601,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -5611,19 +8069,19 @@
         <v>400</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0.2</v>
+        <v>182</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5634,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D24" s="2">
         <v>21</v>
@@ -5644,19 +8102,19 @@
         <v>400</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0.2</v>
+        <v>184</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5667,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D25" s="2">
         <v>22</v>
@@ -5677,19 +8135,19 @@
         <v>400</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0.2</v>
+        <v>185</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5700,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D26" s="2">
         <v>23</v>
@@ -5710,19 +8168,19 @@
         <v>400</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0.2</v>
+        <v>186</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5733,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D27" s="2">
         <v>24</v>
@@ -5743,19 +8201,19 @@
         <v>400</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0.2</v>
+        <v>187</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5766,7 +8224,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D28" s="2">
         <v>25</v>
@@ -5776,19 +8234,19 @@
         <v>400</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0.2</v>
+        <v>188</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5799,7 +8257,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -5809,19 +8267,19 @@
         <v>400</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0.2</v>
+        <v>166</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5832,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -5842,19 +8300,19 @@
         <v>400</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J30" s="8">
-        <v>0.2</v>
+        <v>183</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J30" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5865,7 +8323,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -5875,19 +8333,19 @@
         <v>400</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0.2</v>
+        <v>167</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5898,7 +8356,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -5908,19 +8366,19 @@
         <v>400</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0.2</v>
+        <v>168</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5931,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D33" s="2">
         <v>5</v>
@@ -5941,19 +8399,19 @@
         <v>400</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0.2</v>
+      <c r="G33" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H33" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5964,7 +8422,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D34" s="2">
         <v>6</v>
@@ -5974,19 +8432,19 @@
         <v>400</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0.2</v>
+        <v>170</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J34" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -5997,7 +8455,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D35" s="2">
         <v>7</v>
@@ -6007,19 +8465,19 @@
         <v>400</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0.2</v>
+        <v>171</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J35" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6030,7 +8488,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D36" s="2">
         <v>8</v>
@@ -6040,19 +8498,19 @@
         <v>400</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0.2</v>
+        <v>172</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6063,7 +8521,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D37" s="2">
         <v>9</v>
@@ -6073,19 +8531,19 @@
         <v>400</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0.2</v>
+        <v>173</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6096,7 +8554,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D38" s="2">
         <v>10</v>
@@ -6106,19 +8564,19 @@
         <v>400</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0.2</v>
+        <v>199</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J38" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6129,7 +8587,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D39" s="2">
         <v>11</v>
@@ -6139,19 +8597,19 @@
         <v>400</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J39" s="8">
-        <v>0.2</v>
+        <v>174</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J39" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6162,7 +8620,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D40" s="2">
         <v>12</v>
@@ -6172,19 +8630,19 @@
         <v>400</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I40" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H40" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J40" s="8">
-        <v>0.2</v>
+      <c r="J40" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6195,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D41" s="2">
         <v>13</v>
@@ -6205,19 +8663,19 @@
         <v>400</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J41" s="8">
-        <v>0.2</v>
+        <v>176</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J41" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6228,7 +8686,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D42" s="2">
         <v>14</v>
@@ -6238,19 +8696,19 @@
         <v>400</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0.2</v>
+        <v>177</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J42" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6261,7 +8719,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D43" s="2">
         <v>15</v>
@@ -6271,19 +8729,19 @@
         <v>400</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0.2</v>
+        <v>178</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J43" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6294,7 +8752,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D44" s="2">
         <v>16</v>
@@ -6304,19 +8762,19 @@
         <v>400</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0.2</v>
+        <v>179</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H44" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J44" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6327,7 +8785,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D45" s="2">
         <v>17</v>
@@ -6337,19 +8795,19 @@
         <v>400</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H45" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0.2</v>
+        <v>200</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6360,7 +8818,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D46" s="2">
         <v>18</v>
@@ -6370,19 +8828,19 @@
         <v>400</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H46" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J46" s="8">
-        <v>0.2</v>
+        <v>180</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6393,7 +8851,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D47" s="2">
         <v>19</v>
@@ -6403,19 +8861,19 @@
         <v>400</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H47" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0.2</v>
+        <v>181</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J47" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6426,7 +8884,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D48" s="2">
         <v>20</v>
@@ -6436,19 +8894,19 @@
         <v>400</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J48" s="8">
-        <v>0.2</v>
+        <v>182</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J48" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6459,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D49" s="2">
         <v>21</v>
@@ -6469,19 +8927,19 @@
         <v>400</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H49" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J49" s="8">
-        <v>0.2</v>
+        <v>184</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J49" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6492,7 +8950,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D50" s="2">
         <v>22</v>
@@ -6502,19 +8960,19 @@
         <v>400</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0.2</v>
+        <v>185</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H50" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J50" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6525,7 +8983,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D51" s="2">
         <v>23</v>
@@ -6535,19 +8993,19 @@
         <v>400</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H51" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J51" s="8">
-        <v>0.2</v>
+        <v>186</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H51" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J51" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6558,7 +9016,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D52" s="2">
         <v>24</v>
@@ -6568,19 +9026,19 @@
         <v>400</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H52" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J52" s="8">
-        <v>0.2</v>
+        <v>187</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J52" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6591,7 +9049,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D53" s="2">
         <v>25</v>
@@ -6601,19 +9059,19 @@
         <v>400</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J53" s="8">
-        <v>0.2</v>
+        <v>188</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6624,7 +9082,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -6634,19 +9092,19 @@
         <v>400</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H54" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J54" s="8">
-        <v>0.2</v>
+        <v>166</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J54" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6657,7 +9115,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D55" s="2">
         <v>2</v>
@@ -6667,19 +9125,19 @@
         <v>400</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H55" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J55" s="8">
-        <v>0.2</v>
+        <v>183</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H55" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J55" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6690,7 +9148,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D56" s="2">
         <v>3</v>
@@ -6700,19 +9158,19 @@
         <v>400</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H56" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J56" s="8">
-        <v>0.2</v>
+        <v>167</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H56" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6723,7 +9181,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D57" s="2">
         <v>4</v>
@@ -6733,19 +9191,19 @@
         <v>400</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J57" s="8">
-        <v>0.2</v>
+        <v>168</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J57" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6756,7 +9214,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D58" s="2">
         <v>5</v>
@@ -6766,19 +9224,19 @@
         <v>400</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G58" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="H58" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J58" s="8">
-        <v>0.2</v>
+      <c r="G58" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H58" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J58" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6789,7 +9247,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D59" s="2">
         <v>6</v>
@@ -6799,19 +9257,19 @@
         <v>400</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H59" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J59" s="8">
-        <v>0.2</v>
+        <v>170</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J59" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6822,7 +9280,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D60" s="2">
         <v>7</v>
@@ -6832,19 +9290,19 @@
         <v>400</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H60" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J60" s="8">
-        <v>0.2</v>
+        <v>171</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H60" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J60" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6855,7 +9313,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D61" s="2">
         <v>8</v>
@@ -6865,19 +9323,19 @@
         <v>400</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H61" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J61" s="8">
-        <v>0.2</v>
+        <v>172</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H61" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J61" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6888,7 +9346,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D62" s="2">
         <v>9</v>
@@ -6898,19 +9356,19 @@
         <v>400</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H62" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J62" s="8">
-        <v>0.2</v>
+        <v>173</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J62" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6921,7 +9379,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D63" s="2">
         <v>10</v>
@@ -6931,19 +9389,19 @@
         <v>400</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H63" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J63" s="8">
-        <v>0.2</v>
+        <v>199</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H63" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6954,7 +9412,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D64" s="2">
         <v>11</v>
@@ -6964,19 +9422,19 @@
         <v>400</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H64" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J64" s="8">
-        <v>0.2</v>
+        <v>174</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H64" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J64" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -6987,7 +9445,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D65" s="2">
         <v>12</v>
@@ -6997,19 +9455,19 @@
         <v>400</v>
       </c>
       <c r="F65" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H65" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I65" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G65" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H65" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J65" s="8">
-        <v>0.2</v>
+      <c r="J65" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7020,7 +9478,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D66" s="2">
         <v>13</v>
@@ -7030,19 +9488,19 @@
         <v>400</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H66" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J66" s="8">
-        <v>0.2</v>
+        <v>176</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H66" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J66" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7053,7 +9511,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D67" s="2">
         <v>14</v>
@@ -7063,19 +9521,19 @@
         <v>400</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H67" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J67" s="8">
-        <v>0.2</v>
+        <v>177</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H67" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J67" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7086,7 +9544,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D68" s="2">
         <v>15</v>
@@ -7096,19 +9554,19 @@
         <v>400</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H68" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J68" s="8">
-        <v>0.2</v>
+        <v>178</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J68" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7119,7 +9577,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D69" s="2">
         <v>16</v>
@@ -7129,19 +9587,19 @@
         <v>400</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H69" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J69" s="8">
-        <v>0.2</v>
+        <v>179</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H69" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J69" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7152,7 +9610,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D70" s="2">
         <v>17</v>
@@ -7162,19 +9620,19 @@
         <v>400</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H70" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J70" s="8">
-        <v>0.2</v>
+        <v>200</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J70" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7185,7 +9643,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D71" s="2">
         <v>18</v>
@@ -7195,19 +9653,19 @@
         <v>400</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H71" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J71" s="8">
-        <v>0.2</v>
+        <v>180</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H71" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J71" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7218,7 +9676,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D72" s="2">
         <v>19</v>
@@ -7228,19 +9686,19 @@
         <v>400</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H72" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J72" s="8">
-        <v>0.2</v>
+        <v>181</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J72" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7251,7 +9709,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D73" s="2">
         <v>20</v>
@@ -7261,19 +9719,19 @@
         <v>400</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H73" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J73" s="8">
-        <v>0.2</v>
+        <v>182</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J73" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7284,7 +9742,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D74" s="2">
         <v>21</v>
@@ -7294,19 +9752,19 @@
         <v>400</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H74" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J74" s="8">
-        <v>0.2</v>
+        <v>184</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H74" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J74" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7317,7 +9775,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D75" s="2">
         <v>22</v>
@@ -7327,19 +9785,19 @@
         <v>400</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H75" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J75" s="8">
-        <v>0.2</v>
+        <v>185</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H75" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J75" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7350,7 +9808,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D76" s="2">
         <v>23</v>
@@ -7360,19 +9818,19 @@
         <v>400</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H76" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J76" s="8">
-        <v>0.2</v>
+        <v>186</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H76" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J76" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7383,7 +9841,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D77" s="2">
         <v>24</v>
@@ -7393,19 +9851,19 @@
         <v>400</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H77" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J77" s="8">
-        <v>0.2</v>
+        <v>187</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H77" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J77" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -7416,7 +9874,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D78" s="2">
         <v>25</v>
@@ -7426,23 +9884,24 @@
         <v>400</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H78" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J78" s="8">
-        <v>0.2</v>
+        <v>188</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H78" s="9">
+        <v>8000</v>
+      </c>
+      <c r="I78" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="J78" s="9">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="372">
   <si>
     <t>sheet名</t>
   </si>
@@ -889,10 +889,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>@0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Weight</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -901,10 +897,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Skill[1].P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill[2].Id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1022,10 +1014,6 @@
   </si>
   <si>
     <t>百分比攻击+穿透</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>@1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1576,6 +1564,274 @@
   </si>
   <si>
     <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill[1].P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill[1].bs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill[2].bs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1战力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2战力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性战力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkBsFac</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefBsFac</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpBsFac</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精良</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>极致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[1].min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[1].max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[2].min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[2].max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[3].min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[3].max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[4].min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[4].max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[1].desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[2].desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[3].desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[4].desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数1.min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数1.max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数1.desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数2.min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数2.max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数2.desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数3.min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数3.max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数3.desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数4.min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数4.max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数4.desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1属性1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1属性2</t>
+  </si>
+  <si>
+    <t>技能2属性1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2属性2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能属性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆伤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>穿透</t>
+  </si>
+  <si>
+    <t>抗暴击</t>
+  </si>
+  <si>
+    <t>抗格挡</t>
+  </si>
+  <si>
+    <t>抗穿透</t>
+  </si>
+  <si>
+    <t>效果命中</t>
+  </si>
+  <si>
+    <t>效果抵抗</t>
+  </si>
+  <si>
+    <t>AtkRate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefRate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpRate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniRed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniYellow</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniBlue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rystallRcv</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>itReback</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1785,7 +2041,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1812,9 +2068,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="4" applyNumberFormat="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1">
@@ -2114,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2168,7 +2421,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -2188,7 +2441,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
@@ -2233,18 +2486,18 @@
     </row>
     <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>1</v>
@@ -2260,11 +2513,11 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G7" s="2" t="b">
         <v>1</v>
@@ -2280,11 +2533,11 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G8" s="2" t="b">
         <v>1</v>
@@ -2293,18 +2546,18 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G9" s="2" t="b">
         <v>1</v>
@@ -2317,7 +2570,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>64</v>
@@ -2335,7 +2588,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>64</v>
@@ -2349,11 +2602,11 @@
     </row>
     <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>64</v>
@@ -2367,11 +2620,11 @@
     </row>
     <row r="13" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>64</v>
@@ -2519,7 +2772,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -2543,7 +2796,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
@@ -2571,7 +2824,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -2599,7 +2852,7 @@
         <v>76</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F7" s="2">
         <v>7</v>
@@ -2623,7 +2876,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F8" s="2">
         <v>7</v>
@@ -2651,7 +2904,7 @@
         <v>78</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
@@ -2679,7 +2932,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
@@ -2703,7 +2956,7 @@
         <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -2731,7 +2984,7 @@
         <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
@@ -2844,28 +3097,28 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -4192,10 +4445,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="U14" sqref="U13:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4206,14 +4459,21 @@
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="9" max="12" width="15.25" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="15" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="15.375" customWidth="1"/>
+    <col min="19" max="20" width="15.25" customWidth="1"/>
+    <col min="21" max="21" width="14.375" customWidth="1"/>
+    <col min="22" max="23" width="15.25" customWidth="1"/>
+    <col min="24" max="24" width="13.75" customWidth="1"/>
+    <col min="25" max="26" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>85</v>
@@ -4222,31 +4482,76 @@
         <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N1" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -4254,34 +4559,79 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
         <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
         <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J2" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="K2" t="s">
+        <v>301</v>
+      </c>
+      <c r="L2" t="s">
+        <v>301</v>
+      </c>
+      <c r="M2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>349</v>
+      </c>
+      <c r="R2" t="s">
+        <v>293</v>
+      </c>
+      <c r="S2" t="s">
+        <v>293</v>
+      </c>
+      <c r="T2" t="s">
+        <v>349</v>
+      </c>
+      <c r="U2" t="s">
+        <v>293</v>
+      </c>
+      <c r="V2" t="s">
+        <v>293</v>
+      </c>
+      <c r="W2" t="s">
+        <v>349</v>
+      </c>
+      <c r="X2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -4292,31 +4642,76 @@
         <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4324,7 +4719,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D4" s="7">
         <v>0.1</v>
@@ -4336,22 +4731,67 @@
         <v>0.05</v>
       </c>
       <c r="G4" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="7">
         <v>0.05</v>
       </c>
       <c r="I4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="9">
+        <v>20000</v>
+      </c>
+      <c r="K4" s="9">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="9">
+        <v>20000</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="S4" s="2">
+        <v>12500</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="U4" s="2">
+        <v>12500</v>
+      </c>
+      <c r="V4" s="2">
+        <v>17500</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="X4" s="2">
+        <v>17500</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>30000</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4359,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D5" s="7">
         <v>0.1</v>
@@ -4371,22 +4811,67 @@
         <v>0.05</v>
       </c>
       <c r="G5" s="8">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="H5" s="7">
         <v>0.05</v>
       </c>
       <c r="I5" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="9">
+        <v>20000</v>
+      </c>
+      <c r="K5" s="9">
+        <v>20000</v>
+      </c>
+      <c r="L5" s="9">
+        <v>20000</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="R5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="S5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="U5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="V5" s="2">
+        <v>22500</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="X5" s="2">
+        <v>22500</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>35000</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4394,7 +4879,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D6" s="7">
         <v>0.1</v>
@@ -4406,19 +4891,64 @@
         <v>0.05</v>
       </c>
       <c r="G6" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="7">
         <v>0.05</v>
       </c>
       <c r="I6" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3</v>
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>20000</v>
+      </c>
+      <c r="K6" s="9">
+        <v>20000</v>
+      </c>
+      <c r="L6" s="9">
+        <v>20000</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N6" s="2">
+        <v>3</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="S6" s="2">
+        <v>17500</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="U6" s="2">
+        <v>17500</v>
+      </c>
+      <c r="V6" s="2">
+        <v>25000</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="X6" s="2">
+        <v>25000</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>40000</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4432,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4456,7 +4986,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>85</v>
@@ -4465,10 +4995,10 @@
         <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>119</v>
@@ -4492,13 +5022,13 @@
         <v>105</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4515,37 +5045,37 @@
         <v>116</v>
       </c>
       <c r="E2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" t="s">
         <v>265</v>
       </c>
-      <c r="F2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J2" t="s">
-        <v>267</v>
-      </c>
-      <c r="K2" t="s">
-        <v>268</v>
-      </c>
       <c r="L2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -4586,13 +5116,13 @@
         <v>112</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -4603,7 +5133,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>122</v>
@@ -4642,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -4656,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>122</v>
@@ -4695,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -4709,10 +5239,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E6" s="9">
         <v>3</v>
@@ -4748,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -4762,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>122</v>
@@ -4801,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -4815,10 +5345,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E8" s="9">
         <v>5</v>
@@ -4862,10 +5392,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E9" s="9">
         <v>6</v>
@@ -4909,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>122</v>
@@ -4956,10 +5486,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E11" s="9">
         <v>8</v>
@@ -5003,10 +5533,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
@@ -5050,10 +5580,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -5097,10 +5627,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E14" s="9">
         <v>3</v>
@@ -5144,10 +5674,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E15" s="9">
         <v>4</v>
@@ -5191,10 +5721,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E16" s="9">
         <v>5</v>
@@ -5238,10 +5768,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E17" s="9">
         <v>6</v>
@@ -5285,10 +5815,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E18" s="9">
         <v>7</v>
@@ -5332,10 +5862,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E19" s="9">
         <v>8</v>
@@ -5379,10 +5909,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E20" s="9">
         <v>9</v>
@@ -5426,10 +5956,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E21" s="9">
         <v>10</v>
@@ -5473,10 +6003,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E22" s="9">
         <v>11</v>
@@ -5520,10 +6050,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E23" s="9">
         <v>12</v>
@@ -5567,10 +6097,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E24" s="9">
         <v>13</v>
@@ -5614,10 +6144,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E25" s="9">
         <v>14</v>
@@ -5661,10 +6191,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E26" s="9">
         <v>15</v>
@@ -5708,15 +6238,15 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E27" s="9">
         <v>1</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>0.1</v>
       </c>
       <c r="G27" s="7">
@@ -5755,15 +6285,15 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E28" s="9">
         <v>2</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>0.12</v>
       </c>
       <c r="G28" s="6">
@@ -5802,15 +6332,15 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E29" s="9">
         <v>3</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>0.12</v>
       </c>
       <c r="G29" s="6">
@@ -5849,15 +6379,15 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E30" s="9">
         <v>4</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>0.12</v>
       </c>
       <c r="G30" s="6">
@@ -5896,15 +6426,15 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E31" s="9">
         <v>5</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>0.06</v>
       </c>
       <c r="G31" s="6">
@@ -5943,15 +6473,15 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E32" s="9">
         <v>6</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>0.06</v>
       </c>
       <c r="G32" s="6">
@@ -5990,15 +6520,15 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E33" s="9">
         <v>7</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>0.09</v>
       </c>
       <c r="G33" s="6">
@@ -6037,15 +6567,15 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E34" s="9">
         <v>8</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>0.03</v>
       </c>
       <c r="G34" s="6">
@@ -6084,15 +6614,15 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E35" s="9">
         <v>9</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>0.05</v>
       </c>
       <c r="G35" s="6">
@@ -6131,15 +6661,15 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E36" s="9">
         <v>10</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>0.05</v>
       </c>
       <c r="G36" s="6">
@@ -6178,15 +6708,15 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E37" s="9">
         <v>11</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>0.05</v>
       </c>
       <c r="G37" s="6">
@@ -6225,15 +6755,15 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E38" s="9">
         <v>12</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G38" s="6">
@@ -6272,15 +6802,15 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E39" s="9">
         <v>13</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G39" s="6">
@@ -6319,15 +6849,15 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E40" s="9">
         <v>14</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="G40" s="6">
@@ -6366,15 +6896,15 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E41" s="9">
         <v>15</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="G41" s="6">
@@ -6413,15 +6943,15 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E42" s="9">
         <v>16</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="G42" s="6">
@@ -6460,15 +6990,15 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E43" s="9">
         <v>17</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="G43" s="6">
@@ -6507,15 +7037,15 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E44" s="9">
         <v>18</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="G44" s="6">
@@ -6554,15 +7084,15 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E45" s="9">
         <v>19</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>5.000000000000001E-3</v>
       </c>
       <c r="G45" s="6">
@@ -6601,15 +7131,15 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E46" s="9">
         <v>20</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>5.000000000000001E-3</v>
       </c>
       <c r="G46" s="6">
@@ -6648,15 +7178,15 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E47" s="9">
         <v>21</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="G47" s="6">
@@ -6695,15 +7225,15 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E48" s="9">
         <v>22</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>2.5000000000000005E-3</v>
       </c>
       <c r="G48" s="6">
@@ -6768,13 +7298,13 @@
         <v>123</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6791,13 +7321,13 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -6814,7 +7344,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>96</v>
@@ -7314,21 +7844,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="P20" sqref="P20:R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="10" width="10.375" customWidth="1"/>
+    <col min="8" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="12" width="10.375" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -7336,31 +7867,37 @@
         <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -7371,28 +7908,34 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
         <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I2" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="J2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="K2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -7400,31 +7943,52 @@
         <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -7432,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -7442,22 +8006,39 @@
         <v>400</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>155</v>
+        <v>164</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1304009</v>
       </c>
       <c r="H4" s="9">
         <v>8000</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="I4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K4" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L4" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -7465,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -7475,22 +8056,39 @@
         <v>400</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>155</v>
+        <v>181</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1304009</v>
       </c>
       <c r="H5" s="9">
         <v>8000</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="I5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K5" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L5" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -7498,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -7508,22 +8106,39 @@
         <v>400</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1304009</v>
       </c>
       <c r="H6" s="9">
         <v>8000</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K6" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L6" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -7531,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -7541,22 +8156,39 @@
         <v>400</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>155</v>
+        <v>166</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1304009</v>
       </c>
       <c r="H7" s="9">
         <v>8000</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="I7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K7" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L7" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -7564,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -7574,22 +8206,39 @@
         <v>400</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>155</v>
+        <v>167</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1304009</v>
       </c>
       <c r="H8" s="9">
         <v>8000</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="I8" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K8" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L8" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -7597,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -7607,22 +8256,39 @@
         <v>400</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>155</v>
+        <v>168</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1304009</v>
       </c>
       <c r="H9" s="9">
         <v>8000</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="I9" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K9" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L9" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -7630,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
@@ -7640,22 +8306,39 @@
         <v>400</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>155</v>
+        <v>169</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1304009</v>
       </c>
       <c r="H10" s="9">
         <v>8000</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="I10" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K10" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L10" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -7663,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
@@ -7673,22 +8356,39 @@
         <v>400</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1304009</v>
       </c>
       <c r="H11" s="9">
         <v>8000</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="I11" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K11" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L11" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -7696,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D12" s="2">
         <v>9</v>
@@ -7706,22 +8406,39 @@
         <v>400</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>155</v>
+        <v>171</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1304009</v>
       </c>
       <c r="H12" s="9">
         <v>8000</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="I12" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K12" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L12" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -7729,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -7739,22 +8456,39 @@
         <v>400</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>155</v>
+        <v>196</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1304009</v>
       </c>
       <c r="H13" s="9">
         <v>8000</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="I13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K13" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L13" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -7762,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D14" s="2">
         <v>11</v>
@@ -7772,22 +8506,39 @@
         <v>400</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>155</v>
+        <v>172</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1304009</v>
       </c>
       <c r="H14" s="9">
         <v>8000</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K14" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L14" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -7795,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D15" s="2">
         <v>12</v>
@@ -7805,22 +8556,39 @@
         <v>400</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>155</v>
+        <v>173</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1304009</v>
       </c>
       <c r="H15" s="9">
         <v>8000</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="I15" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K15" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L15" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -7828,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D16" s="2">
         <v>13</v>
@@ -7838,22 +8606,39 @@
         <v>400</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>155</v>
+        <v>174</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1304009</v>
       </c>
       <c r="H16" s="9">
         <v>8000</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="I16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K16" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L16" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
+        <v>2</v>
+      </c>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -7861,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D17" s="2">
         <v>14</v>
@@ -7871,22 +8656,39 @@
         <v>400</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>155</v>
+        <v>175</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1304009</v>
       </c>
       <c r="H17" s="9">
         <v>8000</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="I17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K17" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L17" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2">
+        <v>2</v>
+      </c>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -7894,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
@@ -7904,22 +8706,39 @@
         <v>400</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>155</v>
+        <v>176</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1304009</v>
       </c>
       <c r="H18" s="9">
         <v>8000</v>
       </c>
-      <c r="I18" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="I18" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K18" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L18" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2">
+        <v>2</v>
+      </c>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -7927,7 +8746,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D19" s="2">
         <v>16</v>
@@ -7937,22 +8756,43 @@
         <v>400</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>155</v>
+        <v>177</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1304009</v>
       </c>
       <c r="H19" s="9">
         <v>8000</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="I19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K19" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L19" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="R19" s="2">
+        <v>3</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -7960,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2">
         <v>17</v>
@@ -7970,22 +8810,39 @@
         <v>400</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>155</v>
+        <v>197</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1304009</v>
       </c>
       <c r="H20" s="9">
         <v>8000</v>
       </c>
-      <c r="I20" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="I20" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K20" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L20" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -7993,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D21" s="2">
         <v>18</v>
@@ -8003,22 +8860,33 @@
         <v>400</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>155</v>
+        <v>178</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1304009</v>
       </c>
       <c r="H21" s="9">
         <v>8000</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="I21" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K21" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L21" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -8026,7 +8894,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D22" s="2">
         <v>19</v>
@@ -8036,22 +8904,33 @@
         <v>400</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>155</v>
+        <v>179</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1304009</v>
       </c>
       <c r="H22" s="9">
         <v>8000</v>
       </c>
-      <c r="I22" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="I22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K22" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L22" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -8059,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
@@ -8069,22 +8948,33 @@
         <v>400</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>155</v>
+        <v>180</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1304009</v>
       </c>
       <c r="H23" s="9">
         <v>8000</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="I23" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K23" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L23" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -8092,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D24" s="2">
         <v>21</v>
@@ -8102,22 +8992,33 @@
         <v>400</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1304009</v>
       </c>
       <c r="H24" s="9">
         <v>8000</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="I24" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K24" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L24" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -8125,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D25" s="2">
         <v>22</v>
@@ -8135,22 +9036,33 @@
         <v>400</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>155</v>
+        <v>183</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1304009</v>
       </c>
       <c r="H25" s="9">
         <v>8000</v>
       </c>
-      <c r="I25" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="I25" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K25" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L25" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -8158,7 +9070,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D26" s="2">
         <v>23</v>
@@ -8168,22 +9080,33 @@
         <v>400</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>155</v>
+        <v>184</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1304009</v>
       </c>
       <c r="H26" s="9">
         <v>8000</v>
       </c>
-      <c r="I26" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="I26" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K26" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L26" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -8191,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D27" s="2">
         <v>24</v>
@@ -8201,22 +9124,33 @@
         <v>400</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>155</v>
+        <v>185</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1304009</v>
       </c>
       <c r="H27" s="9">
         <v>8000</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="9">
+      <c r="I27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K27" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L27" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -8224,7 +9158,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D28" s="2">
         <v>25</v>
@@ -8234,22 +9168,33 @@
         <v>400</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>155</v>
+        <v>186</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1304009</v>
       </c>
       <c r="H28" s="9">
         <v>8000</v>
       </c>
-      <c r="I28" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J28" s="9">
+      <c r="I28" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K28" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L28" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -8257,7 +9202,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -8267,22 +9212,33 @@
         <v>400</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>155</v>
+        <v>164</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1304009</v>
       </c>
       <c r="H29" s="9">
         <v>8000</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J29" s="9">
+      <c r="I29" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K29" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L29" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -8290,7 +9246,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -8300,22 +9256,33 @@
         <v>400</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>155</v>
+        <v>181</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1304009</v>
       </c>
       <c r="H30" s="9">
         <v>8000</v>
       </c>
-      <c r="I30" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J30" s="9">
+      <c r="I30" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K30" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L30" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -8323,7 +9290,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -8333,22 +9300,33 @@
         <v>400</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1304009</v>
       </c>
       <c r="H31" s="9">
         <v>8000</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J31" s="9">
+      <c r="I31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K31" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L31" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -8356,7 +9334,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -8366,22 +9344,33 @@
         <v>400</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>155</v>
+        <v>166</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1304009</v>
       </c>
       <c r="H32" s="9">
         <v>8000</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J32" s="9">
+      <c r="I32" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K32" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L32" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -8389,7 +9378,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D33" s="2">
         <v>5</v>
@@ -8399,22 +9388,33 @@
         <v>400</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>155</v>
+        <v>167</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1304009</v>
       </c>
       <c r="H33" s="9">
         <v>8000</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J33" s="9">
+      <c r="I33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K33" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L33" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -8422,7 +9422,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D34" s="2">
         <v>6</v>
@@ -8432,22 +9432,33 @@
         <v>400</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>155</v>
+        <v>168</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1304009</v>
       </c>
       <c r="H34" s="9">
         <v>8000</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J34" s="9">
+      <c r="I34" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K34" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L34" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -8455,7 +9466,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D35" s="2">
         <v>7</v>
@@ -8465,22 +9476,33 @@
         <v>400</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>155</v>
+        <v>169</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1304009</v>
       </c>
       <c r="H35" s="9">
         <v>8000</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J35" s="9">
+      <c r="I35" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K35" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L35" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -8488,7 +9510,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D36" s="2">
         <v>8</v>
@@ -8498,22 +9520,33 @@
         <v>400</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1304009</v>
       </c>
       <c r="H36" s="9">
         <v>8000</v>
       </c>
-      <c r="I36" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="I36" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K36" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L36" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -8521,7 +9554,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D37" s="2">
         <v>9</v>
@@ -8531,22 +9564,33 @@
         <v>400</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>155</v>
+        <v>171</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1304009</v>
       </c>
       <c r="H37" s="9">
         <v>8000</v>
       </c>
-      <c r="I37" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J37" s="9">
+      <c r="I37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K37" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L37" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>35</v>
       </c>
@@ -8554,7 +9598,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D38" s="2">
         <v>10</v>
@@ -8564,22 +9608,33 @@
         <v>400</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>155</v>
+        <v>196</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1304009</v>
       </c>
       <c r="H38" s="9">
         <v>8000</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J38" s="9">
+      <c r="I38" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K38" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L38" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+    </row>
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>36</v>
       </c>
@@ -8587,7 +9642,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D39" s="2">
         <v>11</v>
@@ -8597,22 +9652,33 @@
         <v>400</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>155</v>
+        <v>172</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1304009</v>
       </c>
       <c r="H39" s="9">
         <v>8000</v>
       </c>
-      <c r="I39" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J39" s="9">
+      <c r="I39" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K39" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L39" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -8620,7 +9686,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D40" s="2">
         <v>12</v>
@@ -8630,22 +9696,33 @@
         <v>400</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>155</v>
+        <v>173</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1304009</v>
       </c>
       <c r="H40" s="9">
         <v>8000</v>
       </c>
-      <c r="I40" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J40" s="9">
+      <c r="I40" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K40" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L40" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+    </row>
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>38</v>
       </c>
@@ -8653,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D41" s="2">
         <v>13</v>
@@ -8663,22 +9740,33 @@
         <v>400</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>155</v>
+        <v>174</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1304009</v>
       </c>
       <c r="H41" s="9">
         <v>8000</v>
       </c>
-      <c r="I41" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J41" s="9">
+      <c r="I41" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K41" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L41" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>39</v>
       </c>
@@ -8686,7 +9774,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D42" s="2">
         <v>14</v>
@@ -8696,22 +9784,33 @@
         <v>400</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>155</v>
+        <v>175</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1304009</v>
       </c>
       <c r="H42" s="9">
         <v>8000</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J42" s="9">
+      <c r="I42" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K42" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L42" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+    </row>
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>40</v>
       </c>
@@ -8719,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D43" s="2">
         <v>15</v>
@@ -8729,22 +9828,33 @@
         <v>400</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>155</v>
+        <v>176</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1304009</v>
       </c>
       <c r="H43" s="9">
         <v>8000</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J43" s="9">
+      <c r="I43" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K43" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L43" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>41</v>
       </c>
@@ -8752,7 +9862,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D44" s="2">
         <v>16</v>
@@ -8762,22 +9872,33 @@
         <v>400</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>155</v>
+        <v>177</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1304009</v>
       </c>
       <c r="H44" s="9">
         <v>8000</v>
       </c>
-      <c r="I44" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J44" s="9">
+      <c r="I44" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K44" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L44" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>42</v>
       </c>
@@ -8785,7 +9906,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D45" s="2">
         <v>17</v>
@@ -8795,22 +9916,33 @@
         <v>400</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>155</v>
+        <v>197</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1304009</v>
       </c>
       <c r="H45" s="9">
         <v>8000</v>
       </c>
-      <c r="I45" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J45" s="9">
+      <c r="I45" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K45" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L45" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43</v>
       </c>
@@ -8818,7 +9950,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D46" s="2">
         <v>18</v>
@@ -8828,22 +9960,33 @@
         <v>400</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>155</v>
+        <v>178</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1304009</v>
       </c>
       <c r="H46" s="9">
         <v>8000</v>
       </c>
-      <c r="I46" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J46" s="9">
+      <c r="I46" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K46" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L46" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44</v>
       </c>
@@ -8851,7 +9994,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D47" s="2">
         <v>19</v>
@@ -8861,22 +10004,33 @@
         <v>400</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>155</v>
+        <v>179</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1304009</v>
       </c>
       <c r="H47" s="9">
         <v>8000</v>
       </c>
-      <c r="I47" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J47" s="9">
+      <c r="I47" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K47" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L47" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45</v>
       </c>
@@ -8884,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D48" s="2">
         <v>20</v>
@@ -8894,22 +10048,33 @@
         <v>400</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>155</v>
+        <v>180</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1304009</v>
       </c>
       <c r="H48" s="9">
         <v>8000</v>
       </c>
-      <c r="I48" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J48" s="9">
+      <c r="I48" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K48" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L48" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>46</v>
       </c>
@@ -8917,7 +10082,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D49" s="2">
         <v>21</v>
@@ -8927,22 +10092,33 @@
         <v>400</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1304009</v>
       </c>
       <c r="H49" s="9">
         <v>8000</v>
       </c>
-      <c r="I49" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J49" s="9">
+      <c r="I49" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K49" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L49" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>47</v>
       </c>
@@ -8950,7 +10126,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D50" s="2">
         <v>22</v>
@@ -8960,22 +10136,33 @@
         <v>400</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>155</v>
+        <v>183</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1304009</v>
       </c>
       <c r="H50" s="9">
         <v>8000</v>
       </c>
-      <c r="I50" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J50" s="9">
+      <c r="I50" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K50" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L50" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>48</v>
       </c>
@@ -8983,7 +10170,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D51" s="2">
         <v>23</v>
@@ -8993,22 +10180,33 @@
         <v>400</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>155</v>
+        <v>184</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1304009</v>
       </c>
       <c r="H51" s="9">
         <v>8000</v>
       </c>
-      <c r="I51" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J51" s="9">
+      <c r="I51" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K51" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L51" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>49</v>
       </c>
@@ -9016,7 +10214,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D52" s="2">
         <v>24</v>
@@ -9026,22 +10224,33 @@
         <v>400</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>155</v>
+        <v>185</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1304009</v>
       </c>
       <c r="H52" s="9">
         <v>8000</v>
       </c>
-      <c r="I52" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J52" s="9">
+      <c r="I52" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K52" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L52" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>50</v>
       </c>
@@ -9049,7 +10258,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D53" s="2">
         <v>25</v>
@@ -9059,22 +10268,33 @@
         <v>400</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>155</v>
+        <v>186</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1304009</v>
       </c>
       <c r="H53" s="9">
         <v>8000</v>
       </c>
-      <c r="I53" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J53" s="9">
+      <c r="I53" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K53" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L53" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>51</v>
       </c>
@@ -9082,7 +10302,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -9092,22 +10312,33 @@
         <v>400</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>155</v>
+        <v>164</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1304009</v>
       </c>
       <c r="H54" s="9">
         <v>8000</v>
       </c>
-      <c r="I54" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J54" s="9">
+      <c r="I54" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K54" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L54" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>52</v>
       </c>
@@ -9115,7 +10346,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D55" s="2">
         <v>2</v>
@@ -9125,22 +10356,33 @@
         <v>400</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>155</v>
+        <v>181</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1304009</v>
       </c>
       <c r="H55" s="9">
         <v>8000</v>
       </c>
-      <c r="I55" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J55" s="9">
+      <c r="I55" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K55" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L55" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>53</v>
       </c>
@@ -9148,7 +10390,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D56" s="2">
         <v>3</v>
@@ -9158,22 +10400,33 @@
         <v>400</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1304009</v>
       </c>
       <c r="H56" s="9">
         <v>8000</v>
       </c>
-      <c r="I56" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J56" s="9">
+      <c r="I56" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K56" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L56" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>54</v>
       </c>
@@ -9181,7 +10434,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D57" s="2">
         <v>4</v>
@@ -9191,22 +10444,33 @@
         <v>400</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>155</v>
+        <v>166</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1304009</v>
       </c>
       <c r="H57" s="9">
         <v>8000</v>
       </c>
-      <c r="I57" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J57" s="9">
+      <c r="I57" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K57" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L57" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>55</v>
       </c>
@@ -9214,7 +10478,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D58" s="2">
         <v>5</v>
@@ -9224,22 +10488,33 @@
         <v>400</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>155</v>
+        <v>167</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1304009</v>
       </c>
       <c r="H58" s="9">
         <v>8000</v>
       </c>
-      <c r="I58" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J58" s="9">
+      <c r="I58" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K58" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L58" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>56</v>
       </c>
@@ -9247,7 +10522,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D59" s="2">
         <v>6</v>
@@ -9257,22 +10532,33 @@
         <v>400</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>155</v>
+        <v>168</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1304009</v>
       </c>
       <c r="H59" s="9">
         <v>8000</v>
       </c>
-      <c r="I59" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J59" s="9">
+      <c r="I59" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K59" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L59" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>57</v>
       </c>
@@ -9280,7 +10566,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D60" s="2">
         <v>7</v>
@@ -9290,22 +10576,33 @@
         <v>400</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>155</v>
+        <v>169</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1304009</v>
       </c>
       <c r="H60" s="9">
         <v>8000</v>
       </c>
-      <c r="I60" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J60" s="9">
+      <c r="I60" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K60" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L60" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>58</v>
       </c>
@@ -9313,7 +10610,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D61" s="2">
         <v>8</v>
@@ -9323,22 +10620,33 @@
         <v>400</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>155</v>
+        <v>170</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1304009</v>
       </c>
       <c r="H61" s="9">
         <v>8000</v>
       </c>
-      <c r="I61" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J61" s="9">
+      <c r="I61" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K61" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L61" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>59</v>
       </c>
@@ -9346,7 +10654,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D62" s="2">
         <v>9</v>
@@ -9356,22 +10664,33 @@
         <v>400</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>155</v>
+        <v>171</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1304009</v>
       </c>
       <c r="H62" s="9">
         <v>8000</v>
       </c>
-      <c r="I62" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J62" s="9">
+      <c r="I62" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K62" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L62" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>60</v>
       </c>
@@ -9379,7 +10698,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D63" s="2">
         <v>10</v>
@@ -9389,22 +10708,33 @@
         <v>400</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>155</v>
+        <v>196</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1304009</v>
       </c>
       <c r="H63" s="9">
         <v>8000</v>
       </c>
-      <c r="I63" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J63" s="9">
+      <c r="I63" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K63" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L63" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>61</v>
       </c>
@@ -9412,7 +10742,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="2">
         <v>11</v>
@@ -9422,22 +10752,33 @@
         <v>400</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>155</v>
+        <v>172</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1304009</v>
       </c>
       <c r="H64" s="9">
         <v>8000</v>
       </c>
-      <c r="I64" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J64" s="9">
+      <c r="I64" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K64" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L64" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>62</v>
       </c>
@@ -9445,7 +10786,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="2">
         <v>12</v>
@@ -9455,22 +10796,33 @@
         <v>400</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>155</v>
+        <v>173</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1304009</v>
       </c>
       <c r="H65" s="9">
         <v>8000</v>
       </c>
-      <c r="I65" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J65" s="9">
+      <c r="I65" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K65" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L65" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>63</v>
       </c>
@@ -9478,7 +10830,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="2">
         <v>13</v>
@@ -9488,22 +10840,33 @@
         <v>400</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>155</v>
+        <v>174</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1304009</v>
       </c>
       <c r="H66" s="9">
         <v>8000</v>
       </c>
-      <c r="I66" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J66" s="9">
+      <c r="I66" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K66" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L66" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>64</v>
       </c>
@@ -9511,7 +10874,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D67" s="2">
         <v>14</v>
@@ -9521,22 +10884,33 @@
         <v>400</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>155</v>
+        <v>175</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1304009</v>
       </c>
       <c r="H67" s="9">
         <v>8000</v>
       </c>
-      <c r="I67" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J67" s="9">
+      <c r="I67" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K67" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L67" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>65</v>
       </c>
@@ -9544,7 +10918,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D68" s="2">
         <v>15</v>
@@ -9554,22 +10928,33 @@
         <v>400</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>155</v>
+        <v>176</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1304009</v>
       </c>
       <c r="H68" s="9">
         <v>8000</v>
       </c>
-      <c r="I68" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J68" s="9">
+      <c r="I68" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K68" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L68" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>66</v>
       </c>
@@ -9577,7 +10962,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="2">
         <v>16</v>
@@ -9587,22 +10972,33 @@
         <v>400</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>155</v>
+        <v>177</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1304009</v>
       </c>
       <c r="H69" s="9">
         <v>8000</v>
       </c>
-      <c r="I69" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J69" s="9">
+      <c r="I69" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K69" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L69" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>67</v>
       </c>
@@ -9610,7 +11006,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D70" s="2">
         <v>17</v>
@@ -9620,22 +11016,33 @@
         <v>400</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>155</v>
+        <v>197</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1304009</v>
       </c>
       <c r="H70" s="9">
         <v>8000</v>
       </c>
-      <c r="I70" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J70" s="9">
+      <c r="I70" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K70" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L70" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>68</v>
       </c>
@@ -9643,7 +11050,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D71" s="2">
         <v>18</v>
@@ -9653,22 +11060,33 @@
         <v>400</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>155</v>
+        <v>178</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1304009</v>
       </c>
       <c r="H71" s="9">
         <v>8000</v>
       </c>
-      <c r="I71" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J71" s="9">
+      <c r="I71" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K71" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L71" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>69</v>
       </c>
@@ -9676,7 +11094,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D72" s="2">
         <v>19</v>
@@ -9686,22 +11104,33 @@
         <v>400</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>155</v>
+        <v>179</v>
+      </c>
+      <c r="G72" s="2">
+        <v>1304009</v>
       </c>
       <c r="H72" s="9">
         <v>8000</v>
       </c>
-      <c r="I72" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J72" s="9">
+      <c r="I72" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K72" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L72" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>70</v>
       </c>
@@ -9709,7 +11138,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D73" s="2">
         <v>20</v>
@@ -9719,22 +11148,33 @@
         <v>400</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>155</v>
+        <v>180</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1304009</v>
       </c>
       <c r="H73" s="9">
         <v>8000</v>
       </c>
-      <c r="I73" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J73" s="9">
+      <c r="I73" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K73" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L73" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>71</v>
       </c>
@@ -9742,7 +11182,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D74" s="2">
         <v>21</v>
@@ -9752,22 +11192,33 @@
         <v>400</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>155</v>
+        <v>182</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1304009</v>
       </c>
       <c r="H74" s="9">
         <v>8000</v>
       </c>
-      <c r="I74" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J74" s="9">
+      <c r="I74" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J74" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K74" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L74" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>72</v>
       </c>
@@ -9775,7 +11226,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D75" s="2">
         <v>22</v>
@@ -9785,22 +11236,33 @@
         <v>400</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>155</v>
+        <v>183</v>
+      </c>
+      <c r="G75" s="2">
+        <v>1304009</v>
       </c>
       <c r="H75" s="9">
         <v>8000</v>
       </c>
-      <c r="I75" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J75" s="9">
+      <c r="I75" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J75" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K75" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L75" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>73</v>
       </c>
@@ -9808,7 +11270,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D76" s="2">
         <v>23</v>
@@ -9818,22 +11280,33 @@
         <v>400</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>155</v>
+        <v>184</v>
+      </c>
+      <c r="G76" s="2">
+        <v>1304009</v>
       </c>
       <c r="H76" s="9">
         <v>8000</v>
       </c>
-      <c r="I76" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J76" s="9">
+      <c r="I76" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K76" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L76" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+    </row>
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>74</v>
       </c>
@@ -9841,7 +11314,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D77" s="2">
         <v>24</v>
@@ -9851,22 +11324,33 @@
         <v>400</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>155</v>
+        <v>185</v>
+      </c>
+      <c r="G77" s="2">
+        <v>1304009</v>
       </c>
       <c r="H77" s="9">
         <v>8000</v>
       </c>
-      <c r="I77" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J77" s="9">
+      <c r="I77" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K77" s="9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L77" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+    </row>
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>75</v>
       </c>
@@ -9874,7 +11358,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D78" s="2">
         <v>25</v>
@@ -9884,20 +11368,31 @@
         <v>400</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>155</v>
+        <v>186</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1304009</v>
       </c>
       <c r="H78" s="9">
         <v>8000</v>
       </c>
-      <c r="I78" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J78" s="9">
+      <c r="I78" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1304010</v>
+      </c>
+      <c r="K78" s="9">
         <v>2000</v>
       </c>
+      <c r="L78" s="9">
+        <v>2500</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -4447,8 +4447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U14" sqref="U13:U14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4805,19 +4805,19 @@
         <v>0.1</v>
       </c>
       <c r="E5" s="8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F5" s="7">
         <v>0.05</v>
       </c>
       <c r="G5" s="8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="7">
         <v>0.05</v>
       </c>
       <c r="I5" s="8">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="9">
         <v>20000</v>
@@ -4885,19 +4885,19 @@
         <v>0.1</v>
       </c>
       <c r="E6" s="7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="7">
         <v>0.05</v>
       </c>
       <c r="G6" s="7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="7">
         <v>0.05</v>
       </c>
       <c r="I6" s="7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J6" s="9">
         <v>20000</v>
@@ -4962,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7846,7 +7846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20:R20"/>
     </sheetView>
   </sheetViews>

--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="388">
   <si>
     <t>sheet名</t>
   </si>
@@ -965,22 +965,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>初始红水晶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始黄水晶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始蓝水晶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合概率随机水晶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>无视反弹伤害+减伤</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1731,108 +1715,130 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>技能1属性1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1属性2</t>
-  </si>
-  <si>
-    <t>技能2属性1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2属性2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-  </si>
-  <si>
-    <t>穿透</t>
-  </si>
-  <si>
-    <t>抗暴击</t>
-  </si>
-  <si>
-    <t>抗格挡</t>
-  </si>
-  <si>
-    <t>抗穿透</t>
-  </si>
-  <si>
-    <t>效果命中</t>
-  </si>
-  <si>
-    <t>效果抵抗</t>
-  </si>
-  <si>
-    <t>AtkRate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefRate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpRate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IniRed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IniYellow</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IniBlue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rystallRcv</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>itReback</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>技能书1-暴击</t>
+  </si>
+  <si>
+    <t>技能书1-高级暴击</t>
+  </si>
+  <si>
+    <t>技能书2-爆伤</t>
+  </si>
+  <si>
+    <t>技能书2-高级爆伤</t>
+  </si>
+  <si>
+    <t>技能书3-格挡</t>
+  </si>
+  <si>
+    <t>技能书3-高级格挡</t>
+  </si>
+  <si>
+    <t>技能书4-穿透</t>
+  </si>
+  <si>
+    <t>技能书4-高级穿透</t>
+  </si>
+  <si>
+    <t>技能书5-抗暴击</t>
+  </si>
+  <si>
+    <t>技能书5-高级抗暴击</t>
+  </si>
+  <si>
+    <t>技能书6-抗格挡</t>
+  </si>
+  <si>
+    <t>技能书6-高级抗格挡</t>
+  </si>
+  <si>
+    <t>技能书7-抗穿透</t>
+  </si>
+  <si>
+    <t>技能书7-高级抗穿透</t>
+  </si>
+  <si>
+    <t>技能书8-效果命中</t>
+  </si>
+  <si>
+    <t>技能书8-高级效果命中</t>
+  </si>
+  <si>
+    <t>技能书9-效果抵抗</t>
+  </si>
+  <si>
+    <t>技能书9-高级效果抵抗</t>
+  </si>
+  <si>
+    <t>技能书10-守护灵百分比攻击</t>
+  </si>
+  <si>
+    <t>技能书10-高级守护灵百分比攻击</t>
+  </si>
+  <si>
+    <t>技能书11-守护灵百分比防御</t>
+  </si>
+  <si>
+    <t>技能书11-高级守护灵百分比防御</t>
+  </si>
+  <si>
+    <t>技能书12-守护灵百分比血量</t>
+  </si>
+  <si>
+    <t>技能书12-高级守护灵百分比血量</t>
+  </si>
+  <si>
+    <t>技能书13-概率反弹伤害</t>
+  </si>
+  <si>
+    <t>技能书13-高级概率反弹伤害</t>
+  </si>
+  <si>
+    <t>技能书14-无视反弹伤害+减伤</t>
+  </si>
+  <si>
+    <t>技能书14-高级无视反弹伤害+减伤</t>
+  </si>
+  <si>
+    <t>技能书15-降低所受伤害-造成伤害</t>
+  </si>
+  <si>
+    <t>技能书15-高级降低所受伤害-造成伤害</t>
+  </si>
+  <si>
+    <t>技能书16-降低防御+暴击</t>
+  </si>
+  <si>
+    <t>技能书16-高级降低防御+暴击</t>
+  </si>
+  <si>
+    <t>技能书17-格挡+百分比防御</t>
+  </si>
+  <si>
+    <t>技能书17-高级格挡+百分比防御</t>
+  </si>
+  <si>
+    <t>技能书18-百分比血量+百分比防御</t>
+  </si>
+  <si>
+    <t>技能书18-高级百分比血量+百分比防御</t>
+  </si>
+  <si>
+    <t>技能书19-暴击+暴击伤害</t>
+  </si>
+  <si>
+    <t>技能书19-高级暴击+暴击伤害</t>
+  </si>
+  <si>
+    <t>技能书20-暴击+穿透</t>
+  </si>
+  <si>
+    <t>技能书20-高级暴击+穿透</t>
+  </si>
+  <si>
+    <t>技能书21-百分比攻击+穿透</t>
+  </si>
+  <si>
+    <t>技能书21-高级百分比攻击+穿透</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2427,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -2441,7 +2447,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
@@ -2486,18 +2492,18 @@
     </row>
     <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>1</v>
@@ -2513,11 +2519,11 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G7" s="2" t="b">
         <v>1</v>
@@ -2533,11 +2539,11 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G8" s="2" t="b">
         <v>1</v>
@@ -2546,18 +2552,18 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G9" s="2" t="b">
         <v>1</v>
@@ -2570,7 +2576,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>64</v>
@@ -2588,7 +2594,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>64</v>
@@ -2602,11 +2608,11 @@
     </row>
     <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>64</v>
@@ -2620,11 +2626,11 @@
     </row>
     <row r="13" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>64</v>
@@ -2772,7 +2778,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -2796,7 +2802,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
@@ -2824,7 +2830,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -2852,7 +2858,7 @@
         <v>76</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F7" s="2">
         <v>7</v>
@@ -2876,7 +2882,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F8" s="2">
         <v>7</v>
@@ -2904,7 +2910,7 @@
         <v>78</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
@@ -2932,7 +2938,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
@@ -2956,7 +2962,7 @@
         <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -2984,7 +2990,7 @@
         <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
@@ -3097,28 +3103,28 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -4447,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4473,7 +4479,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>85</v>
@@ -4482,73 +4488,73 @@
         <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="W1" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -4559,76 +4565,76 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D2" t="s">
         <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
         <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N2" t="s">
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="R2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="T2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="U2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="V2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="W2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="X2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Y2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Z2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
@@ -4642,73 +4648,73 @@
         <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4719,25 +4725,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D4" s="7">
         <v>0.1</v>
       </c>
       <c r="E4" s="7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F4" s="7">
         <v>0.05</v>
       </c>
       <c r="G4" s="7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H4" s="7">
         <v>0.05</v>
       </c>
       <c r="I4" s="7">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J4" s="9">
         <v>20000</v>
@@ -4749,7 +4755,7 @@
         <v>20000</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
@@ -4761,7 +4767,7 @@
         <v>5000</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="R4" s="2">
         <v>5000</v>
@@ -4770,7 +4776,7 @@
         <v>12500</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="U4" s="2">
         <v>12500</v>
@@ -4779,7 +4785,7 @@
         <v>17500</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="X4" s="2">
         <v>17500</v>
@@ -4788,7 +4794,7 @@
         <v>30000</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4799,7 +4805,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D5" s="7">
         <v>0.1</v>
@@ -4829,7 +4835,7 @@
         <v>20000</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N5" s="2">
         <v>2</v>
@@ -4841,7 +4847,7 @@
         <v>5000</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="R5" s="2">
         <v>5000</v>
@@ -4850,7 +4856,7 @@
         <v>15000</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="U5" s="2">
         <v>15000</v>
@@ -4859,7 +4865,7 @@
         <v>22500</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="X5" s="2">
         <v>22500</v>
@@ -4868,7 +4874,7 @@
         <v>35000</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4879,7 +4885,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D6" s="7">
         <v>0.1</v>
@@ -4909,7 +4915,7 @@
         <v>20000</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N6" s="2">
         <v>3</v>
@@ -4921,7 +4927,7 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="R6" s="2">
         <v>5000</v>
@@ -4930,7 +4936,7 @@
         <v>17500</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="U6" s="2">
         <v>17500</v>
@@ -4939,7 +4945,7 @@
         <v>25000</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="X6" s="2">
         <v>25000</v>
@@ -4948,7 +4954,7 @@
         <v>40000</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -4986,7 +4992,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>85</v>
@@ -4995,10 +5001,10 @@
         <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>119</v>
@@ -5022,13 +5028,13 @@
         <v>105</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -5045,37 +5051,37 @@
         <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="J2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -5116,13 +5122,13 @@
         <v>112</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -5133,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>122</v>
@@ -5172,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -5186,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>122</v>
@@ -5225,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -5239,10 +5245,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E6" s="9">
         <v>3</v>
@@ -5278,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -5292,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>122</v>
@@ -5331,7 +5337,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -5345,10 +5351,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E8" s="9">
         <v>5</v>
@@ -5392,10 +5398,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E9" s="9">
         <v>6</v>
@@ -5439,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>122</v>
@@ -5486,10 +5492,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E11" s="9">
         <v>8</v>
@@ -5533,10 +5539,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
@@ -5580,10 +5586,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -5627,10 +5633,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E14" s="9">
         <v>3</v>
@@ -5674,10 +5680,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E15" s="9">
         <v>4</v>
@@ -5721,10 +5727,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E16" s="9">
         <v>5</v>
@@ -5768,10 +5774,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E17" s="9">
         <v>6</v>
@@ -5815,10 +5821,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E18" s="9">
         <v>7</v>
@@ -5862,10 +5868,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E19" s="9">
         <v>8</v>
@@ -5909,10 +5915,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E20" s="9">
         <v>9</v>
@@ -5956,10 +5962,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E21" s="9">
         <v>10</v>
@@ -6003,10 +6009,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E22" s="9">
         <v>11</v>
@@ -6050,10 +6056,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E23" s="9">
         <v>12</v>
@@ -6097,10 +6103,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E24" s="9">
         <v>13</v>
@@ -6144,10 +6150,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E25" s="9">
         <v>14</v>
@@ -6191,10 +6197,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E26" s="9">
         <v>15</v>
@@ -6238,10 +6244,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E27" s="9">
         <v>1</v>
@@ -6285,10 +6291,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E28" s="9">
         <v>2</v>
@@ -6332,10 +6338,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E29" s="9">
         <v>3</v>
@@ -6379,10 +6385,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E30" s="9">
         <v>4</v>
@@ -6426,10 +6432,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E31" s="9">
         <v>5</v>
@@ -6473,10 +6479,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E32" s="9">
         <v>6</v>
@@ -6520,10 +6526,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E33" s="9">
         <v>7</v>
@@ -6567,10 +6573,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E34" s="9">
         <v>8</v>
@@ -6614,10 +6620,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E35" s="9">
         <v>9</v>
@@ -6661,10 +6667,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E36" s="9">
         <v>10</v>
@@ -6708,10 +6714,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E37" s="9">
         <v>11</v>
@@ -6755,10 +6761,10 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E38" s="9">
         <v>12</v>
@@ -6802,10 +6808,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E39" s="9">
         <v>13</v>
@@ -6849,10 +6855,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E40" s="9">
         <v>14</v>
@@ -6896,10 +6902,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E41" s="9">
         <v>15</v>
@@ -6943,10 +6949,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E42" s="9">
         <v>16</v>
@@ -6990,10 +6996,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E43" s="9">
         <v>17</v>
@@ -7037,10 +7043,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E44" s="9">
         <v>18</v>
@@ -7084,10 +7090,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E45" s="9">
         <v>19</v>
@@ -7131,10 +7137,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E46" s="9">
         <v>20</v>
@@ -7178,10 +7184,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E47" s="9">
         <v>21</v>
@@ -7225,10 +7231,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E48" s="9">
         <v>22</v>
@@ -7298,13 +7304,13 @@
         <v>123</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7321,13 +7327,13 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -7344,7 +7350,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>96</v>
@@ -7844,22 +7850,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20:R20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="24.75" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="12" width="10.375" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="35.5" customWidth="1"/>
+    <col min="11" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -7867,7 +7873,7 @@
         <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>86</v>
@@ -7882,10 +7888,10 @@
         <v>156</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>157</v>
@@ -7894,10 +7900,10 @@
         <v>158</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -7908,34 +7914,34 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
         <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="I2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -7943,7 +7949,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>89</v>
@@ -7961,7 +7967,7 @@
         <v>160</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>161</v>
@@ -7970,25 +7976,10 @@
         <v>162</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -7996,29 +7987,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <f>1/25*10000</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G4" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="2">
         <v>8000</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="2">
         <v>1000</v>
       </c>
-      <c r="J4" s="2">
-        <v>1304010</v>
+      <c r="J4" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="K4" s="9">
         <v>2000</v>
@@ -8026,19 +8016,11 @@
       <c r="L4" s="9">
         <v>2500</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -8046,29 +8028,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E68" si="0">1/25*10000</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H5" s="9">
+        <v>177</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="2">
         <v>8000</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="2">
         <v>1000</v>
       </c>
-      <c r="J5" s="2">
-        <v>1304010</v>
+      <c r="J5" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="K5" s="9">
         <v>2000</v>
@@ -8076,19 +8057,11 @@
       <c r="L5" s="9">
         <v>2500</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -8096,29 +8069,28 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H6" s="2">
         <v>8000</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="2">
         <v>1000</v>
       </c>
-      <c r="J6" s="2">
-        <v>1304010</v>
+      <c r="J6" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="K6" s="9">
         <v>2000</v>
@@ -8126,19 +8098,11 @@
       <c r="L6" s="9">
         <v>2500</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -8146,29 +8110,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="2">
         <v>8000</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="2">
         <v>1000</v>
       </c>
-      <c r="J7" s="2">
-        <v>1304010</v>
+      <c r="J7" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="K7" s="9">
         <v>2000</v>
@@ -8176,19 +8139,11 @@
       <c r="L7" s="9">
         <v>2500</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -8196,29 +8151,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="G8" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H8" s="2">
         <v>8000</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="2">
         <v>1000</v>
       </c>
-      <c r="J8" s="2">
-        <v>1304010</v>
+      <c r="J8" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="K8" s="9">
         <v>2000</v>
@@ -8226,19 +8180,11 @@
       <c r="L8" s="9">
         <v>2500</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -8246,29 +8192,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H9" s="2">
         <v>8000</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="2">
         <v>1000</v>
       </c>
-      <c r="J9" s="2">
-        <v>1304010</v>
+      <c r="J9" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="K9" s="9">
         <v>2000</v>
@@ -8276,19 +8221,11 @@
       <c r="L9" s="9">
         <v>2500</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -8296,29 +8233,28 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G10" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" s="2">
         <v>8000</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="2">
         <v>1000</v>
       </c>
-      <c r="J10" s="2">
-        <v>1304010</v>
+      <c r="J10" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="K10" s="9">
         <v>2000</v>
@@ -8326,19 +8262,11 @@
       <c r="L10" s="9">
         <v>2500</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -8346,29 +8274,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="G11" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H11" s="2">
         <v>8000</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="2">
         <v>1000</v>
       </c>
-      <c r="J11" s="2">
-        <v>1304010</v>
+      <c r="J11" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="K11" s="9">
         <v>2000</v>
@@ -8376,19 +8303,11 @@
       <c r="L11" s="9">
         <v>2500</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -8396,29 +8315,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D12" s="2">
         <v>9</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G12" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H12" s="2">
         <v>8000</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="2">
         <v>1000</v>
       </c>
-      <c r="J12" s="2">
-        <v>1304010</v>
+      <c r="J12" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="K12" s="9">
         <v>2000</v>
@@ -8426,19 +8344,11 @@
       <c r="L12" s="9">
         <v>2500</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -8446,29 +8356,28 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H13" s="9">
+        <v>192</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H13" s="2">
         <v>8000</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="2">
         <v>1000</v>
       </c>
-      <c r="J13" s="2">
-        <v>1304010</v>
+      <c r="J13" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="K13" s="9">
         <v>2000</v>
@@ -8476,19 +8385,11 @@
       <c r="L13" s="9">
         <v>2500</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -8496,29 +8397,28 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D14" s="2">
         <v>11</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="G14" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H14" s="2">
         <v>8000</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="2">
         <v>1000</v>
       </c>
-      <c r="J14" s="2">
-        <v>1304010</v>
+      <c r="J14" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="K14" s="9">
         <v>2000</v>
@@ -8526,19 +8426,11 @@
       <c r="L14" s="9">
         <v>2500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -8546,29 +8438,28 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D15" s="2">
         <v>12</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="G15" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H15" s="2">
         <v>8000</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="2">
         <v>1000</v>
       </c>
-      <c r="J15" s="2">
-        <v>1304010</v>
+      <c r="J15" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="K15" s="9">
         <v>2000</v>
@@ -8576,49 +8467,40 @@
       <c r="L15" s="9">
         <v>2500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D16" s="2">
         <v>13</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H16" s="9">
+        <v>193</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H16" s="2">
         <v>8000</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="2">
         <v>1000</v>
       </c>
-      <c r="J16" s="2">
-        <v>1304010</v>
+      <c r="J16" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="K16" s="9">
         <v>2000</v>
@@ -8626,49 +8508,40 @@
       <c r="L16" s="9">
         <v>2500</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2">
-        <v>2</v>
-      </c>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D17" s="2">
         <v>14</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H17" s="9">
+        <v>174</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H17" s="2">
         <v>8000</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="2">
         <v>1000</v>
       </c>
-      <c r="J17" s="2">
-        <v>1304010</v>
+      <c r="J17" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="K17" s="9">
         <v>2000</v>
@@ -8676,49 +8549,40 @@
       <c r="L17" s="9">
         <v>2500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2">
-        <v>2</v>
-      </c>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H18" s="9">
+        <v>175</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H18" s="2">
         <v>8000</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="2">
         <v>1000</v>
       </c>
-      <c r="J18" s="2">
-        <v>1304010</v>
+      <c r="J18" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="K18" s="9">
         <v>2000</v>
@@ -8726,49 +8590,40 @@
       <c r="L18" s="9">
         <v>2500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2">
-        <v>2</v>
-      </c>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2">
         <v>16</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H19" s="9">
+        <v>176</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H19" s="2">
         <v>8000</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="2">
         <v>1000</v>
       </c>
-      <c r="J19" s="2">
-        <v>1304010</v>
+      <c r="J19" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="K19" s="9">
         <v>2000</v>
@@ -8776,53 +8631,40 @@
       <c r="L19" s="9">
         <v>2500</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="P19" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="R19" s="2">
-        <v>3</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D20" s="2">
         <v>17</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H20" s="9">
+        <v>178</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H20" s="2">
         <v>8000</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="2">
         <v>1000</v>
       </c>
-      <c r="J20" s="2">
-        <v>1304010</v>
+      <c r="J20" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="K20" s="9">
         <v>2000</v>
@@ -8830,49 +8672,40 @@
       <c r="L20" s="9">
         <v>2500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D21" s="2">
         <v>18</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H21" s="9">
+        <v>179</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H21" s="2">
         <v>8000</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="2">
         <v>1000</v>
       </c>
-      <c r="J21" s="2">
-        <v>1304010</v>
+      <c r="J21" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="K21" s="9">
         <v>2000</v>
@@ -8880,43 +8713,40 @@
       <c r="L21" s="9">
         <v>2500</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D22" s="2">
         <v>19</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H22" s="9">
+        <v>180</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H22" s="2">
         <v>8000</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="2">
         <v>1000</v>
       </c>
-      <c r="J22" s="2">
-        <v>1304010</v>
+      <c r="J22" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="K22" s="9">
         <v>2000</v>
@@ -8924,43 +8754,40 @@
       <c r="L22" s="9">
         <v>2500</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2">
         <v>20</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H23" s="9">
+        <v>181</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H23" s="2">
         <v>8000</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="2">
         <v>1000</v>
       </c>
-      <c r="J23" s="2">
-        <v>1304010</v>
+      <c r="J23" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="K23" s="9">
         <v>2000</v>
@@ -8968,43 +8795,40 @@
       <c r="L23" s="9">
         <v>2500</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D24" s="2">
         <v>21</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="G24" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H24" s="9">
+      <c r="G24" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H24" s="2">
         <v>8000</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="2">
         <v>1000</v>
       </c>
-      <c r="J24" s="2">
-        <v>1304010</v>
+      <c r="J24" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="K24" s="9">
         <v>2000</v>
@@ -9012,43 +8836,40 @@
       <c r="L24" s="9">
         <v>2500</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D25" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H25" s="9">
+        <v>164</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H25" s="2">
         <v>8000</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="2">
         <v>1000</v>
       </c>
-      <c r="J25" s="2">
-        <v>1304010</v>
+      <c r="J25" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="K25" s="9">
         <v>2000</v>
@@ -9056,43 +8877,40 @@
       <c r="L25" s="9">
         <v>2500</v>
       </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D26" s="2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H26" s="9">
+        <v>177</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" s="2">
         <v>8000</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="2">
         <v>1000</v>
       </c>
-      <c r="J26" s="2">
-        <v>1304010</v>
+      <c r="J26" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="K26" s="9">
         <v>2000</v>
@@ -9100,43 +8918,40 @@
       <c r="L26" s="9">
         <v>2500</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D27" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H27" s="9">
+        <v>165</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H27" s="2">
         <v>8000</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="2">
         <v>1000</v>
       </c>
-      <c r="J27" s="2">
-        <v>1304010</v>
+      <c r="J27" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="K27" s="9">
         <v>2000</v>
@@ -9144,43 +8959,40 @@
       <c r="L27" s="9">
         <v>2500</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D28" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H28" s="9">
+        <v>166</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H28" s="2">
         <v>8000</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="2">
         <v>1000</v>
       </c>
-      <c r="J28" s="2">
-        <v>1304010</v>
+      <c r="J28" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="K28" s="9">
         <v>2000</v>
@@ -9188,43 +9000,40 @@
       <c r="L28" s="9">
         <v>2500</v>
       </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2">
-        <f>1/25*10000</f>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H29" s="9">
+        <v>167</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H29" s="2">
         <v>8000</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="2">
         <v>1000</v>
       </c>
-      <c r="J29" s="2">
-        <v>1304010</v>
+      <c r="J29" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="K29" s="9">
         <v>2000</v>
@@ -9232,43 +9041,40 @@
       <c r="L29" s="9">
         <v>2500</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D30" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H30" s="9">
+        <v>168</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H30" s="2">
         <v>8000</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="2">
         <v>1000</v>
       </c>
-      <c r="J30" s="2">
-        <v>1304010</v>
+      <c r="J30" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="K30" s="9">
         <v>2000</v>
@@ -9276,43 +9082,40 @@
       <c r="L30" s="9">
         <v>2500</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H31" s="9">
+        <v>169</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H31" s="2">
         <v>8000</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="2">
         <v>1000</v>
       </c>
-      <c r="J31" s="2">
-        <v>1304010</v>
+      <c r="J31" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="K31" s="9">
         <v>2000</v>
@@ -9320,43 +9123,40 @@
       <c r="L31" s="9">
         <v>2500</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D32" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H32" s="9">
+        <v>170</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H32" s="2">
         <v>8000</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="2">
         <v>1000</v>
       </c>
-      <c r="J32" s="2">
-        <v>1304010</v>
+      <c r="J32" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="K32" s="9">
         <v>2000</v>
@@ -9364,43 +9164,40 @@
       <c r="L32" s="9">
         <v>2500</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D33" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H33" s="9">
+        <v>171</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H33" s="2">
         <v>8000</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="2">
         <v>1000</v>
       </c>
-      <c r="J33" s="2">
-        <v>1304010</v>
+      <c r="J33" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="K33" s="9">
         <v>2000</v>
@@ -9408,43 +9205,40 @@
       <c r="L33" s="9">
         <v>2500</v>
       </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P33" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D34" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H34" s="9">
+        <v>192</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H34" s="2">
         <v>8000</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="2">
         <v>1000</v>
       </c>
-      <c r="J34" s="2">
-        <v>1304010</v>
+      <c r="J34" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="K34" s="9">
         <v>2000</v>
@@ -9452,43 +9246,40 @@
       <c r="L34" s="9">
         <v>2500</v>
       </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P34" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D35" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H35" s="9">
+        <v>172</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H35" s="2">
         <v>8000</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="2">
         <v>1000</v>
       </c>
-      <c r="J35" s="2">
-        <v>1304010</v>
+      <c r="J35" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="K35" s="9">
         <v>2000</v>
@@ -9496,43 +9287,40 @@
       <c r="L35" s="9">
         <v>2500</v>
       </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D36" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H36" s="9">
+        <v>173</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H36" s="2">
         <v>8000</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="2">
         <v>1000</v>
       </c>
-      <c r="J36" s="2">
-        <v>1304010</v>
+      <c r="J36" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="K36" s="9">
         <v>2000</v>
@@ -9540,43 +9328,40 @@
       <c r="L36" s="9">
         <v>2500</v>
       </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D37" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H37" s="9">
+        <v>193</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H37" s="2">
         <v>8000</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="2">
         <v>1000</v>
       </c>
-      <c r="J37" s="2">
-        <v>1304010</v>
+      <c r="J37" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="K37" s="9">
         <v>2000</v>
@@ -9584,43 +9369,40 @@
       <c r="L37" s="9">
         <v>2500</v>
       </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D38" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H38" s="9">
+        <v>174</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H38" s="2">
         <v>8000</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="2">
         <v>1000</v>
       </c>
-      <c r="J38" s="2">
-        <v>1304010</v>
+      <c r="J38" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="K38" s="9">
         <v>2000</v>
@@ -9628,43 +9410,40 @@
       <c r="L38" s="9">
         <v>2500</v>
       </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D39" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H39" s="9">
+        <v>175</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H39" s="2">
         <v>8000</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="2">
         <v>1000</v>
       </c>
-      <c r="J39" s="2">
-        <v>1304010</v>
+      <c r="J39" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="K39" s="9">
         <v>2000</v>
@@ -9672,43 +9451,40 @@
       <c r="L39" s="9">
         <v>2500</v>
       </c>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D40" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H40" s="9">
+        <v>176</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H40" s="2">
         <v>8000</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="2">
         <v>1000</v>
       </c>
-      <c r="J40" s="2">
-        <v>1304010</v>
+      <c r="J40" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="K40" s="9">
         <v>2000</v>
@@ -9716,43 +9492,40 @@
       <c r="L40" s="9">
         <v>2500</v>
       </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D41" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H41" s="9">
+        <v>178</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H41" s="2">
         <v>8000</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="2">
         <v>1000</v>
       </c>
-      <c r="J41" s="2">
-        <v>1304010</v>
+      <c r="J41" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="K41" s="9">
         <v>2000</v>
@@ -9760,43 +9533,40 @@
       <c r="L41" s="9">
         <v>2500</v>
       </c>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D42" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H42" s="9">
+        <v>200</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H42" s="2">
         <v>8000</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="2">
         <v>1000</v>
       </c>
-      <c r="J42" s="2">
-        <v>1304010</v>
+      <c r="J42" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="K42" s="9">
         <v>2000</v>
@@ -9804,43 +9574,40 @@
       <c r="L42" s="9">
         <v>2500</v>
       </c>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D43" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H43" s="9">
+        <v>180</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H43" s="2">
         <v>8000</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="2">
         <v>1000</v>
       </c>
-      <c r="J43" s="2">
-        <v>1304010</v>
+      <c r="J43" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="K43" s="9">
         <v>2000</v>
@@ -9848,43 +9615,40 @@
       <c r="L43" s="9">
         <v>2500</v>
       </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D44" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H44" s="9">
+        <v>181</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H44" s="2">
         <v>8000</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="2">
         <v>1000</v>
       </c>
-      <c r="J44" s="2">
-        <v>1304010</v>
+      <c r="J44" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="K44" s="9">
         <v>2000</v>
@@ -9892,43 +9656,40 @@
       <c r="L44" s="9">
         <v>2500</v>
       </c>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D45" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H45" s="9">
+        <v>182</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H45" s="2">
         <v>8000</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="2">
         <v>1000</v>
       </c>
-      <c r="J45" s="2">
-        <v>1304010</v>
+      <c r="J45" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="K45" s="9">
         <v>2000</v>
@@ -9936,43 +9697,40 @@
       <c r="L45" s="9">
         <v>2500</v>
       </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="P45" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D46" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H46" s="9">
+        <v>164</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H46" s="2">
         <v>8000</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="2">
         <v>1000</v>
       </c>
-      <c r="J46" s="2">
-        <v>1304010</v>
+      <c r="J46" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="K46" s="9">
         <v>2000</v>
@@ -9980,43 +9738,37 @@
       <c r="L46" s="9">
         <v>2500</v>
       </c>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D47" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H47" s="9">
+        <v>177</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H47" s="2">
         <v>8000</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="2">
         <v>1000</v>
       </c>
-      <c r="J47" s="2">
-        <v>1304010</v>
+      <c r="J47" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="K47" s="9">
         <v>2000</v>
@@ -10024,43 +9776,37 @@
       <c r="L47" s="9">
         <v>2500</v>
       </c>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D48" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H48" s="9">
+        <v>165</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="H48" s="2">
         <v>8000</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="2">
         <v>1000</v>
       </c>
-      <c r="J48" s="2">
-        <v>1304010</v>
+      <c r="J48" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="K48" s="9">
         <v>2000</v>
@@ -10068,43 +9814,37 @@
       <c r="L48" s="9">
         <v>2500</v>
       </c>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-    </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D49" s="2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G49" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H49" s="9">
+        <v>166</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H49" s="2">
         <v>8000</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="2">
         <v>1000</v>
       </c>
-      <c r="J49" s="2">
-        <v>1304010</v>
+      <c r="J49" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="K49" s="9">
         <v>2000</v>
@@ -10112,43 +9852,37 @@
       <c r="L49" s="9">
         <v>2500</v>
       </c>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D50" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G50" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H50" s="9">
+        <v>167</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H50" s="2">
         <v>8000</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="2">
         <v>1000</v>
       </c>
-      <c r="J50" s="2">
-        <v>1304010</v>
+      <c r="J50" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="K50" s="9">
         <v>2000</v>
@@ -10156,43 +9890,37 @@
       <c r="L50" s="9">
         <v>2500</v>
       </c>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D51" s="2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G51" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H51" s="9">
+        <v>168</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H51" s="2">
         <v>8000</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="2">
         <v>1000</v>
       </c>
-      <c r="J51" s="2">
-        <v>1304010</v>
+      <c r="J51" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="K51" s="9">
         <v>2000</v>
@@ -10200,43 +9928,37 @@
       <c r="L51" s="9">
         <v>2500</v>
       </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D52" s="2">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G52" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H52" s="9">
+        <v>169</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H52" s="2">
         <v>8000</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="2">
         <v>1000</v>
       </c>
-      <c r="J52" s="2">
-        <v>1304010</v>
+      <c r="J52" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="K52" s="9">
         <v>2000</v>
@@ -10244,43 +9966,37 @@
       <c r="L52" s="9">
         <v>2500</v>
       </c>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D53" s="2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G53" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H53" s="9">
+        <v>170</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H53" s="2">
         <v>8000</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="2">
         <v>1000</v>
       </c>
-      <c r="J53" s="2">
-        <v>1304010</v>
+      <c r="J53" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="K53" s="9">
         <v>2000</v>
@@ -10288,43 +10004,37 @@
       <c r="L53" s="9">
         <v>2500</v>
       </c>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2">
         <v>3</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D54" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2">
-        <f>1/25*10000</f>
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G54" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H54" s="9">
+        <v>171</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H54" s="2">
         <v>8000</v>
       </c>
-      <c r="I54" s="9">
+      <c r="I54" s="2">
         <v>1000</v>
       </c>
-      <c r="J54" s="2">
-        <v>1304010</v>
+      <c r="J54" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="K54" s="9">
         <v>2000</v>
@@ -10332,43 +10042,37 @@
       <c r="L54" s="9">
         <v>2500</v>
       </c>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-    </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D55" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G55" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H55" s="9">
+        <v>192</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H55" s="2">
         <v>8000</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I55" s="2">
         <v>1000</v>
       </c>
-      <c r="J55" s="2">
-        <v>1304010</v>
+      <c r="J55" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="K55" s="9">
         <v>2000</v>
@@ -10376,43 +10080,37 @@
       <c r="L55" s="9">
         <v>2500</v>
       </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2">
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D56" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G56" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H56" s="9">
+        <v>172</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H56" s="2">
         <v>8000</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I56" s="2">
         <v>1000</v>
       </c>
-      <c r="J56" s="2">
-        <v>1304010</v>
+      <c r="J56" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="K56" s="9">
         <v>2000</v>
@@ -10420,43 +10118,37 @@
       <c r="L56" s="9">
         <v>2500</v>
       </c>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-    </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D57" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G57" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H57" s="9">
+        <v>173</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H57" s="2">
         <v>8000</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I57" s="2">
         <v>1000</v>
       </c>
-      <c r="J57" s="2">
-        <v>1304010</v>
+      <c r="J57" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="K57" s="9">
         <v>2000</v>
@@ -10464,43 +10156,37 @@
       <c r="L57" s="9">
         <v>2500</v>
       </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B58" s="2">
         <v>3</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D58" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G58" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H58" s="9">
+        <v>193</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H58" s="2">
         <v>8000</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="2">
         <v>1000</v>
       </c>
-      <c r="J58" s="2">
-        <v>1304010</v>
+      <c r="J58" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="K58" s="9">
         <v>2000</v>
@@ -10508,43 +10194,37 @@
       <c r="L58" s="9">
         <v>2500</v>
       </c>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2">
         <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D59" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G59" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H59" s="9">
+        <v>174</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H59" s="2">
         <v>8000</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I59" s="2">
         <v>1000</v>
       </c>
-      <c r="J59" s="2">
-        <v>1304010</v>
+      <c r="J59" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="K59" s="9">
         <v>2000</v>
@@ -10552,43 +10232,37 @@
       <c r="L59" s="9">
         <v>2500</v>
       </c>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2">
         <v>3</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D60" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H60" s="9">
+        <v>175</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H60" s="2">
         <v>8000</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I60" s="2">
         <v>1000</v>
       </c>
-      <c r="J60" s="2">
-        <v>1304010</v>
+      <c r="J60" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="K60" s="9">
         <v>2000</v>
@@ -10596,43 +10270,37 @@
       <c r="L60" s="9">
         <v>2500</v>
       </c>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-    </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D61" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G61" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H61" s="9">
+        <v>176</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H61" s="2">
         <v>8000</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I61" s="2">
         <v>1000</v>
       </c>
-      <c r="J61" s="2">
-        <v>1304010</v>
+      <c r="J61" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="K61" s="9">
         <v>2000</v>
@@ -10640,43 +10308,37 @@
       <c r="L61" s="9">
         <v>2500</v>
       </c>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2">
         <v>3</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D62" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H62" s="9">
+        <v>178</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H62" s="2">
         <v>8000</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I62" s="2">
         <v>1000</v>
       </c>
-      <c r="J62" s="2">
-        <v>1304010</v>
+      <c r="J62" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="K62" s="9">
         <v>2000</v>
@@ -10684,43 +10346,37 @@
       <c r="L62" s="9">
         <v>2500</v>
       </c>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2">
         <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D63" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G63" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H63" s="9">
+        <v>179</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H63" s="2">
         <v>8000</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="2">
         <v>1000</v>
       </c>
-      <c r="J63" s="2">
-        <v>1304010</v>
+      <c r="J63" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="K63" s="9">
         <v>2000</v>
@@ -10728,43 +10384,37 @@
       <c r="L63" s="9">
         <v>2500</v>
       </c>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2">
         <v>3</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D64" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G64" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H64" s="9">
+        <v>180</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H64" s="2">
         <v>8000</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I64" s="2">
         <v>1000</v>
       </c>
-      <c r="J64" s="2">
-        <v>1304010</v>
+      <c r="J64" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="K64" s="9">
         <v>2000</v>
@@ -10772,43 +10422,37 @@
       <c r="L64" s="9">
         <v>2500</v>
       </c>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2">
         <v>3</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D65" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G65" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H65" s="9">
+        <v>181</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H65" s="2">
         <v>8000</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="2">
         <v>1000</v>
       </c>
-      <c r="J65" s="2">
-        <v>1304010</v>
+      <c r="J65" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="K65" s="9">
         <v>2000</v>
@@ -10816,43 +10460,37 @@
       <c r="L65" s="9">
         <v>2500</v>
       </c>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B66" s="2">
         <v>3</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D66" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G66" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H66" s="9">
+        <v>182</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H66" s="2">
         <v>8000</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I66" s="2">
         <v>1000</v>
       </c>
-      <c r="J66" s="2">
-        <v>1304010</v>
+      <c r="J66" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="K66" s="9">
         <v>2000</v>
@@ -10860,539 +10498,6 @@
       <c r="L66" s="9">
         <v>2500</v>
       </c>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>64</v>
-      </c>
-      <c r="B67" s="2">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67" s="2">
-        <v>14</v>
-      </c>
-      <c r="E67" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G67" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H67" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I67" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K67" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L67" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>65</v>
-      </c>
-      <c r="B68" s="2">
-        <v>3</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D68" s="2">
-        <v>15</v>
-      </c>
-      <c r="E68" s="2">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G68" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H68" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I68" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K68" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L68" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-    </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>66</v>
-      </c>
-      <c r="B69" s="2">
-        <v>3</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="2">
-        <v>16</v>
-      </c>
-      <c r="E69" s="2">
-        <f t="shared" ref="E69:E78" si="1">1/25*10000</f>
-        <v>400</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G69" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H69" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I69" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J69" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K69" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L69" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-    </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>67</v>
-      </c>
-      <c r="B70" s="2">
-        <v>3</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D70" s="2">
-        <v>17</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G70" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H70" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I70" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J70" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K70" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L70" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-    </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
-        <v>68</v>
-      </c>
-      <c r="B71" s="2">
-        <v>3</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" s="2">
-        <v>18</v>
-      </c>
-      <c r="E71" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G71" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H71" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I71" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J71" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K71" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L71" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>69</v>
-      </c>
-      <c r="B72" s="2">
-        <v>3</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72" s="2">
-        <v>19</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G72" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H72" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I72" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K72" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L72" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-    </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>70</v>
-      </c>
-      <c r="B73" s="2">
-        <v>3</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D73" s="2">
-        <v>20</v>
-      </c>
-      <c r="E73" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G73" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H73" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I73" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J73" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K73" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L73" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-    </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>71</v>
-      </c>
-      <c r="B74" s="2">
-        <v>3</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D74" s="2">
-        <v>21</v>
-      </c>
-      <c r="E74" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G74" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H74" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I74" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J74" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K74" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L74" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-    </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
-        <v>72</v>
-      </c>
-      <c r="B75" s="2">
-        <v>3</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="2">
-        <v>22</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G75" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H75" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I75" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J75" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K75" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L75" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-    </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>73</v>
-      </c>
-      <c r="B76" s="2">
-        <v>3</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76" s="2">
-        <v>23</v>
-      </c>
-      <c r="E76" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G76" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H76" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I76" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J76" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K76" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L76" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-    </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>74</v>
-      </c>
-      <c r="B77" s="2">
-        <v>3</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" s="2">
-        <v>24</v>
-      </c>
-      <c r="E77" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G77" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H77" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I77" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J77" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K77" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L77" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-    </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
-        <v>75</v>
-      </c>
-      <c r="B78" s="2">
-        <v>3</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D78" s="2">
-        <v>25</v>
-      </c>
-      <c r="E78" s="2">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G78" s="2">
-        <v>1304009</v>
-      </c>
-      <c r="H78" s="9">
-        <v>8000</v>
-      </c>
-      <c r="I78" s="9">
-        <v>1000</v>
-      </c>
-      <c r="J78" s="2">
-        <v>1304010</v>
-      </c>
-      <c r="K78" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L78" s="9">
-        <v>2500</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="400">
   <si>
     <t>sheet名</t>
   </si>
@@ -973,31 +973,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>降低防御+暴击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>爆伤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡+百分比防御</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比血量+百分比防御</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击+暴击伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击+穿透</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比攻击+穿透</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1805,40 +1781,124 @@
     <t>技能书15-高级降低所受伤害-造成伤害</t>
   </si>
   <si>
-    <t>技能书16-降低防御+暴击</t>
-  </si>
-  <si>
-    <t>技能书16-高级降低防御+暴击</t>
-  </si>
-  <si>
-    <t>技能书17-格挡+百分比防御</t>
-  </si>
-  <si>
-    <t>技能书17-高级格挡+百分比防御</t>
-  </si>
-  <si>
-    <t>技能书18-百分比血量+百分比防御</t>
-  </si>
-  <si>
-    <t>技能书18-高级百分比血量+百分比防御</t>
-  </si>
-  <si>
-    <t>技能书19-暴击+暴击伤害</t>
-  </si>
-  <si>
-    <t>技能书19-高级暴击+暴击伤害</t>
-  </si>
-  <si>
-    <t>技能书20-暴击+穿透</t>
-  </si>
-  <si>
-    <t>技能书20-高级暴击+穿透</t>
-  </si>
-  <si>
-    <t>技能书21-百分比攻击+穿透</t>
-  </si>
-  <si>
-    <t>技能书21-高级百分比攻击+穿透</t>
+    <t>必杀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级必杀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级致命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级穿透</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级坚韧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级精准</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏斜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级偏斜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级生命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能书13-反弹伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能书13-高级反弹伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">高级荆棘 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>披荆斩棘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级披荆斩棘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级防守</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级进攻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级格挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级冲击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级阻挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2427,7 +2487,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -2447,7 +2507,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G3" s="2" t="b">
         <v>1</v>
@@ -2492,18 +2552,18 @@
     </row>
     <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>1</v>
@@ -2519,11 +2579,11 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G7" s="2" t="b">
         <v>1</v>
@@ -2539,11 +2599,11 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G8" s="2" t="b">
         <v>1</v>
@@ -2552,18 +2612,18 @@
     </row>
     <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G9" s="2" t="b">
         <v>1</v>
@@ -2576,7 +2636,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>64</v>
@@ -2594,7 +2654,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>64</v>
@@ -2608,11 +2668,11 @@
     </row>
     <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>64</v>
@@ -2626,11 +2686,11 @@
     </row>
     <row r="13" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>64</v>
@@ -2778,7 +2838,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -2802,7 +2862,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
@@ -2830,7 +2890,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -2858,7 +2918,7 @@
         <v>76</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F7" s="2">
         <v>7</v>
@@ -2882,7 +2942,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F8" s="2">
         <v>7</v>
@@ -2910,7 +2970,7 @@
         <v>78</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
@@ -2938,7 +2998,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
@@ -2962,7 +3022,7 @@
         <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -2990,7 +3050,7 @@
         <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
@@ -3103,28 +3163,28 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -4479,7 +4539,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>85</v>
@@ -4488,73 +4548,73 @@
         <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -4565,76 +4625,76 @@
         <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
         <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F2" t="s">
         <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="L2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N2" t="s">
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="P2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="R2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="S2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="T2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="U2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="V2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="W2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="X2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Y2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Z2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
@@ -4648,73 +4708,73 @@
         <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4725,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D4" s="7">
         <v>0.1</v>
@@ -4755,7 +4815,7 @@
         <v>20000</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
@@ -4767,7 +4827,7 @@
         <v>5000</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="R4" s="2">
         <v>5000</v>
@@ -4776,7 +4836,7 @@
         <v>12500</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="U4" s="2">
         <v>12500</v>
@@ -4785,7 +4845,7 @@
         <v>17500</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="X4" s="2">
         <v>17500</v>
@@ -4794,7 +4854,7 @@
         <v>30000</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4805,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D5" s="7">
         <v>0.1</v>
@@ -4835,7 +4895,7 @@
         <v>20000</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N5" s="2">
         <v>2</v>
@@ -4847,7 +4907,7 @@
         <v>5000</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="R5" s="2">
         <v>5000</v>
@@ -4856,7 +4916,7 @@
         <v>15000</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="U5" s="2">
         <v>15000</v>
@@ -4865,7 +4925,7 @@
         <v>22500</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="X5" s="2">
         <v>22500</v>
@@ -4874,7 +4934,7 @@
         <v>35000</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4885,7 +4945,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D6" s="7">
         <v>0.1</v>
@@ -4915,7 +4975,7 @@
         <v>20000</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N6" s="2">
         <v>3</v>
@@ -4927,7 +4987,7 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="R6" s="2">
         <v>5000</v>
@@ -4936,7 +4996,7 @@
         <v>17500</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="U6" s="2">
         <v>17500</v>
@@ -4945,7 +5005,7 @@
         <v>25000</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="X6" s="2">
         <v>25000</v>
@@ -4954,7 +5014,7 @@
         <v>40000</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4992,7 +5052,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>85</v>
@@ -5001,10 +5061,10 @@
         <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>119</v>
@@ -5028,13 +5088,13 @@
         <v>105</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -5051,37 +5111,37 @@
         <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="K2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -5122,13 +5182,13 @@
         <v>112</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
@@ -5139,7 +5199,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>122</v>
@@ -5178,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -5192,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>122</v>
@@ -5231,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -5245,10 +5305,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E6" s="9">
         <v>3</v>
@@ -5284,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -5298,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>122</v>
@@ -5337,7 +5397,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -5351,10 +5411,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E8" s="9">
         <v>5</v>
@@ -5398,10 +5458,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E9" s="9">
         <v>6</v>
@@ -5445,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>122</v>
@@ -5492,10 +5552,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E11" s="9">
         <v>8</v>
@@ -5539,10 +5599,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
@@ -5586,10 +5646,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E13" s="9">
         <v>2</v>
@@ -5633,10 +5693,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E14" s="9">
         <v>3</v>
@@ -5680,10 +5740,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E15" s="9">
         <v>4</v>
@@ -5727,10 +5787,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E16" s="9">
         <v>5</v>
@@ -5774,10 +5834,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E17" s="9">
         <v>6</v>
@@ -5821,10 +5881,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E18" s="9">
         <v>7</v>
@@ -5868,10 +5928,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E19" s="9">
         <v>8</v>
@@ -5915,10 +5975,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E20" s="9">
         <v>9</v>
@@ -5962,10 +6022,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E21" s="9">
         <v>10</v>
@@ -6009,10 +6069,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E22" s="9">
         <v>11</v>
@@ -6056,10 +6116,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E23" s="9">
         <v>12</v>
@@ -6103,10 +6163,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E24" s="9">
         <v>13</v>
@@ -6150,10 +6210,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E25" s="9">
         <v>14</v>
@@ -6197,10 +6257,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E26" s="9">
         <v>15</v>
@@ -6244,10 +6304,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E27" s="9">
         <v>1</v>
@@ -6291,10 +6351,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E28" s="9">
         <v>2</v>
@@ -6338,10 +6398,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E29" s="9">
         <v>3</v>
@@ -6385,10 +6445,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E30" s="9">
         <v>4</v>
@@ -6432,10 +6492,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E31" s="9">
         <v>5</v>
@@ -6479,10 +6539,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E32" s="9">
         <v>6</v>
@@ -6526,10 +6586,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E33" s="9">
         <v>7</v>
@@ -6573,10 +6633,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E34" s="9">
         <v>8</v>
@@ -6620,10 +6680,10 @@
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E35" s="9">
         <v>9</v>
@@ -6667,10 +6727,10 @@
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E36" s="9">
         <v>10</v>
@@ -6714,10 +6774,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E37" s="9">
         <v>11</v>
@@ -6761,10 +6821,10 @@
         <v>3</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E38" s="9">
         <v>12</v>
@@ -6808,10 +6868,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E39" s="9">
         <v>13</v>
@@ -6855,10 +6915,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E40" s="9">
         <v>14</v>
@@ -6902,10 +6962,10 @@
         <v>3</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E41" s="9">
         <v>15</v>
@@ -6949,10 +7009,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E42" s="9">
         <v>16</v>
@@ -6996,10 +7056,10 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E43" s="9">
         <v>17</v>
@@ -7043,10 +7103,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E44" s="9">
         <v>18</v>
@@ -7090,10 +7150,10 @@
         <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E45" s="9">
         <v>19</v>
@@ -7137,10 +7197,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E46" s="9">
         <v>20</v>
@@ -7184,10 +7244,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E47" s="9">
         <v>21</v>
@@ -7231,10 +7291,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E48" s="9">
         <v>22</v>
@@ -7304,13 +7364,13 @@
         <v>123</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>92</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -7327,13 +7387,13 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -7350,7 +7410,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>96</v>
@@ -7850,10 +7910,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7863,9 +7923,11 @@
     <col min="8" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="35.5" customWidth="1"/>
     <col min="11" max="12" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -7873,7 +7935,7 @@
         <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>86</v>
@@ -7888,10 +7950,10 @@
         <v>156</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>157</v>
@@ -7900,10 +7962,10 @@
         <v>158</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -7914,34 +7976,34 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
         <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -7949,7 +8011,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>89</v>
@@ -7967,7 +8029,7 @@
         <v>160</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>161</v>
@@ -7976,10 +8038,10 @@
         <v>162</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -7987,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -7999,7 +8061,7 @@
         <v>164</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H4" s="2">
         <v>8000</v>
@@ -8008,7 +8070,7 @@
         <v>1000</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K4" s="9">
         <v>2000</v>
@@ -8016,11 +8078,8 @@
       <c r="L4" s="9">
         <v>2500</v>
       </c>
-      <c r="P4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -8028,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -8037,10 +8096,10 @@
         <v>600</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H5" s="2">
         <v>8000</v>
@@ -8049,7 +8108,7 @@
         <v>1000</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K5" s="9">
         <v>2000</v>
@@ -8057,11 +8116,8 @@
       <c r="L5" s="9">
         <v>2500</v>
       </c>
-      <c r="P5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -8069,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -8081,7 +8137,7 @@
         <v>165</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H6" s="2">
         <v>8000</v>
@@ -8090,7 +8146,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K6" s="9">
         <v>2000</v>
@@ -8098,11 +8154,8 @@
       <c r="L6" s="9">
         <v>2500</v>
       </c>
-      <c r="P6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -8110,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -8122,7 +8175,7 @@
         <v>166</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H7" s="2">
         <v>8000</v>
@@ -8131,7 +8184,7 @@
         <v>1000</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K7" s="9">
         <v>2000</v>
@@ -8139,11 +8192,8 @@
       <c r="L7" s="9">
         <v>2500</v>
       </c>
-      <c r="P7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -8151,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -8163,7 +8213,7 @@
         <v>167</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H8" s="2">
         <v>8000</v>
@@ -8172,7 +8222,7 @@
         <v>1000</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K8" s="9">
         <v>2000</v>
@@ -8180,11 +8230,8 @@
       <c r="L8" s="9">
         <v>2500</v>
       </c>
-      <c r="P8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -8192,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -8204,7 +8251,7 @@
         <v>168</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H9" s="2">
         <v>8000</v>
@@ -8213,7 +8260,7 @@
         <v>1000</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K9" s="9">
         <v>2000</v>
@@ -8221,11 +8268,8 @@
       <c r="L9" s="9">
         <v>2500</v>
       </c>
-      <c r="P9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -8233,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
@@ -8245,7 +8289,7 @@
         <v>169</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H10" s="2">
         <v>8000</v>
@@ -8254,7 +8298,7 @@
         <v>1000</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="K10" s="9">
         <v>2000</v>
@@ -8262,11 +8306,8 @@
       <c r="L10" s="9">
         <v>2500</v>
       </c>
-      <c r="P10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -8274,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
@@ -8286,7 +8327,7 @@
         <v>170</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H11" s="2">
         <v>8000</v>
@@ -8295,7 +8336,7 @@
         <v>1000</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K11" s="9">
         <v>2000</v>
@@ -8303,11 +8344,8 @@
       <c r="L11" s="9">
         <v>2500</v>
       </c>
-      <c r="P11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -8315,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D12" s="2">
         <v>9</v>
@@ -8327,7 +8365,7 @@
         <v>171</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H12" s="2">
         <v>8000</v>
@@ -8336,7 +8374,7 @@
         <v>1000</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K12" s="9">
         <v>2000</v>
@@ -8344,11 +8382,8 @@
       <c r="L12" s="9">
         <v>2500</v>
       </c>
-      <c r="P12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -8356,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -8365,10 +8400,10 @@
         <v>800</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H13" s="2">
         <v>8000</v>
@@ -8377,7 +8412,7 @@
         <v>1000</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K13" s="9">
         <v>2000</v>
@@ -8385,11 +8420,8 @@
       <c r="L13" s="9">
         <v>2500</v>
       </c>
-      <c r="P13" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -8397,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D14" s="2">
         <v>11</v>
@@ -8409,7 +8441,7 @@
         <v>172</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H14" s="2">
         <v>8000</v>
@@ -8418,7 +8450,7 @@
         <v>1000</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K14" s="9">
         <v>2000</v>
@@ -8426,11 +8458,8 @@
       <c r="L14" s="9">
         <v>2500</v>
       </c>
-      <c r="P14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -8438,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2">
         <v>12</v>
@@ -8450,7 +8479,7 @@
         <v>173</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H15" s="2">
         <v>8000</v>
@@ -8459,7 +8488,7 @@
         <v>1000</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K15" s="9">
         <v>2000</v>
@@ -8467,11 +8496,8 @@
       <c r="L15" s="9">
         <v>2500</v>
       </c>
-      <c r="P15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -8479,7 +8505,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D16" s="2">
         <v>13</v>
@@ -8488,10 +8514,10 @@
         <v>100</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H16" s="2">
         <v>8000</v>
@@ -8500,7 +8526,7 @@
         <v>1000</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K16" s="9">
         <v>2000</v>
@@ -8508,11 +8534,8 @@
       <c r="L16" s="9">
         <v>2500</v>
       </c>
-      <c r="P16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>18</v>
       </c>
@@ -8520,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D17" s="2">
         <v>14</v>
@@ -8532,7 +8555,7 @@
         <v>174</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H17" s="2">
         <v>8000</v>
@@ -8541,7 +8564,7 @@
         <v>1000</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K17" s="9">
         <v>2000</v>
@@ -8549,11 +8572,8 @@
       <c r="L17" s="9">
         <v>2500</v>
       </c>
-      <c r="P17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>19</v>
       </c>
@@ -8561,7 +8581,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D18" s="2">
         <v>15</v>
@@ -8573,7 +8593,7 @@
         <v>175</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H18" s="2">
         <v>8000</v>
@@ -8582,7 +8602,7 @@
         <v>1000</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="K18" s="9">
         <v>2000</v>
@@ -8590,31 +8610,28 @@
       <c r="L18" s="9">
         <v>2500</v>
       </c>
-      <c r="P18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D19" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="H19" s="2">
         <v>8000</v>
@@ -8623,7 +8640,7 @@
         <v>1000</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="K19" s="9">
         <v>2000</v>
@@ -8631,31 +8648,28 @@
       <c r="L19" s="9">
         <v>2500</v>
       </c>
-      <c r="P19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="H20" s="2">
         <v>8000</v>
@@ -8664,7 +8678,7 @@
         <v>1000</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="K20" s="9">
         <v>2000</v>
@@ -8672,31 +8686,28 @@
       <c r="L20" s="9">
         <v>2500</v>
       </c>
-      <c r="P20" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D21" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="H21" s="2">
         <v>8000</v>
@@ -8705,7 +8716,7 @@
         <v>1000</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="K21" s="9">
         <v>2000</v>
@@ -8713,31 +8724,28 @@
       <c r="L21" s="9">
         <v>2500</v>
       </c>
-      <c r="P21" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D22" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="H22" s="2">
         <v>8000</v>
@@ -8746,7 +8754,7 @@
         <v>1000</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="K22" s="9">
         <v>2000</v>
@@ -8754,31 +8762,28 @@
       <c r="L22" s="9">
         <v>2500</v>
       </c>
-      <c r="P22" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="H23" s="2">
         <v>8000</v>
@@ -8787,7 +8792,7 @@
         <v>1000</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="K23" s="9">
         <v>2000</v>
@@ -8795,31 +8800,28 @@
       <c r="L23" s="9">
         <v>2500</v>
       </c>
-      <c r="P23" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D24" s="2">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="H24" s="2">
         <v>8000</v>
@@ -8828,7 +8830,7 @@
         <v>1000</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="K24" s="9">
         <v>2000</v>
@@ -8836,31 +8838,28 @@
       <c r="L24" s="9">
         <v>2500</v>
       </c>
-      <c r="P24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H25" s="2">
         <v>8000</v>
@@ -8869,7 +8868,7 @@
         <v>1000</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K25" s="9">
         <v>2000</v>
@@ -8877,31 +8876,28 @@
       <c r="L25" s="9">
         <v>2500</v>
       </c>
-      <c r="P25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H26" s="2">
         <v>8000</v>
@@ -8910,7 +8906,7 @@
         <v>1000</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K26" s="9">
         <v>2000</v>
@@ -8918,31 +8914,28 @@
       <c r="L26" s="9">
         <v>2500</v>
       </c>
-      <c r="P26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D27" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H27" s="2">
         <v>8000</v>
@@ -8951,7 +8944,7 @@
         <v>1000</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K27" s="9">
         <v>2000</v>
@@ -8959,31 +8952,28 @@
       <c r="L27" s="9">
         <v>2500</v>
       </c>
-      <c r="P27" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D28" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H28" s="2">
         <v>8000</v>
@@ -8992,7 +8982,7 @@
         <v>1000</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K28" s="9">
         <v>2000</v>
@@ -9000,31 +8990,28 @@
       <c r="L28" s="9">
         <v>2500</v>
       </c>
-      <c r="P28" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D29" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E29" s="2">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H29" s="2">
         <v>8000</v>
@@ -9033,7 +9020,7 @@
         <v>1000</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K29" s="9">
         <v>2000</v>
@@ -9041,31 +9028,28 @@
       <c r="L29" s="9">
         <v>2500</v>
       </c>
-      <c r="P29" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D30" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H30" s="2">
         <v>8000</v>
@@ -9074,7 +9058,7 @@
         <v>1000</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K30" s="9">
         <v>2000</v>
@@ -9082,31 +9066,28 @@
       <c r="L30" s="9">
         <v>2500</v>
       </c>
-      <c r="P30" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="2">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2">
+        <v>100</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="2">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2">
-        <v>700</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H31" s="2">
         <v>8000</v>
@@ -9115,7 +9096,7 @@
         <v>1000</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K31" s="9">
         <v>2000</v>
@@ -9123,31 +9104,28 @@
       <c r="L31" s="9">
         <v>2500</v>
       </c>
-      <c r="P31" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D32" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H32" s="2">
         <v>8000</v>
@@ -9156,7 +9134,7 @@
         <v>1000</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K32" s="9">
         <v>2000</v>
@@ -9164,31 +9142,28 @@
       <c r="L32" s="9">
         <v>2500</v>
       </c>
-      <c r="P32" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D33" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H33" s="2">
         <v>8000</v>
@@ -9197,7 +9172,7 @@
         <v>1000</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K33" s="9">
         <v>2000</v>
@@ -9205,31 +9180,28 @@
       <c r="L33" s="9">
         <v>2500</v>
       </c>
-      <c r="P33" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D34" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="H34" s="2">
         <v>8000</v>
@@ -9238,7 +9210,7 @@
         <v>1000</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="K34" s="9">
         <v>2000</v>
@@ -9246,31 +9218,28 @@
       <c r="L34" s="9">
         <v>2500</v>
       </c>
-      <c r="P34" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D35" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="H35" s="2">
         <v>8000</v>
@@ -9279,7 +9248,7 @@
         <v>1000</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="K35" s="9">
         <v>2000</v>
@@ -9287,31 +9256,28 @@
       <c r="L35" s="9">
         <v>2500</v>
       </c>
-      <c r="P35" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D36" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="H36" s="2">
         <v>8000</v>
@@ -9320,7 +9286,7 @@
         <v>1000</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="K36" s="9">
         <v>2000</v>
@@ -9328,31 +9294,28 @@
       <c r="L36" s="9">
         <v>2500</v>
       </c>
-      <c r="P36" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D37" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="H37" s="2">
         <v>8000</v>
@@ -9361,7 +9324,7 @@
         <v>1000</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="K37" s="9">
         <v>2000</v>
@@ -9369,31 +9332,28 @@
       <c r="L37" s="9">
         <v>2500</v>
       </c>
-      <c r="P37" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D38" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E38" s="2">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="H38" s="2">
         <v>8000</v>
@@ -9402,7 +9362,7 @@
         <v>1000</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="K38" s="9">
         <v>2000</v>
@@ -9410,31 +9370,28 @@
       <c r="L38" s="9">
         <v>2500</v>
       </c>
-      <c r="P38" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D39" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E39" s="2">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="H39" s="2">
         <v>8000</v>
@@ -9443,7 +9400,7 @@
         <v>1000</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="K39" s="9">
         <v>2000</v>
@@ -9451,31 +9408,28 @@
       <c r="L39" s="9">
         <v>2500</v>
       </c>
-      <c r="P39" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D40" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="H40" s="2">
         <v>8000</v>
@@ -9484,7 +9438,7 @@
         <v>1000</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="K40" s="9">
         <v>2000</v>
@@ -9492,31 +9446,28 @@
       <c r="L40" s="9">
         <v>2500</v>
       </c>
-      <c r="P40" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B41" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D41" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="H41" s="2">
         <v>8000</v>
@@ -9525,7 +9476,7 @@
         <v>1000</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="K41" s="9">
         <v>2000</v>
@@ -9533,31 +9484,28 @@
       <c r="L41" s="9">
         <v>2500</v>
       </c>
-      <c r="P41" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D42" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2">
-        <v>200</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>179</v>
+        <v>700</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="H42" s="2">
         <v>8000</v>
@@ -9566,7 +9514,7 @@
         <v>1000</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="K42" s="9">
         <v>2000</v>
@@ -9574,31 +9522,28 @@
       <c r="L42" s="9">
         <v>2500</v>
       </c>
-      <c r="P42" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D43" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E43" s="2">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="H43" s="2">
         <v>8000</v>
@@ -9607,7 +9552,7 @@
         <v>1000</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="K43" s="9">
         <v>2000</v>
@@ -9615,31 +9560,28 @@
       <c r="L43" s="9">
         <v>2500</v>
       </c>
-      <c r="P43" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B44" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D44" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E44" s="2">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="H44" s="2">
         <v>8000</v>
@@ -9648,7 +9590,7 @@
         <v>1000</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="K44" s="9">
         <v>2000</v>
@@ -9656,31 +9598,28 @@
       <c r="L44" s="9">
         <v>2500</v>
       </c>
-      <c r="P44" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D45" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E45" s="2">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="H45" s="2">
         <v>8000</v>
@@ -9689,7 +9628,7 @@
         <v>1000</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="K45" s="9">
         <v>2000</v>
@@ -9697,31 +9636,28 @@
       <c r="L45" s="9">
         <v>2500</v>
       </c>
-      <c r="P45" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" s="2">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
-        <v>600</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="H46" s="2">
         <v>8000</v>
@@ -9730,7 +9666,7 @@
         <v>1000</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="K46" s="9">
         <v>2000</v>
@@ -9739,27 +9675,27 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2">
         <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D47" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E47" s="2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="H47" s="2">
         <v>8000</v>
@@ -9768,7 +9704,7 @@
         <v>1000</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="K47" s="9">
         <v>2000</v>
@@ -9777,27 +9713,27 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B48" s="2">
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D48" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E48" s="2">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="H48" s="2">
         <v>8000</v>
@@ -9806,7 +9742,7 @@
         <v>1000</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="K48" s="9">
         <v>2000</v>
@@ -9815,688 +9751,312 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>54</v>
-      </c>
-      <c r="B49" s="2">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D49" s="2">
-        <v>4</v>
-      </c>
-      <c r="E49" s="2">
-        <v>600</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G49" s="2" t="s">
+    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P56" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P57" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P58" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P59" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P60" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P61" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P62" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P63" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P64" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="65" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P65" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="66" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P66" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P67" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P68" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q68" t="s">
         <v>352</v>
       </c>
-      <c r="H49" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I49" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J49" s="2" t="s">
+    </row>
+    <row r="69" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P69" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q69" t="s">
         <v>353</v>
       </c>
-      <c r="K49" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L49" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>55</v>
-      </c>
-      <c r="B50" s="2">
-        <v>3</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D50" s="2">
-        <v>5</v>
-      </c>
-      <c r="E50" s="2">
-        <v>700</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="2" t="s">
+    </row>
+    <row r="70" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P70" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q70" t="s">
         <v>354</v>
       </c>
-      <c r="H50" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I50" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J50" s="2" t="s">
+    </row>
+    <row r="71" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P71" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q71" t="s">
         <v>355</v>
       </c>
-      <c r="K50" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L50" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>56</v>
-      </c>
-      <c r="B51" s="2">
-        <v>3</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D51" s="2">
-        <v>6</v>
-      </c>
-      <c r="E51" s="2">
-        <v>700</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" s="2" t="s">
+    </row>
+    <row r="72" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P72" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q72" t="s">
         <v>356</v>
       </c>
-      <c r="H51" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I51" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J51" s="2" t="s">
+    </row>
+    <row r="73" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P73" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q73" t="s">
         <v>357</v>
       </c>
-      <c r="K51" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L51" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>57</v>
-      </c>
-      <c r="B52" s="2">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="2">
-        <v>7</v>
-      </c>
-      <c r="E52" s="2">
-        <v>700</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G52" s="2" t="s">
+    </row>
+    <row r="74" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P74" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q74" t="s">
         <v>358</v>
       </c>
-      <c r="H52" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I52" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J52" s="2" t="s">
+    </row>
+    <row r="75" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P75" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q75" t="s">
         <v>359</v>
       </c>
-      <c r="K52" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L52" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>58</v>
-      </c>
-      <c r="B53" s="2">
-        <v>3</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" s="2">
-        <v>8</v>
-      </c>
-      <c r="E53" s="2">
-        <v>700</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" s="2" t="s">
+    </row>
+    <row r="76" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P76" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q76" t="s">
         <v>360</v>
       </c>
-      <c r="H53" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I53" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J53" s="2" t="s">
+    </row>
+    <row r="77" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P77" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q77" t="s">
         <v>361</v>
       </c>
-      <c r="K53" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L53" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>59</v>
-      </c>
-      <c r="B54" s="2">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D54" s="2">
-        <v>9</v>
-      </c>
-      <c r="E54" s="2">
-        <v>700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G54" s="2" t="s">
+    </row>
+    <row r="78" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P78" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q78" t="s">
         <v>362</v>
       </c>
-      <c r="H54" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I54" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J54" s="2" t="s">
+    </row>
+    <row r="79" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P79" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q79" t="s">
         <v>363</v>
       </c>
-      <c r="K54" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L54" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>60</v>
-      </c>
-      <c r="B55" s="2">
-        <v>3</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="2">
-        <v>10</v>
-      </c>
-      <c r="E55" s="2">
-        <v>800</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="H55" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I55" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K55" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L55" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>61</v>
-      </c>
-      <c r="B56" s="2">
-        <v>3</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" s="2">
-        <v>11</v>
-      </c>
-      <c r="E56" s="2">
-        <v>800</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G56" s="2" t="s">
+    </row>
+    <row r="80" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P80" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P81" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="82" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P82" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q82" t="s">
         <v>366</v>
       </c>
-      <c r="H56" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I56" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J56" s="2" t="s">
+    </row>
+    <row r="83" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P83" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q83" t="s">
         <v>367</v>
-      </c>
-      <c r="K56" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L56" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>62</v>
-      </c>
-      <c r="B57" s="2">
-        <v>3</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="2">
-        <v>12</v>
-      </c>
-      <c r="E57" s="2">
-        <v>800</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H57" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I57" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="K57" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L57" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>67</v>
-      </c>
-      <c r="B58" s="2">
-        <v>3</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58" s="2">
-        <v>13</v>
-      </c>
-      <c r="E58" s="2">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H58" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I58" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="K58" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L58" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>68</v>
-      </c>
-      <c r="B59" s="2">
-        <v>3</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D59" s="2">
-        <v>14</v>
-      </c>
-      <c r="E59" s="2">
-        <v>200</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H59" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="K59" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L59" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>69</v>
-      </c>
-      <c r="B60" s="2">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="2">
-        <v>15</v>
-      </c>
-      <c r="E60" s="2">
-        <v>200</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="H60" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I60" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="K60" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L60" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>70</v>
-      </c>
-      <c r="B61" s="2">
-        <v>3</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" s="2">
-        <v>16</v>
-      </c>
-      <c r="E61" s="2">
-        <v>200</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H61" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I61" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="K61" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L61" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>71</v>
-      </c>
-      <c r="B62" s="2">
-        <v>3</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D62" s="2">
-        <v>17</v>
-      </c>
-      <c r="E62" s="2">
-        <v>200</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H62" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I62" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="K62" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L62" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>72</v>
-      </c>
-      <c r="B63" s="2">
-        <v>3</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="2">
-        <v>18</v>
-      </c>
-      <c r="E63" s="2">
-        <v>200</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H63" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I63" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K63" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L63" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>73</v>
-      </c>
-      <c r="B64" s="2">
-        <v>3</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" s="2">
-        <v>19</v>
-      </c>
-      <c r="E64" s="2">
-        <v>200</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H64" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I64" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="K64" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L64" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>74</v>
-      </c>
-      <c r="B65" s="2">
-        <v>3</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="2">
-        <v>20</v>
-      </c>
-      <c r="E65" s="2">
-        <v>200</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H65" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I65" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="K65" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L65" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>75</v>
-      </c>
-      <c r="B66" s="2">
-        <v>3</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="2">
-        <v>21</v>
-      </c>
-      <c r="E66" s="2">
-        <v>200</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H66" s="2">
-        <v>8000</v>
-      </c>
-      <c r="I66" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="K66" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L66" s="9">
-        <v>2500</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1563,18 +1563,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>int:&lt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>普通</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1898,6 +1894,10 @@
   </si>
   <si>
     <t>高级阻挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4513,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4581,40 +4581,40 @@
         <v>268</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>325</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -4646,13 +4646,13 @@
         <v>293</v>
       </c>
       <c r="J2" t="s">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="L2" t="s">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="M2" t="s">
         <v>269</v>
@@ -4661,13 +4661,13 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P2" t="s">
         <v>283</v>
       </c>
       <c r="Q2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R2" t="s">
         <v>283</v>
@@ -4676,7 +4676,7 @@
         <v>283</v>
       </c>
       <c r="T2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U2" t="s">
         <v>283</v>
@@ -4685,7 +4685,7 @@
         <v>283</v>
       </c>
       <c r="W2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="X2" t="s">
         <v>283</v>
@@ -4694,7 +4694,7 @@
         <v>283</v>
       </c>
       <c r="Z2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
@@ -4741,40 +4741,40 @@
         <v>271</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4827,7 +4827,7 @@
         <v>5000</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R4" s="2">
         <v>5000</v>
@@ -4836,7 +4836,7 @@
         <v>12500</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U4" s="2">
         <v>12500</v>
@@ -4845,7 +4845,7 @@
         <v>17500</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X4" s="2">
         <v>17500</v>
@@ -4854,7 +4854,7 @@
         <v>30000</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4907,7 +4907,7 @@
         <v>5000</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R5" s="2">
         <v>5000</v>
@@ -4916,7 +4916,7 @@
         <v>15000</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U5" s="2">
         <v>15000</v>
@@ -4925,7 +4925,7 @@
         <v>22500</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X5" s="2">
         <v>22500</v>
@@ -4934,7 +4934,7 @@
         <v>35000</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4987,7 +4987,7 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R6" s="2">
         <v>5000</v>
@@ -4996,7 +4996,7 @@
         <v>17500</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U6" s="2">
         <v>17500</v>
@@ -5005,7 +5005,7 @@
         <v>25000</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X6" s="2">
         <v>25000</v>
@@ -5014,7 +5014,7 @@
         <v>40000</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7912,8 +7912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7976,7 +7976,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
         <v>184</v>
@@ -7991,7 +7991,7 @@
         <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>308</v>
+        <v>399</v>
       </c>
       <c r="J2" t="s">
         <v>185</v>
@@ -8000,7 +8000,7 @@
         <v>298</v>
       </c>
       <c r="L2" t="s">
-        <v>308</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -8061,7 +8061,7 @@
         <v>164</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H4" s="2">
         <v>8000</v>
@@ -8070,7 +8070,7 @@
         <v>1000</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K4" s="9">
         <v>2000</v>
@@ -8099,7 +8099,7 @@
         <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H5" s="2">
         <v>8000</v>
@@ -8108,7 +8108,7 @@
         <v>1000</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K5" s="9">
         <v>2000</v>
@@ -8137,7 +8137,7 @@
         <v>165</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H6" s="2">
         <v>8000</v>
@@ -8146,7 +8146,7 @@
         <v>1000</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K6" s="9">
         <v>2000</v>
@@ -8175,7 +8175,7 @@
         <v>166</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H7" s="2">
         <v>8000</v>
@@ -8184,7 +8184,7 @@
         <v>1000</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K7" s="9">
         <v>2000</v>
@@ -8213,7 +8213,7 @@
         <v>167</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H8" s="2">
         <v>8000</v>
@@ -8222,7 +8222,7 @@
         <v>1000</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K8" s="9">
         <v>2000</v>
@@ -8251,7 +8251,7 @@
         <v>168</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H9" s="2">
         <v>8000</v>
@@ -8260,7 +8260,7 @@
         <v>1000</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K9" s="9">
         <v>2000</v>
@@ -8289,7 +8289,7 @@
         <v>169</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H10" s="2">
         <v>8000</v>
@@ -8298,7 +8298,7 @@
         <v>1000</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K10" s="9">
         <v>2000</v>
@@ -8327,7 +8327,7 @@
         <v>170</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H11" s="2">
         <v>8000</v>
@@ -8336,7 +8336,7 @@
         <v>1000</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K11" s="9">
         <v>2000</v>
@@ -8365,7 +8365,7 @@
         <v>171</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H12" s="2">
         <v>8000</v>
@@ -8374,7 +8374,7 @@
         <v>1000</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K12" s="9">
         <v>2000</v>
@@ -8403,7 +8403,7 @@
         <v>186</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H13" s="2">
         <v>8000</v>
@@ -8412,7 +8412,7 @@
         <v>1000</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K13" s="9">
         <v>2000</v>
@@ -8441,7 +8441,7 @@
         <v>172</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H14" s="2">
         <v>8000</v>
@@ -8450,7 +8450,7 @@
         <v>1000</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K14" s="9">
         <v>2000</v>
@@ -8479,7 +8479,7 @@
         <v>173</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H15" s="2">
         <v>8000</v>
@@ -8488,7 +8488,7 @@
         <v>1000</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K15" s="9">
         <v>2000</v>
@@ -8517,7 +8517,7 @@
         <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H16" s="2">
         <v>8000</v>
@@ -8526,7 +8526,7 @@
         <v>1000</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K16" s="9">
         <v>2000</v>
@@ -8555,7 +8555,7 @@
         <v>174</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H17" s="2">
         <v>8000</v>
@@ -8564,7 +8564,7 @@
         <v>1000</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K17" s="9">
         <v>2000</v>
@@ -8593,7 +8593,7 @@
         <v>175</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H18" s="2">
         <v>8000</v>
@@ -8602,7 +8602,7 @@
         <v>1000</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K18" s="9">
         <v>2000</v>
@@ -8631,7 +8631,7 @@
         <v>164</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H19" s="2">
         <v>8000</v>
@@ -8640,7 +8640,7 @@
         <v>1000</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K19" s="9">
         <v>2000</v>
@@ -8669,7 +8669,7 @@
         <v>176</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H20" s="2">
         <v>8000</v>
@@ -8678,7 +8678,7 @@
         <v>1000</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K20" s="9">
         <v>2000</v>
@@ -8707,7 +8707,7 @@
         <v>165</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H21" s="2">
         <v>8000</v>
@@ -8716,7 +8716,7 @@
         <v>1000</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K21" s="9">
         <v>2000</v>
@@ -8745,7 +8745,7 @@
         <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H22" s="2">
         <v>8000</v>
@@ -8754,7 +8754,7 @@
         <v>1000</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K22" s="9">
         <v>2000</v>
@@ -8783,7 +8783,7 @@
         <v>167</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H23" s="2">
         <v>8000</v>
@@ -8792,7 +8792,7 @@
         <v>1000</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K23" s="9">
         <v>2000</v>
@@ -8821,7 +8821,7 @@
         <v>168</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H24" s="2">
         <v>8000</v>
@@ -8830,7 +8830,7 @@
         <v>1000</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K24" s="9">
         <v>2000</v>
@@ -8859,7 +8859,7 @@
         <v>169</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H25" s="2">
         <v>8000</v>
@@ -8868,7 +8868,7 @@
         <v>1000</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K25" s="9">
         <v>2000</v>
@@ -8897,7 +8897,7 @@
         <v>170</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H26" s="2">
         <v>8000</v>
@@ -8906,7 +8906,7 @@
         <v>1000</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K26" s="9">
         <v>2000</v>
@@ -8935,7 +8935,7 @@
         <v>171</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H27" s="2">
         <v>8000</v>
@@ -8944,7 +8944,7 @@
         <v>1000</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K27" s="9">
         <v>2000</v>
@@ -8973,7 +8973,7 @@
         <v>186</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H28" s="2">
         <v>8000</v>
@@ -8982,7 +8982,7 @@
         <v>1000</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K28" s="9">
         <v>2000</v>
@@ -9011,7 +9011,7 @@
         <v>172</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H29" s="2">
         <v>8000</v>
@@ -9020,7 +9020,7 @@
         <v>1000</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K29" s="9">
         <v>2000</v>
@@ -9049,7 +9049,7 @@
         <v>173</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H30" s="2">
         <v>8000</v>
@@ -9058,7 +9058,7 @@
         <v>1000</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K30" s="9">
         <v>2000</v>
@@ -9087,7 +9087,7 @@
         <v>187</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H31" s="2">
         <v>8000</v>
@@ -9096,7 +9096,7 @@
         <v>1000</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K31" s="9">
         <v>2000</v>
@@ -9125,7 +9125,7 @@
         <v>174</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H32" s="2">
         <v>8000</v>
@@ -9134,7 +9134,7 @@
         <v>1000</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K32" s="9">
         <v>2000</v>
@@ -9163,7 +9163,7 @@
         <v>175</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H33" s="2">
         <v>8000</v>
@@ -9172,7 +9172,7 @@
         <v>1000</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K33" s="9">
         <v>2000</v>
@@ -9201,7 +9201,7 @@
         <v>164</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H34" s="2">
         <v>8000</v>
@@ -9210,7 +9210,7 @@
         <v>1000</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K34" s="9">
         <v>2000</v>
@@ -9239,7 +9239,7 @@
         <v>176</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H35" s="2">
         <v>8000</v>
@@ -9248,7 +9248,7 @@
         <v>1000</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K35" s="9">
         <v>2000</v>
@@ -9277,7 +9277,7 @@
         <v>165</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H36" s="2">
         <v>8000</v>
@@ -9286,7 +9286,7 @@
         <v>1000</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K36" s="9">
         <v>2000</v>
@@ -9315,7 +9315,7 @@
         <v>166</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H37" s="2">
         <v>8000</v>
@@ -9324,7 +9324,7 @@
         <v>1000</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K37" s="9">
         <v>2000</v>
@@ -9353,7 +9353,7 @@
         <v>167</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H38" s="2">
         <v>8000</v>
@@ -9362,7 +9362,7 @@
         <v>1000</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K38" s="9">
         <v>2000</v>
@@ -9391,7 +9391,7 @@
         <v>168</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H39" s="2">
         <v>8000</v>
@@ -9400,7 +9400,7 @@
         <v>1000</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K39" s="9">
         <v>2000</v>
@@ -9429,7 +9429,7 @@
         <v>169</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H40" s="2">
         <v>8000</v>
@@ -9438,7 +9438,7 @@
         <v>1000</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K40" s="9">
         <v>2000</v>
@@ -9467,7 +9467,7 @@
         <v>170</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H41" s="2">
         <v>8000</v>
@@ -9476,7 +9476,7 @@
         <v>1000</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K41" s="9">
         <v>2000</v>
@@ -9505,7 +9505,7 @@
         <v>171</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H42" s="2">
         <v>8000</v>
@@ -9514,7 +9514,7 @@
         <v>1000</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K42" s="9">
         <v>2000</v>
@@ -9543,7 +9543,7 @@
         <v>186</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H43" s="2">
         <v>8000</v>
@@ -9552,7 +9552,7 @@
         <v>1000</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K43" s="9">
         <v>2000</v>
@@ -9581,7 +9581,7 @@
         <v>172</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H44" s="2">
         <v>8000</v>
@@ -9590,7 +9590,7 @@
         <v>1000</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K44" s="9">
         <v>2000</v>
@@ -9619,7 +9619,7 @@
         <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H45" s="2">
         <v>8000</v>
@@ -9628,7 +9628,7 @@
         <v>1000</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K45" s="9">
         <v>2000</v>
@@ -9657,7 +9657,7 @@
         <v>187</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H46" s="2">
         <v>8000</v>
@@ -9666,7 +9666,7 @@
         <v>1000</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K46" s="9">
         <v>2000</v>
@@ -9695,7 +9695,7 @@
         <v>174</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H47" s="2">
         <v>8000</v>
@@ -9704,7 +9704,7 @@
         <v>1000</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K47" s="9">
         <v>2000</v>
@@ -9733,7 +9733,7 @@
         <v>175</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H48" s="2">
         <v>8000</v>
@@ -9742,7 +9742,7 @@
         <v>1000</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K48" s="9">
         <v>2000</v>
@@ -9837,226 +9837,226 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q58" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q59" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Q60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P66" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P70" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q72" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P73" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q73" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q75" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P76" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q76" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="Q78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P80" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q80" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P82" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q82" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P83" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q83" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="395">
   <si>
     <t>sheet名</t>
   </si>
@@ -1531,22 +1531,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Skill[1].bs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill[2].bs</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1战力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2战力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>属性战力</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1894,10 +1878,6 @@
   </si>
   <si>
     <t>高级阻挡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4513,8 +4493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4566,13 +4546,13 @@
         <v>289</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>9</v>
@@ -4581,40 +4561,40 @@
         <v>268</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="W1" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -4661,13 +4641,13 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P2" t="s">
         <v>283</v>
       </c>
       <c r="Q2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="R2" t="s">
         <v>283</v>
@@ -4676,7 +4656,7 @@
         <v>283</v>
       </c>
       <c r="T2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="U2" t="s">
         <v>283</v>
@@ -4685,7 +4665,7 @@
         <v>283</v>
       </c>
       <c r="W2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="X2" t="s">
         <v>283</v>
@@ -4694,7 +4674,7 @@
         <v>283</v>
       </c>
       <c r="Z2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
@@ -4726,13 +4706,13 @@
         <v>296</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>270</v>
@@ -4741,40 +4721,40 @@
         <v>271</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4827,7 +4807,7 @@
         <v>5000</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R4" s="2">
         <v>5000</v>
@@ -4836,7 +4816,7 @@
         <v>12500</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="U4" s="2">
         <v>12500</v>
@@ -4845,7 +4825,7 @@
         <v>17500</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="X4" s="2">
         <v>17500</v>
@@ -4854,7 +4834,7 @@
         <v>30000</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4907,7 +4887,7 @@
         <v>5000</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R5" s="2">
         <v>5000</v>
@@ -4916,7 +4896,7 @@
         <v>15000</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="U5" s="2">
         <v>15000</v>
@@ -4925,7 +4905,7 @@
         <v>22500</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="X5" s="2">
         <v>22500</v>
@@ -4934,7 +4914,7 @@
         <v>35000</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4987,7 +4967,7 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R6" s="2">
         <v>5000</v>
@@ -4996,7 +4976,7 @@
         <v>17500</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="U6" s="2">
         <v>17500</v>
@@ -5005,7 +4985,7 @@
         <v>25000</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="X6" s="2">
         <v>25000</v>
@@ -5014,7 +4994,7 @@
         <v>40000</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7910,24 +7890,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="35.5" customWidth="1"/>
-    <col min="11" max="12" width="10.375" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
-    <col min="17" max="17" width="35.875" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="35.5" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -7953,19 +7933,13 @@
         <v>299</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -7976,7 +7950,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
         <v>184</v>
@@ -7991,19 +7965,13 @@
         <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>399</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K2" t="s">
         <v>298</v>
       </c>
-      <c r="L2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -8029,19 +7997,13 @@
         <v>160</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>302</v>
+        <v>161</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8061,25 +8023,19 @@
         <v>164</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H4" s="2">
         <v>8000</v>
       </c>
-      <c r="I4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K4" s="9">
+      <c r="I4" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J4" s="9">
         <v>2000</v>
       </c>
-      <c r="L4" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -8099,25 +8055,19 @@
         <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H5" s="2">
         <v>8000</v>
       </c>
-      <c r="I5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="I5" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J5" s="9">
         <v>2000</v>
       </c>
-      <c r="L5" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -8137,25 +8087,19 @@
         <v>165</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H6" s="2">
         <v>8000</v>
       </c>
-      <c r="I6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="K6" s="9">
+      <c r="I6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J6" s="9">
         <v>2000</v>
       </c>
-      <c r="L6" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -8175,25 +8119,19 @@
         <v>166</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H7" s="2">
         <v>8000</v>
       </c>
-      <c r="I7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="K7" s="9">
+      <c r="I7" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7" s="9">
         <v>2000</v>
       </c>
-      <c r="L7" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -8213,25 +8151,19 @@
         <v>167</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H8" s="2">
         <v>8000</v>
       </c>
-      <c r="I8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K8" s="9">
+      <c r="I8" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J8" s="9">
         <v>2000</v>
       </c>
-      <c r="L8" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -8251,25 +8183,19 @@
         <v>168</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H9" s="2">
         <v>8000</v>
       </c>
-      <c r="I9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="I9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J9" s="9">
         <v>2000</v>
       </c>
-      <c r="L9" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -8289,25 +8215,19 @@
         <v>169</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H10" s="2">
         <v>8000</v>
       </c>
-      <c r="I10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="K10" s="9">
+      <c r="I10" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J10" s="9">
         <v>2000</v>
       </c>
-      <c r="L10" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -8327,25 +8247,19 @@
         <v>170</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H11" s="2">
         <v>8000</v>
       </c>
-      <c r="I11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K11" s="9">
+      <c r="I11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" s="9">
         <v>2000</v>
       </c>
-      <c r="L11" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -8365,25 +8279,19 @@
         <v>171</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H12" s="2">
         <v>8000</v>
       </c>
-      <c r="I12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="I12" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J12" s="9">
         <v>2000</v>
       </c>
-      <c r="L12" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -8403,25 +8311,19 @@
         <v>186</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H13" s="2">
         <v>8000</v>
       </c>
-      <c r="I13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="I13" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J13" s="9">
         <v>2000</v>
       </c>
-      <c r="L13" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -8441,25 +8343,19 @@
         <v>172</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H14" s="2">
         <v>8000</v>
       </c>
-      <c r="I14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="I14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J14" s="9">
         <v>2000</v>
       </c>
-      <c r="L14" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -8479,25 +8375,19 @@
         <v>173</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H15" s="2">
         <v>8000</v>
       </c>
-      <c r="I15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="I15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J15" s="9">
         <v>2000</v>
       </c>
-      <c r="L15" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -8517,25 +8407,19 @@
         <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H16" s="2">
         <v>8000</v>
       </c>
-      <c r="I16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="I16" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J16" s="9">
         <v>2000</v>
       </c>
-      <c r="L16" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>18</v>
       </c>
@@ -8555,25 +8439,19 @@
         <v>174</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H17" s="2">
         <v>8000</v>
       </c>
-      <c r="I17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="K17" s="9">
+      <c r="I17" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J17" s="9">
         <v>2000</v>
       </c>
-      <c r="L17" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>19</v>
       </c>
@@ -8593,25 +8471,19 @@
         <v>175</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H18" s="2">
         <v>8000</v>
       </c>
-      <c r="I18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K18" s="9">
+      <c r="I18" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J18" s="9">
         <v>2000</v>
       </c>
-      <c r="L18" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>26</v>
       </c>
@@ -8631,25 +8503,19 @@
         <v>164</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H19" s="2">
         <v>8000</v>
       </c>
-      <c r="I19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K19" s="9">
+      <c r="I19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J19" s="9">
         <v>2000</v>
       </c>
-      <c r="L19" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>27</v>
       </c>
@@ -8669,25 +8535,19 @@
         <v>176</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H20" s="2">
         <v>8000</v>
       </c>
-      <c r="I20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="I20" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J20" s="9">
         <v>2000</v>
       </c>
-      <c r="L20" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>28</v>
       </c>
@@ -8707,25 +8567,19 @@
         <v>165</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H21" s="2">
         <v>8000</v>
       </c>
-      <c r="I21" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="K21" s="9">
+      <c r="I21" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J21" s="9">
         <v>2000</v>
       </c>
-      <c r="L21" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>29</v>
       </c>
@@ -8745,25 +8599,19 @@
         <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H22" s="2">
         <v>8000</v>
       </c>
-      <c r="I22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="K22" s="9">
+      <c r="I22" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J22" s="9">
         <v>2000</v>
       </c>
-      <c r="L22" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>30</v>
       </c>
@@ -8783,25 +8631,19 @@
         <v>167</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H23" s="2">
         <v>8000</v>
       </c>
-      <c r="I23" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="I23" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J23" s="9">
         <v>2000</v>
       </c>
-      <c r="L23" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>31</v>
       </c>
@@ -8821,25 +8663,19 @@
         <v>168</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H24" s="2">
         <v>8000</v>
       </c>
-      <c r="I24" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="K24" s="9">
+      <c r="I24" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J24" s="9">
         <v>2000</v>
       </c>
-      <c r="L24" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>32</v>
       </c>
@@ -8859,25 +8695,19 @@
         <v>169</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H25" s="2">
         <v>8000</v>
       </c>
-      <c r="I25" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="K25" s="9">
+      <c r="I25" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J25" s="9">
         <v>2000</v>
       </c>
-      <c r="L25" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>33</v>
       </c>
@@ -8897,25 +8727,19 @@
         <v>170</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H26" s="2">
         <v>8000</v>
       </c>
-      <c r="I26" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K26" s="9">
+      <c r="I26" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J26" s="9">
         <v>2000</v>
       </c>
-      <c r="L26" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>34</v>
       </c>
@@ -8935,25 +8759,19 @@
         <v>171</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H27" s="2">
         <v>8000</v>
       </c>
-      <c r="I27" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="I27" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J27" s="9">
         <v>2000</v>
       </c>
-      <c r="L27" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>35</v>
       </c>
@@ -8973,25 +8791,19 @@
         <v>186</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H28" s="2">
         <v>8000</v>
       </c>
-      <c r="I28" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K28" s="9">
+      <c r="I28" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J28" s="9">
         <v>2000</v>
       </c>
-      <c r="L28" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>36</v>
       </c>
@@ -9011,25 +8823,19 @@
         <v>172</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H29" s="2">
         <v>8000</v>
       </c>
-      <c r="I29" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K29" s="9">
+      <c r="I29" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J29" s="9">
         <v>2000</v>
       </c>
-      <c r="L29" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>37</v>
       </c>
@@ -9049,25 +8855,19 @@
         <v>173</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H30" s="2">
         <v>8000</v>
       </c>
-      <c r="I30" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K30" s="9">
+      <c r="I30" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J30" s="9">
         <v>2000</v>
       </c>
-      <c r="L30" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42</v>
       </c>
@@ -9087,25 +8887,19 @@
         <v>187</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H31" s="2">
         <v>8000</v>
       </c>
-      <c r="I31" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K31" s="9">
+      <c r="I31" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J31" s="9">
         <v>2000</v>
       </c>
-      <c r="L31" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43</v>
       </c>
@@ -9125,25 +8919,19 @@
         <v>174</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H32" s="2">
         <v>8000</v>
       </c>
-      <c r="I32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="K32" s="9">
+      <c r="I32" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J32" s="9">
         <v>2000</v>
       </c>
-      <c r="L32" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44</v>
       </c>
@@ -9163,25 +8951,19 @@
         <v>175</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H33" s="2">
         <v>8000</v>
       </c>
-      <c r="I33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K33" s="9">
+      <c r="I33" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J33" s="9">
         <v>2000</v>
       </c>
-      <c r="L33" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>51</v>
       </c>
@@ -9201,25 +8983,19 @@
         <v>164</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H34" s="2">
         <v>8000</v>
       </c>
-      <c r="I34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K34" s="9">
+      <c r="I34" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J34" s="9">
         <v>2000</v>
       </c>
-      <c r="L34" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>52</v>
       </c>
@@ -9239,25 +9015,19 @@
         <v>176</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H35" s="2">
         <v>8000</v>
       </c>
-      <c r="I35" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="K35" s="9">
+      <c r="I35" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J35" s="9">
         <v>2000</v>
       </c>
-      <c r="L35" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>53</v>
       </c>
@@ -9277,25 +9047,19 @@
         <v>165</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H36" s="2">
         <v>8000</v>
       </c>
-      <c r="I36" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="K36" s="9">
+      <c r="I36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="J36" s="9">
         <v>2000</v>
       </c>
-      <c r="L36" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>54</v>
       </c>
@@ -9315,25 +9079,19 @@
         <v>166</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H37" s="2">
         <v>8000</v>
       </c>
-      <c r="I37" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="K37" s="9">
+      <c r="I37" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J37" s="9">
         <v>2000</v>
       </c>
-      <c r="L37" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>55</v>
       </c>
@@ -9353,25 +9111,19 @@
         <v>167</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H38" s="2">
         <v>8000</v>
       </c>
-      <c r="I38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K38" s="9">
+      <c r="I38" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J38" s="9">
         <v>2000</v>
       </c>
-      <c r="L38" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>56</v>
       </c>
@@ -9391,25 +9143,19 @@
         <v>168</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H39" s="2">
         <v>8000</v>
       </c>
-      <c r="I39" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="K39" s="9">
+      <c r="I39" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J39" s="9">
         <v>2000</v>
       </c>
-      <c r="L39" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>57</v>
       </c>
@@ -9429,25 +9175,19 @@
         <v>169</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H40" s="2">
         <v>8000</v>
       </c>
-      <c r="I40" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="K40" s="9">
+      <c r="I40" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J40" s="9">
         <v>2000</v>
       </c>
-      <c r="L40" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>58</v>
       </c>
@@ -9467,25 +9207,19 @@
         <v>170</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H41" s="2">
         <v>8000</v>
       </c>
-      <c r="I41" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="K41" s="9">
+      <c r="I41" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J41" s="9">
         <v>2000</v>
       </c>
-      <c r="L41" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>59</v>
       </c>
@@ -9505,25 +9239,19 @@
         <v>171</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H42" s="2">
         <v>8000</v>
       </c>
-      <c r="I42" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K42" s="9">
+      <c r="I42" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J42" s="9">
         <v>2000</v>
       </c>
-      <c r="L42" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>60</v>
       </c>
@@ -9543,25 +9271,19 @@
         <v>186</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H43" s="2">
         <v>8000</v>
       </c>
-      <c r="I43" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="K43" s="9">
+      <c r="I43" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J43" s="9">
         <v>2000</v>
       </c>
-      <c r="L43" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>61</v>
       </c>
@@ -9581,25 +9303,19 @@
         <v>172</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H44" s="2">
         <v>8000</v>
       </c>
-      <c r="I44" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K44" s="9">
+      <c r="I44" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J44" s="9">
         <v>2000</v>
       </c>
-      <c r="L44" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>62</v>
       </c>
@@ -9619,25 +9335,19 @@
         <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H45" s="2">
         <v>8000</v>
       </c>
-      <c r="I45" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="K45" s="9">
+      <c r="I45" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J45" s="9">
         <v>2000</v>
       </c>
-      <c r="L45" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>67</v>
       </c>
@@ -9657,25 +9367,19 @@
         <v>187</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H46" s="2">
         <v>8000</v>
       </c>
-      <c r="I46" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K46" s="9">
+      <c r="I46" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="J46" s="9">
         <v>2000</v>
       </c>
-      <c r="L46" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>68</v>
       </c>
@@ -9695,25 +9399,19 @@
         <v>174</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H47" s="2">
         <v>8000</v>
       </c>
-      <c r="I47" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="K47" s="9">
+      <c r="I47" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="J47" s="9">
         <v>2000</v>
       </c>
-      <c r="L47" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>69</v>
       </c>
@@ -9733,25 +9431,19 @@
         <v>175</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H48" s="2">
         <v>8000</v>
       </c>
-      <c r="I48" s="2">
-        <v>1000</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K48" s="9">
+      <c r="I48" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J48" s="9">
         <v>2000</v>
       </c>
-      <c r="L48" s="9">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
@@ -9761,11 +9453,9 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
@@ -9775,11 +9465,9 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
@@ -9789,11 +9477,9 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
@@ -9803,11 +9489,9 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
@@ -9817,11 +9501,9 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-    </row>
-    <row r="54" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
@@ -9831,232 +9513,230 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P56" t="s">
+      <c r="J54" s="9"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N56" t="s">
+        <v>365</v>
+      </c>
+      <c r="O56" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N57" t="s">
+        <v>366</v>
+      </c>
+      <c r="O57" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N59" t="s">
+        <v>368</v>
+      </c>
+      <c r="O59" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N60" t="s">
+        <v>389</v>
+      </c>
+      <c r="O60" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N61" t="s">
+        <v>390</v>
+      </c>
+      <c r="O61" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N62" t="s">
         <v>369</v>
       </c>
-      <c r="Q56" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P57" t="s">
+      <c r="O62" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N63" t="s">
         <v>370</v>
       </c>
-      <c r="Q57" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P58" t="s">
+      <c r="O63" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N64" t="s">
         <v>371</v>
       </c>
-      <c r="Q58" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P59" t="s">
+      <c r="O64" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N65" t="s">
         <v>372</v>
       </c>
-      <c r="Q59" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P60" t="s">
+      <c r="O65" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N66" t="s">
+        <v>391</v>
+      </c>
+      <c r="O66" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="67" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>392</v>
+      </c>
+      <c r="O67" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="68" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N68" t="s">
         <v>393</v>
       </c>
-      <c r="Q60" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P61" t="s">
+      <c r="O68" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="69" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N69" t="s">
         <v>394</v>
       </c>
-      <c r="Q61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P62" t="s">
+      <c r="O69" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N70" t="s">
         <v>373</v>
       </c>
-      <c r="Q62" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P63" t="s">
+      <c r="O70" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="71" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N71" t="s">
         <v>374</v>
       </c>
-      <c r="Q63" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P64" t="s">
+      <c r="O71" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N72" t="s">
         <v>375</v>
       </c>
-      <c r="Q64" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="65" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P65" t="s">
+      <c r="O72" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="73" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N73" t="s">
         <v>376</v>
       </c>
-      <c r="Q65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="66" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P66" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P67" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P68" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="69" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P69" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q69" t="s">
+      <c r="O73" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P70" t="s">
+    <row r="74" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N74" t="s">
+        <v>387</v>
+      </c>
+      <c r="O74" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="75" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N75" t="s">
+        <v>388</v>
+      </c>
+      <c r="O75" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="76" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N76" t="s">
+        <v>385</v>
+      </c>
+      <c r="O76" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N77" t="s">
+        <v>386</v>
+      </c>
+      <c r="O77" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N78" t="s">
         <v>377</v>
       </c>
-      <c r="Q70" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P71" t="s">
+      <c r="O78" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N79" t="s">
         <v>378</v>
       </c>
-      <c r="Q71" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P72" t="s">
+      <c r="O79" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="80" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N80" t="s">
+        <v>381</v>
+      </c>
+      <c r="O80" t="s">
         <v>379</v>
       </c>
-      <c r="Q72" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="73" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P73" t="s">
+    </row>
+    <row r="81" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N81" t="s">
+        <v>382</v>
+      </c>
+      <c r="O81" t="s">
         <v>380</v>
       </c>
-      <c r="Q73" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="74" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P74" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="75" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P75" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="76" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P76" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="77" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P77" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="78" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P78" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q78" t="s">
+    </row>
+    <row r="82" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N82" t="s">
+        <v>383</v>
+      </c>
+      <c r="O82" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="79" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P79" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q79" t="s">
+    <row r="83" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N83" t="s">
+        <v>384</v>
+      </c>
+      <c r="O83" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="80" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P80" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="81" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P81" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="82" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P82" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="83" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P83" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1419,10 +1419,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>洗练瓶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>天赋随机组</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1878,6 +1874,10 @@
   </si>
   <si>
     <t>高级阻挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗炼瓶</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2532,18 +2532,18 @@
     </row>
     <row r="6" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>1</v>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>64</v>
@@ -2666,11 +2666,11 @@
     </row>
     <row r="13" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>64</v>
@@ -2818,7 +2818,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -2842,7 +2842,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" s="2">
         <v>5</v>
@@ -2870,7 +2870,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F6" s="2">
         <v>5</v>
@@ -2898,7 +2898,7 @@
         <v>76</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F7" s="2">
         <v>7</v>
@@ -2922,7 +2922,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F8" s="2">
         <v>7</v>
@@ -2950,7 +2950,7 @@
         <v>78</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F9" s="2">
         <v>7</v>
@@ -2978,7 +2978,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
@@ -3002,7 +3002,7 @@
         <v>79</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -3030,7 +3030,7 @@
         <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F12" s="2">
         <v>10</v>
@@ -4493,8 +4493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4531,28 +4531,28 @@
         <v>261</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>262</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>263</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>9</v>
@@ -4561,40 +4561,40 @@
         <v>268</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -4611,19 +4611,19 @@
         <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
         <v>121</v>
       </c>
       <c r="G2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" t="s">
         <v>291</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>292</v>
-      </c>
-      <c r="I2" t="s">
-        <v>293</v>
       </c>
       <c r="J2" t="s">
         <v>121</v>
@@ -4641,40 +4641,40 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Y2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
@@ -4691,28 +4691,28 @@
         <v>265</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>266</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>267</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>270</v>
@@ -4721,40 +4721,40 @@
         <v>271</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4795,7 +4795,7 @@
         <v>20000</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
@@ -4807,7 +4807,7 @@
         <v>5000</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R4" s="2">
         <v>5000</v>
@@ -4816,7 +4816,7 @@
         <v>12500</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U4" s="2">
         <v>12500</v>
@@ -4825,7 +4825,7 @@
         <v>17500</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X4" s="2">
         <v>17500</v>
@@ -4834,7 +4834,7 @@
         <v>30000</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4875,7 +4875,7 @@
         <v>20000</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="N5" s="2">
         <v>2</v>
@@ -4887,7 +4887,7 @@
         <v>5000</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R5" s="2">
         <v>5000</v>
@@ -4896,7 +4896,7 @@
         <v>15000</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U5" s="2">
         <v>15000</v>
@@ -4905,7 +4905,7 @@
         <v>22500</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X5" s="2">
         <v>22500</v>
@@ -4914,7 +4914,7 @@
         <v>35000</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4955,7 +4955,7 @@
         <v>20000</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="N6" s="2">
         <v>3</v>
@@ -4967,7 +4967,7 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R6" s="2">
         <v>5000</v>
@@ -4976,7 +4976,7 @@
         <v>17500</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U6" s="2">
         <v>17500</v>
@@ -4985,7 +4985,7 @@
         <v>25000</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X6" s="2">
         <v>25000</v>
@@ -4994,7 +4994,7 @@
         <v>40000</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5115,13 +5115,13 @@
         <v>254</v>
       </c>
       <c r="M2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -5218,7 +5218,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -5324,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -5377,7 +5377,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -7892,7 +7892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -7930,7 +7930,7 @@
         <v>156</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>157</v>
@@ -7950,7 +7950,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
         <v>184</v>
@@ -7962,13 +7962,13 @@
         <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I2" t="s">
         <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -8023,13 +8023,13 @@
         <v>164</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H4" s="2">
         <v>8000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J4" s="9">
         <v>2000</v>
@@ -8055,13 +8055,13 @@
         <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H5" s="2">
         <v>8000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J5" s="9">
         <v>2000</v>
@@ -8087,13 +8087,13 @@
         <v>165</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H6" s="2">
         <v>8000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J6" s="9">
         <v>2000</v>
@@ -8119,13 +8119,13 @@
         <v>166</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H7" s="2">
         <v>8000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J7" s="9">
         <v>2000</v>
@@ -8151,13 +8151,13 @@
         <v>167</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H8" s="2">
         <v>8000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J8" s="9">
         <v>2000</v>
@@ -8183,13 +8183,13 @@
         <v>168</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H9" s="2">
         <v>8000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J9" s="9">
         <v>2000</v>
@@ -8215,13 +8215,13 @@
         <v>169</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H10" s="2">
         <v>8000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J10" s="9">
         <v>2000</v>
@@ -8247,13 +8247,13 @@
         <v>170</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H11" s="2">
         <v>8000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J11" s="9">
         <v>2000</v>
@@ -8279,13 +8279,13 @@
         <v>171</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H12" s="2">
         <v>8000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J12" s="9">
         <v>2000</v>
@@ -8311,13 +8311,13 @@
         <v>186</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H13" s="2">
         <v>8000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J13" s="9">
         <v>2000</v>
@@ -8343,13 +8343,13 @@
         <v>172</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H14" s="2">
         <v>8000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J14" s="9">
         <v>2000</v>
@@ -8375,13 +8375,13 @@
         <v>173</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H15" s="2">
         <v>8000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J15" s="9">
         <v>2000</v>
@@ -8407,13 +8407,13 @@
         <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H16" s="2">
         <v>8000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J16" s="9">
         <v>2000</v>
@@ -8439,13 +8439,13 @@
         <v>174</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H17" s="2">
         <v>8000</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J17" s="9">
         <v>2000</v>
@@ -8471,13 +8471,13 @@
         <v>175</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H18" s="2">
         <v>8000</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J18" s="9">
         <v>2000</v>
@@ -8503,13 +8503,13 @@
         <v>164</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H19" s="2">
         <v>8000</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J19" s="9">
         <v>2000</v>
@@ -8535,13 +8535,13 @@
         <v>176</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H20" s="2">
         <v>8000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J20" s="9">
         <v>2000</v>
@@ -8567,13 +8567,13 @@
         <v>165</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H21" s="2">
         <v>8000</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J21" s="9">
         <v>2000</v>
@@ -8599,13 +8599,13 @@
         <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H22" s="2">
         <v>8000</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J22" s="9">
         <v>2000</v>
@@ -8631,13 +8631,13 @@
         <v>167</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H23" s="2">
         <v>8000</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J23" s="9">
         <v>2000</v>
@@ -8663,13 +8663,13 @@
         <v>168</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H24" s="2">
         <v>8000</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J24" s="9">
         <v>2000</v>
@@ -8695,13 +8695,13 @@
         <v>169</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H25" s="2">
         <v>8000</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J25" s="9">
         <v>2000</v>
@@ -8727,13 +8727,13 @@
         <v>170</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H26" s="2">
         <v>8000</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J26" s="9">
         <v>2000</v>
@@ -8759,13 +8759,13 @@
         <v>171</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H27" s="2">
         <v>8000</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J27" s="9">
         <v>2000</v>
@@ -8791,13 +8791,13 @@
         <v>186</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H28" s="2">
         <v>8000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J28" s="9">
         <v>2000</v>
@@ -8823,13 +8823,13 @@
         <v>172</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H29" s="2">
         <v>8000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J29" s="9">
         <v>2000</v>
@@ -8855,13 +8855,13 @@
         <v>173</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H30" s="2">
         <v>8000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J30" s="9">
         <v>2000</v>
@@ -8887,13 +8887,13 @@
         <v>187</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H31" s="2">
         <v>8000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J31" s="9">
         <v>2000</v>
@@ -8919,13 +8919,13 @@
         <v>174</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H32" s="2">
         <v>8000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J32" s="9">
         <v>2000</v>
@@ -8951,13 +8951,13 @@
         <v>175</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H33" s="2">
         <v>8000</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J33" s="9">
         <v>2000</v>
@@ -8983,13 +8983,13 @@
         <v>164</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H34" s="2">
         <v>8000</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J34" s="9">
         <v>2000</v>
@@ -9015,13 +9015,13 @@
         <v>176</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H35" s="2">
         <v>8000</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J35" s="9">
         <v>2000</v>
@@ -9047,13 +9047,13 @@
         <v>165</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H36" s="2">
         <v>8000</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J36" s="9">
         <v>2000</v>
@@ -9079,13 +9079,13 @@
         <v>166</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H37" s="2">
         <v>8000</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J37" s="9">
         <v>2000</v>
@@ -9111,13 +9111,13 @@
         <v>167</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H38" s="2">
         <v>8000</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J38" s="9">
         <v>2000</v>
@@ -9143,13 +9143,13 @@
         <v>168</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H39" s="2">
         <v>8000</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J39" s="9">
         <v>2000</v>
@@ -9175,13 +9175,13 @@
         <v>169</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H40" s="2">
         <v>8000</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J40" s="9">
         <v>2000</v>
@@ -9207,13 +9207,13 @@
         <v>170</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H41" s="2">
         <v>8000</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J41" s="9">
         <v>2000</v>
@@ -9239,13 +9239,13 @@
         <v>171</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H42" s="2">
         <v>8000</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J42" s="9">
         <v>2000</v>
@@ -9271,13 +9271,13 @@
         <v>186</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H43" s="2">
         <v>8000</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J43" s="9">
         <v>2000</v>
@@ -9303,13 +9303,13 @@
         <v>172</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H44" s="2">
         <v>8000</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J44" s="9">
         <v>2000</v>
@@ -9335,13 +9335,13 @@
         <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H45" s="2">
         <v>8000</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J45" s="9">
         <v>2000</v>
@@ -9367,13 +9367,13 @@
         <v>187</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H46" s="2">
         <v>8000</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J46" s="9">
         <v>2000</v>
@@ -9399,13 +9399,13 @@
         <v>174</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H47" s="2">
         <v>8000</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J47" s="9">
         <v>2000</v>
@@ -9431,13 +9431,13 @@
         <v>175</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H48" s="2">
         <v>8000</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J48" s="9">
         <v>2000</v>
@@ -9517,226 +9517,226 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N57" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N58" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N59" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O59" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N62" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O65" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N66" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N69" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O71" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O72" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N73" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N76" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N77" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O77" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N78" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O78" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O79" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O81" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O82" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O83" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="396">
   <si>
     <t>sheet名</t>
   </si>
@@ -1547,10 +1547,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>普通</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1878,6 +1874,14 @@
   </si>
   <si>
     <t>洗炼瓶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4493,8 +4497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4561,40 +4565,40 @@
         <v>268</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="U1" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -4641,40 +4645,40 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="P2" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="Q2" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="R2" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="S2" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="T2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U2" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="V2" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="W2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X2" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="Y2" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="Z2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
@@ -4721,40 +4725,40 @@
         <v>271</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4795,7 +4799,7 @@
         <v>20000</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
@@ -4807,7 +4811,7 @@
         <v>5000</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R4" s="2">
         <v>5000</v>
@@ -4816,7 +4820,7 @@
         <v>12500</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U4" s="2">
         <v>12500</v>
@@ -4825,7 +4829,7 @@
         <v>17500</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X4" s="2">
         <v>17500</v>
@@ -4834,7 +4838,7 @@
         <v>30000</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4875,7 +4879,7 @@
         <v>20000</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N5" s="2">
         <v>2</v>
@@ -4887,7 +4891,7 @@
         <v>5000</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R5" s="2">
         <v>5000</v>
@@ -4896,7 +4900,7 @@
         <v>15000</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U5" s="2">
         <v>15000</v>
@@ -4905,7 +4909,7 @@
         <v>22500</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X5" s="2">
         <v>22500</v>
@@ -4914,7 +4918,7 @@
         <v>35000</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4955,7 +4959,7 @@
         <v>20000</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N6" s="2">
         <v>3</v>
@@ -4967,7 +4971,7 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R6" s="2">
         <v>5000</v>
@@ -4976,7 +4980,7 @@
         <v>17500</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U6" s="2">
         <v>17500</v>
@@ -4985,7 +4989,7 @@
         <v>25000</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X6" s="2">
         <v>25000</v>
@@ -4994,7 +4998,7 @@
         <v>40000</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -8023,13 +8027,13 @@
         <v>164</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H4" s="2">
         <v>8000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J4" s="9">
         <v>2000</v>
@@ -8055,13 +8059,13 @@
         <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H5" s="2">
         <v>8000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J5" s="9">
         <v>2000</v>
@@ -8087,13 +8091,13 @@
         <v>165</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H6" s="2">
         <v>8000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J6" s="9">
         <v>2000</v>
@@ -8119,13 +8123,13 @@
         <v>166</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H7" s="2">
         <v>8000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J7" s="9">
         <v>2000</v>
@@ -8151,13 +8155,13 @@
         <v>167</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H8" s="2">
         <v>8000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J8" s="9">
         <v>2000</v>
@@ -8183,13 +8187,13 @@
         <v>168</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H9" s="2">
         <v>8000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J9" s="9">
         <v>2000</v>
@@ -8215,13 +8219,13 @@
         <v>169</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H10" s="2">
         <v>8000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J10" s="9">
         <v>2000</v>
@@ -8247,13 +8251,13 @@
         <v>170</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H11" s="2">
         <v>8000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J11" s="9">
         <v>2000</v>
@@ -8279,13 +8283,13 @@
         <v>171</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H12" s="2">
         <v>8000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J12" s="9">
         <v>2000</v>
@@ -8311,13 +8315,13 @@
         <v>186</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H13" s="2">
         <v>8000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J13" s="9">
         <v>2000</v>
@@ -8343,13 +8347,13 @@
         <v>172</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H14" s="2">
         <v>8000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J14" s="9">
         <v>2000</v>
@@ -8375,13 +8379,13 @@
         <v>173</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H15" s="2">
         <v>8000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J15" s="9">
         <v>2000</v>
@@ -8407,13 +8411,13 @@
         <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H16" s="2">
         <v>8000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J16" s="9">
         <v>2000</v>
@@ -8439,13 +8443,13 @@
         <v>174</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H17" s="2">
         <v>8000</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J17" s="9">
         <v>2000</v>
@@ -8471,13 +8475,13 @@
         <v>175</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H18" s="2">
         <v>8000</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J18" s="9">
         <v>2000</v>
@@ -8503,13 +8507,13 @@
         <v>164</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H19" s="2">
         <v>8000</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J19" s="9">
         <v>2000</v>
@@ -8535,13 +8539,13 @@
         <v>176</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H20" s="2">
         <v>8000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J20" s="9">
         <v>2000</v>
@@ -8567,13 +8571,13 @@
         <v>165</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H21" s="2">
         <v>8000</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J21" s="9">
         <v>2000</v>
@@ -8599,13 +8603,13 @@
         <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H22" s="2">
         <v>8000</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J22" s="9">
         <v>2000</v>
@@ -8631,13 +8635,13 @@
         <v>167</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H23" s="2">
         <v>8000</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J23" s="9">
         <v>2000</v>
@@ -8663,13 +8667,13 @@
         <v>168</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H24" s="2">
         <v>8000</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J24" s="9">
         <v>2000</v>
@@ -8695,13 +8699,13 @@
         <v>169</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H25" s="2">
         <v>8000</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J25" s="9">
         <v>2000</v>
@@ -8727,13 +8731,13 @@
         <v>170</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H26" s="2">
         <v>8000</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J26" s="9">
         <v>2000</v>
@@ -8759,13 +8763,13 @@
         <v>171</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H27" s="2">
         <v>8000</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J27" s="9">
         <v>2000</v>
@@ -8791,13 +8795,13 @@
         <v>186</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H28" s="2">
         <v>8000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J28" s="9">
         <v>2000</v>
@@ -8823,13 +8827,13 @@
         <v>172</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H29" s="2">
         <v>8000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J29" s="9">
         <v>2000</v>
@@ -8855,13 +8859,13 @@
         <v>173</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H30" s="2">
         <v>8000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J30" s="9">
         <v>2000</v>
@@ -8887,13 +8891,13 @@
         <v>187</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H31" s="2">
         <v>8000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J31" s="9">
         <v>2000</v>
@@ -8919,13 +8923,13 @@
         <v>174</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H32" s="2">
         <v>8000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J32" s="9">
         <v>2000</v>
@@ -8951,13 +8955,13 @@
         <v>175</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H33" s="2">
         <v>8000</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J33" s="9">
         <v>2000</v>
@@ -8983,13 +8987,13 @@
         <v>164</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H34" s="2">
         <v>8000</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J34" s="9">
         <v>2000</v>
@@ -9015,13 +9019,13 @@
         <v>176</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H35" s="2">
         <v>8000</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J35" s="9">
         <v>2000</v>
@@ -9047,13 +9051,13 @@
         <v>165</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H36" s="2">
         <v>8000</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J36" s="9">
         <v>2000</v>
@@ -9079,13 +9083,13 @@
         <v>166</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H37" s="2">
         <v>8000</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J37" s="9">
         <v>2000</v>
@@ -9111,13 +9115,13 @@
         <v>167</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H38" s="2">
         <v>8000</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J38" s="9">
         <v>2000</v>
@@ -9143,13 +9147,13 @@
         <v>168</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H39" s="2">
         <v>8000</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J39" s="9">
         <v>2000</v>
@@ -9175,13 +9179,13 @@
         <v>169</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H40" s="2">
         <v>8000</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J40" s="9">
         <v>2000</v>
@@ -9207,13 +9211,13 @@
         <v>170</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H41" s="2">
         <v>8000</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J41" s="9">
         <v>2000</v>
@@ -9239,13 +9243,13 @@
         <v>171</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H42" s="2">
         <v>8000</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J42" s="9">
         <v>2000</v>
@@ -9271,13 +9275,13 @@
         <v>186</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H43" s="2">
         <v>8000</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J43" s="9">
         <v>2000</v>
@@ -9303,13 +9307,13 @@
         <v>172</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H44" s="2">
         <v>8000</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J44" s="9">
         <v>2000</v>
@@ -9335,13 +9339,13 @@
         <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H45" s="2">
         <v>8000</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J45" s="9">
         <v>2000</v>
@@ -9367,13 +9371,13 @@
         <v>187</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H46" s="2">
         <v>8000</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J46" s="9">
         <v>2000</v>
@@ -9399,13 +9403,13 @@
         <v>174</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H47" s="2">
         <v>8000</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J47" s="9">
         <v>2000</v>
@@ -9431,13 +9435,13 @@
         <v>175</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H48" s="2">
         <v>8000</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J48" s="9">
         <v>2000</v>
@@ -9517,226 +9521,226 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O56" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N61" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O63" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N64" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N66" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O66" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O67" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N69" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N71" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N74" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N75" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O75" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N76" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N77" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O78" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="81" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N81" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O82" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N83" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O83" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -4497,7 +4497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
@@ -7896,8 +7896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7905,7 +7905,7 @@
     <col min="6" max="6" width="24.75" customWidth="1"/>
     <col min="7" max="7" width="30.75" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="35.5" customWidth="1"/>
+    <col min="9" max="9" width="37.75" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="14" max="14" width="14.625" customWidth="1"/>
     <col min="15" max="15" width="35.875" customWidth="1"/>

--- a/Excel/镇魂街/random_foster.洗练.xlsx
+++ b/Excel/镇魂街/random_foster.洗练.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="406">
   <si>
     <t>sheet名</t>
   </si>
@@ -1531,358 +1531,406 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>DefBsFac</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精良</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>极致</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[1].min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[1].max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[2].min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[2].max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[3].min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[3].max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[4].min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[4].max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[1].desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[2].desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[3].desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scores[4].desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数1.min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数1.max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数1.desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数2.min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数2.max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数2.desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数3.min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数3.max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数3.desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数4.min</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数4.max</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数4.desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能书1-暴击</t>
+  </si>
+  <si>
+    <t>技能书1-高级暴击</t>
+  </si>
+  <si>
+    <t>技能书2-爆伤</t>
+  </si>
+  <si>
+    <t>技能书2-高级爆伤</t>
+  </si>
+  <si>
+    <t>技能书3-格挡</t>
+  </si>
+  <si>
+    <t>技能书3-高级格挡</t>
+  </si>
+  <si>
+    <t>技能书4-穿透</t>
+  </si>
+  <si>
+    <t>技能书4-高级穿透</t>
+  </si>
+  <si>
+    <t>技能书5-抗暴击</t>
+  </si>
+  <si>
+    <t>技能书5-高级抗暴击</t>
+  </si>
+  <si>
+    <t>技能书6-抗格挡</t>
+  </si>
+  <si>
+    <t>技能书6-高级抗格挡</t>
+  </si>
+  <si>
+    <t>技能书7-抗穿透</t>
+  </si>
+  <si>
+    <t>技能书7-高级抗穿透</t>
+  </si>
+  <si>
+    <t>技能书8-效果命中</t>
+  </si>
+  <si>
+    <t>技能书8-高级效果命中</t>
+  </si>
+  <si>
+    <t>技能书9-效果抵抗</t>
+  </si>
+  <si>
+    <t>技能书9-高级效果抵抗</t>
+  </si>
+  <si>
+    <t>技能书10-守护灵百分比攻击</t>
+  </si>
+  <si>
+    <t>技能书10-高级守护灵百分比攻击</t>
+  </si>
+  <si>
+    <t>技能书11-守护灵百分比防御</t>
+  </si>
+  <si>
+    <t>技能书11-高级守护灵百分比防御</t>
+  </si>
+  <si>
+    <t>技能书12-守护灵百分比血量</t>
+  </si>
+  <si>
+    <t>技能书12-高级守护灵百分比血量</t>
+  </si>
+  <si>
+    <t>技能书13-概率反弹伤害</t>
+  </si>
+  <si>
+    <t>技能书13-高级概率反弹伤害</t>
+  </si>
+  <si>
+    <t>技能书14-无视反弹伤害+减伤</t>
+  </si>
+  <si>
+    <t>技能书14-高级无视反弹伤害+减伤</t>
+  </si>
+  <si>
+    <t>技能书15-降低所受伤害-造成伤害</t>
+  </si>
+  <si>
+    <t>技能书15-高级降低所受伤害-造成伤害</t>
+  </si>
+  <si>
+    <t>必杀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级必杀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级致命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级穿透</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级坚韧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级精准</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏斜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级偏斜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级生命</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能书13-反弹伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能书13-高级反弹伤害</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆棘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">高级荆棘 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>披荆斩棘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级披荆斩棘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级防守</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级进攻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级格挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级冲击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级阻挡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗炼瓶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>xilian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.lua</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>AtkBsFac</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>DefBsFac</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HpBsFac</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>优秀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>精良</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>极致</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[1].min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[1].max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[2].min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[2].max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[3].min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[3].max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[4].min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[4].max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[1].desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[2].desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[3].desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scores[4].desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数1.min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数1.max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数1.desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数2.min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数2.max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数2.desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数3.min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数3.max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数3.desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数4.min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数4.max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分数4.desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能书1-暴击</t>
-  </si>
-  <si>
-    <t>技能书1-高级暴击</t>
-  </si>
-  <si>
-    <t>技能书2-爆伤</t>
-  </si>
-  <si>
-    <t>技能书2-高级爆伤</t>
-  </si>
-  <si>
-    <t>技能书3-格挡</t>
-  </si>
-  <si>
-    <t>技能书3-高级格挡</t>
-  </si>
-  <si>
-    <t>技能书4-穿透</t>
-  </si>
-  <si>
-    <t>技能书4-高级穿透</t>
-  </si>
-  <si>
-    <t>技能书5-抗暴击</t>
-  </si>
-  <si>
-    <t>技能书5-高级抗暴击</t>
-  </si>
-  <si>
-    <t>技能书6-抗格挡</t>
-  </si>
-  <si>
-    <t>技能书6-高级抗格挡</t>
-  </si>
-  <si>
-    <t>技能书7-抗穿透</t>
-  </si>
-  <si>
-    <t>技能书7-高级抗穿透</t>
-  </si>
-  <si>
-    <t>技能书8-效果命中</t>
-  </si>
-  <si>
-    <t>技能书8-高级效果命中</t>
-  </si>
-  <si>
-    <t>技能书9-效果抵抗</t>
-  </si>
-  <si>
-    <t>技能书9-高级效果抵抗</t>
-  </si>
-  <si>
-    <t>技能书10-守护灵百分比攻击</t>
-  </si>
-  <si>
-    <t>技能书10-高级守护灵百分比攻击</t>
-  </si>
-  <si>
-    <t>技能书11-守护灵百分比防御</t>
-  </si>
-  <si>
-    <t>技能书11-高级守护灵百分比防御</t>
-  </si>
-  <si>
-    <t>技能书12-守护灵百分比血量</t>
-  </si>
-  <si>
-    <t>技能书12-高级守护灵百分比血量</t>
-  </si>
-  <si>
-    <t>技能书13-概率反弹伤害</t>
-  </si>
-  <si>
-    <t>技能书13-高级概率反弹伤害</t>
-  </si>
-  <si>
-    <t>技能书14-无视反弹伤害+减伤</t>
-  </si>
-  <si>
-    <t>技能书14-高级无视反弹伤害+减伤</t>
-  </si>
-  <si>
-    <t>技能书15-降低所受伤害-造成伤害</t>
-  </si>
-  <si>
-    <t>技能书15-高级降低所受伤害-造成伤害</t>
-  </si>
-  <si>
-    <t>必杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级必杀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>致命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级致命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级穿透</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级坚韧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>精准</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级精准</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏斜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级偏斜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级生命</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能书13-反弹伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能书13-高级反弹伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>荆棘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">高级荆棘 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>披荆斩棘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级披荆斩棘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>防守</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级防守</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级进攻</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级格挡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级冲击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>阻挡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级阻挡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗炼瓶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>Skills</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能书4-高级幸运一击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能书4-幸运一击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能书7-抗幸运一击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能书7-高级抗幸运一击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能书4-幸运一击</t>
+  </si>
+  <si>
+    <t>技能书4-高级幸运一击</t>
+  </si>
+  <si>
+    <t>技能书7-抗幸运一击</t>
+  </si>
+  <si>
+    <t>技能书7-高级抗幸运一击</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2466,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2539,7 +2587,7 @@
         <v>275</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>394</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -4497,8 +4545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4550,13 +4598,13 @@
         <v>288</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>301</v>
-      </c>
       <c r="L1" s="4" t="s">
-        <v>302</v>
+        <v>396</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>9</v>
@@ -4565,40 +4613,40 @@
         <v>268</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="T1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="T1" s="5" t="s">
+      <c r="X1" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -4645,40 +4693,40 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="R2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="T2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="U2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="V2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="W2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="X2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Y2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Z2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
@@ -4725,40 +4773,40 @@
         <v>271</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4790,16 +4838,16 @@
         <v>0.15</v>
       </c>
       <c r="J4" s="9">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="K4" s="9">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="L4" s="9">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N4" s="2">
         <v>1</v>
@@ -4811,7 +4859,7 @@
         <v>5000</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R4" s="2">
         <v>5000</v>
@@ -4820,7 +4868,7 @@
         <v>12500</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U4" s="2">
         <v>12500</v>
@@ -4829,7 +4877,7 @@
         <v>17500</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="X4" s="2">
         <v>17500</v>
@@ -4838,7 +4886,7 @@
         <v>30000</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4870,16 +4918,16 @@
         <v>0.2</v>
       </c>
       <c r="J5" s="9">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="K5" s="9">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="L5" s="9">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N5" s="2">
         <v>2</v>
@@ -4891,7 +4939,7 @@
         <v>5000</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R5" s="2">
         <v>5000</v>
@@ -4900,7 +4948,7 @@
         <v>15000</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U5" s="2">
         <v>15000</v>
@@ -4909,7 +4957,7 @@
         <v>22500</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="X5" s="2">
         <v>22500</v>
@@ -4918,7 +4966,7 @@
         <v>35000</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
@@ -4950,16 +4998,16 @@
         <v>0.25</v>
       </c>
       <c r="J6" s="9">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="K6" s="9">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="L6" s="9">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N6" s="2">
         <v>3</v>
@@ -4971,7 +5019,7 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="R6" s="2">
         <v>5000</v>
@@ -4980,7 +5028,7 @@
         <v>17500</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="U6" s="2">
         <v>17500</v>
@@ -4989,7 +5037,7 @@
         <v>25000</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="X6" s="2">
         <v>25000</v>
@@ -4998,7 +5046,7 @@
         <v>40000</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -7896,8 +7944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7954,7 +8002,7 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
         <v>184</v>
@@ -8015,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>397</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -8027,13 +8075,13 @@
         <v>164</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H4" s="2">
         <v>8000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J4" s="9">
         <v>2000</v>
@@ -8059,13 +8107,13 @@
         <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H5" s="2">
         <v>8000</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J5" s="9">
         <v>2000</v>
@@ -8091,13 +8139,13 @@
         <v>165</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H6" s="2">
         <v>8000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J6" s="9">
         <v>2000</v>
@@ -8122,14 +8170,14 @@
       <c r="F7" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>339</v>
+      <c r="G7" s="3" t="s">
+        <v>399</v>
       </c>
       <c r="H7" s="2">
         <v>8000</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>340</v>
+      <c r="I7" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="J7" s="9">
         <v>2000</v>
@@ -8155,13 +8203,13 @@
         <v>167</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H8" s="2">
         <v>8000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J8" s="9">
         <v>2000</v>
@@ -8187,13 +8235,13 @@
         <v>168</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H9" s="2">
         <v>8000</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J9" s="9">
         <v>2000</v>
@@ -8218,14 +8266,14 @@
       <c r="F10" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>345</v>
+      <c r="G10" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="H10" s="2">
         <v>8000</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>346</v>
+      <c r="I10" s="3" t="s">
+        <v>401</v>
       </c>
       <c r="J10" s="9">
         <v>2000</v>
@@ -8251,13 +8299,13 @@
         <v>170</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H11" s="2">
         <v>8000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J11" s="9">
         <v>2000</v>
@@ -8283,13 +8331,13 @@
         <v>171</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H12" s="2">
         <v>8000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J12" s="9">
         <v>2000</v>
@@ -8315,13 +8363,13 @@
         <v>186</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H13" s="2">
         <v>8000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J13" s="9">
         <v>2000</v>
@@ -8347,13 +8395,13 @@
         <v>172</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H14" s="2">
         <v>8000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J14" s="9">
         <v>2000</v>
@@ -8379,13 +8427,13 @@
         <v>173</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H15" s="2">
         <v>8000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J15" s="9">
         <v>2000</v>
@@ -8411,13 +8459,13 @@
         <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H16" s="2">
         <v>8000</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J16" s="9">
         <v>2000</v>
@@ -8443,13 +8491,13 @@
         <v>174</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H17" s="2">
         <v>8000</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J17" s="9">
         <v>2000</v>
@@ -8475,13 +8523,13 @@
         <v>175</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H18" s="2">
         <v>8000</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J18" s="9">
         <v>2000</v>
@@ -8507,13 +8555,13 @@
         <v>164</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H19" s="2">
         <v>8000</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J19" s="9">
         <v>2000</v>
@@ -8539,13 +8587,13 @@
         <v>176</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H20" s="2">
         <v>8000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J20" s="9">
         <v>2000</v>
@@ -8571,13 +8619,13 @@
         <v>165</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H21" s="2">
         <v>8000</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J21" s="9">
         <v>2000</v>
@@ -8603,13 +8651,13 @@
         <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="H22" s="2">
         <v>8000</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="J22" s="9">
         <v>2000</v>
@@ -8635,13 +8683,13 @@
         <v>167</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H23" s="2">
         <v>8000</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J23" s="9">
         <v>2000</v>
@@ -8667,13 +8715,13 @@
         <v>168</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H24" s="2">
         <v>8000</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J24" s="9">
         <v>2000</v>
@@ -8699,13 +8747,13 @@
         <v>169</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="H25" s="2">
         <v>8000</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="J25" s="9">
         <v>2000</v>
@@ -8731,13 +8779,13 @@
         <v>170</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H26" s="2">
         <v>8000</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J26" s="9">
         <v>2000</v>
@@ -8763,13 +8811,13 @@
         <v>171</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H27" s="2">
         <v>8000</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J27" s="9">
         <v>2000</v>
@@ -8795,13 +8843,13 @@
         <v>186</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H28" s="2">
         <v>8000</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J28" s="9">
         <v>2000</v>
@@ -8827,13 +8875,13 @@
         <v>172</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H29" s="2">
         <v>8000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J29" s="9">
         <v>2000</v>
@@ -8859,13 +8907,13 @@
         <v>173</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H30" s="2">
         <v>8000</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J30" s="9">
         <v>2000</v>
@@ -8891,13 +8939,13 @@
         <v>187</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H31" s="2">
         <v>8000</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J31" s="9">
         <v>2000</v>
@@ -8923,13 +8971,13 @@
         <v>174</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H32" s="2">
         <v>8000</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J32" s="9">
         <v>2000</v>
@@ -8955,13 +9003,13 @@
         <v>175</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H33" s="2">
         <v>8000</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J33" s="9">
         <v>2000</v>
@@ -8987,13 +9035,13 @@
         <v>164</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H34" s="2">
         <v>8000</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J34" s="9">
         <v>2000</v>
@@ -9019,13 +9067,13 @@
         <v>176</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H35" s="2">
         <v>8000</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J35" s="9">
         <v>2000</v>
@@ -9051,13 +9099,13 @@
         <v>165</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H36" s="2">
         <v>8000</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J36" s="9">
         <v>2000</v>
@@ -9083,13 +9131,13 @@
         <v>166</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="H37" s="2">
         <v>8000</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="J37" s="9">
         <v>2000</v>
@@ -9115,13 +9163,13 @@
         <v>167</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H38" s="2">
         <v>8000</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J38" s="9">
         <v>2000</v>
@@ -9147,13 +9195,13 @@
         <v>168</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H39" s="2">
         <v>8000</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J39" s="9">
         <v>2000</v>
@@ -9179,13 +9227,13 @@
         <v>169</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="H40" s="2">
         <v>8000</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="J40" s="9">
         <v>2000</v>
@@ -9211,13 +9259,13 @@
         <v>170</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H41" s="2">
         <v>8000</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J41" s="9">
         <v>2000</v>
@@ -9243,13 +9291,13 @@
         <v>171</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H42" s="2">
         <v>8000</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J42" s="9">
         <v>2000</v>
@@ -9275,13 +9323,13 @@
         <v>186</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H43" s="2">
         <v>8000</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J43" s="9">
         <v>2000</v>
@@ -9307,13 +9355,13 @@
         <v>172</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H44" s="2">
         <v>8000</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J44" s="9">
         <v>2000</v>
@@ -9339,13 +9387,13 @@
         <v>173</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H45" s="2">
         <v>8000</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J45" s="9">
         <v>2000</v>
@@ -9371,13 +9419,13 @@
         <v>187</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H46" s="2">
         <v>8000</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J46" s="9">
         <v>2000</v>
@@ -9403,13 +9451,13 @@
         <v>174</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H47" s="2">
         <v>8000</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J47" s="9">
         <v>2000</v>
@@ -9435,13 +9483,13 @@
         <v>175</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H48" s="2">
         <v>8000</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J48" s="9">
         <v>2000</v>
@@ -9521,226 +9569,226 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N56" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O56" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N57" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O57" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N58" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O58" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N59" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N60" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O60" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N61" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O61" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N62" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O62" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N63" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="O63" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O64" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N65" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O65" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N66" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O66" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N67" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="O67" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N68" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O68" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N69" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O69" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N70" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="O70" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N71" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O71" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N72" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="O72" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N73" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O73" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N74" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="O74" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N75" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N76" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O76" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N77" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="O77" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N78" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O78" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N79" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O79" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N80" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="O80" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="81" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="O81" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="82" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O82" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N83" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O83" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
